--- a/lib/excel_templates/process_design_plan_report.xlsx
+++ b/lib/excel_templates/process_design_plan_report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1710" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1716" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D49" authorId="0" shapeId="0">
+    <comment ref="D51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="0" shapeId="0">
+    <comment ref="D52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D74" authorId="0" shapeId="0">
+    <comment ref="D76" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D77" authorId="0" shapeId="0">
+    <comment ref="D79" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="242">
   <si>
     <t>S-2501 3版</t>
     <rPh sb="8" eb="9">
@@ -1772,10 +1772,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>#{?crosstab_check}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>クロスタブ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1819,14 +1815,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#{?crosstab_yotei}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{?crosstab_kanryou}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>#{?dr_setsubi_yotei}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1869,10 +1857,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>#{?cpk_result}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>設備名：#{?dr_setsubi_equipment_name}</t>
     <rPh sb="0" eb="2">
       <t>セツビ</t>
@@ -1947,6 +1931,144 @@
     <rPh sb="7" eb="8">
       <t>ズ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Cpk1.67以上(#{?cpk_satisfied_count}個)、Cpk1.67以下(#{?not_cpk_satisfied_count}個)、結果：#{?cpk_result}</t>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品証（#{?kataken_person_in_charge}）</t>
+    <rPh sb="0" eb="1">
+      <t>ヒン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>型検</t>
+    <rPh sb="0" eb="2">
+      <t>カタケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#{?kataken_check}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Cpk判定結果：#{?kataken_cpk_result}</t>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cpk1.67未満：#{?kataken_cpk_NG}個</t>
+    <rPh sb="7" eb="9">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cpk1.67以上：#{?kataken_cpk_OK}個</t>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図面規格判定結果：#{?kataken_spec_result}</t>
+    <rPh sb="0" eb="2">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図面規格合格：#{?kataken_spec_OK}個</t>
+    <rPh sb="0" eb="2">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゴウカク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図面規格NG：#{?kataken_spec_NG}個</t>
+    <rPh sb="0" eb="2">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#{?msa_crosstab_yotei}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#{?msa_crosstab_kanryou}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品証（#{?msa_crosstab_person_in_charge}）</t>
+    <rPh sb="0" eb="1">
+      <t>ヒン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レポート数：#{?msa_crosstab_count}、◎：#{?oomaru_count}個、○：#{?maru_count}個、△：#{?sankaku_count}個、×：#{?batsu_count}個</t>
+    <rPh sb="47" eb="48">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#{?msa_crosstab_check}</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2626,7 +2748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="340">
+  <cellXfs count="359">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2720,6 +2842,114 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2789,15 +3019,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3044,11 +3265,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3275,6 +3499,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3518,27 +3748,12 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -3575,44 +3790,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3927,149 +4106,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z92"/>
+  <dimension ref="A1:Z94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31:J31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="26" width="3.375" customWidth="1"/>
-    <col min="246" max="246" width="12.75" customWidth="1"/>
-    <col min="247" max="270" width="3.375" customWidth="1"/>
-    <col min="502" max="502" width="12.75" customWidth="1"/>
-    <col min="503" max="526" width="3.375" customWidth="1"/>
-    <col min="758" max="758" width="12.75" customWidth="1"/>
-    <col min="759" max="782" width="3.375" customWidth="1"/>
-    <col min="1014" max="1014" width="12.75" customWidth="1"/>
-    <col min="1015" max="1038" width="3.375" customWidth="1"/>
-    <col min="1270" max="1270" width="12.75" customWidth="1"/>
-    <col min="1271" max="1294" width="3.375" customWidth="1"/>
-    <col min="1526" max="1526" width="12.75" customWidth="1"/>
-    <col min="1527" max="1550" width="3.375" customWidth="1"/>
-    <col min="1782" max="1782" width="12.75" customWidth="1"/>
-    <col min="1783" max="1806" width="3.375" customWidth="1"/>
-    <col min="2038" max="2038" width="12.75" customWidth="1"/>
-    <col min="2039" max="2062" width="3.375" customWidth="1"/>
-    <col min="2294" max="2294" width="12.75" customWidth="1"/>
-    <col min="2295" max="2318" width="3.375" customWidth="1"/>
-    <col min="2550" max="2550" width="12.75" customWidth="1"/>
-    <col min="2551" max="2574" width="3.375" customWidth="1"/>
-    <col min="2806" max="2806" width="12.75" customWidth="1"/>
-    <col min="2807" max="2830" width="3.375" customWidth="1"/>
-    <col min="3062" max="3062" width="12.75" customWidth="1"/>
-    <col min="3063" max="3086" width="3.375" customWidth="1"/>
-    <col min="3318" max="3318" width="12.75" customWidth="1"/>
-    <col min="3319" max="3342" width="3.375" customWidth="1"/>
-    <col min="3574" max="3574" width="12.75" customWidth="1"/>
-    <col min="3575" max="3598" width="3.375" customWidth="1"/>
-    <col min="3830" max="3830" width="12.75" customWidth="1"/>
-    <col min="3831" max="3854" width="3.375" customWidth="1"/>
-    <col min="4086" max="4086" width="12.75" customWidth="1"/>
-    <col min="4087" max="4110" width="3.375" customWidth="1"/>
-    <col min="4342" max="4342" width="12.75" customWidth="1"/>
-    <col min="4343" max="4366" width="3.375" customWidth="1"/>
-    <col min="4598" max="4598" width="12.75" customWidth="1"/>
-    <col min="4599" max="4622" width="3.375" customWidth="1"/>
-    <col min="4854" max="4854" width="12.75" customWidth="1"/>
-    <col min="4855" max="4878" width="3.375" customWidth="1"/>
-    <col min="5110" max="5110" width="12.75" customWidth="1"/>
-    <col min="5111" max="5134" width="3.375" customWidth="1"/>
-    <col min="5366" max="5366" width="12.75" customWidth="1"/>
-    <col min="5367" max="5390" width="3.375" customWidth="1"/>
-    <col min="5622" max="5622" width="12.75" customWidth="1"/>
-    <col min="5623" max="5646" width="3.375" customWidth="1"/>
-    <col min="5878" max="5878" width="12.75" customWidth="1"/>
-    <col min="5879" max="5902" width="3.375" customWidth="1"/>
-    <col min="6134" max="6134" width="12.75" customWidth="1"/>
-    <col min="6135" max="6158" width="3.375" customWidth="1"/>
-    <col min="6390" max="6390" width="12.75" customWidth="1"/>
-    <col min="6391" max="6414" width="3.375" customWidth="1"/>
-    <col min="6646" max="6646" width="12.75" customWidth="1"/>
-    <col min="6647" max="6670" width="3.375" customWidth="1"/>
-    <col min="6902" max="6902" width="12.75" customWidth="1"/>
-    <col min="6903" max="6926" width="3.375" customWidth="1"/>
-    <col min="7158" max="7158" width="12.75" customWidth="1"/>
-    <col min="7159" max="7182" width="3.375" customWidth="1"/>
-    <col min="7414" max="7414" width="12.75" customWidth="1"/>
-    <col min="7415" max="7438" width="3.375" customWidth="1"/>
-    <col min="7670" max="7670" width="12.75" customWidth="1"/>
-    <col min="7671" max="7694" width="3.375" customWidth="1"/>
-    <col min="7926" max="7926" width="12.75" customWidth="1"/>
-    <col min="7927" max="7950" width="3.375" customWidth="1"/>
-    <col min="8182" max="8182" width="12.75" customWidth="1"/>
-    <col min="8183" max="8206" width="3.375" customWidth="1"/>
-    <col min="8438" max="8438" width="12.75" customWidth="1"/>
-    <col min="8439" max="8462" width="3.375" customWidth="1"/>
-    <col min="8694" max="8694" width="12.75" customWidth="1"/>
-    <col min="8695" max="8718" width="3.375" customWidth="1"/>
-    <col min="8950" max="8950" width="12.75" customWidth="1"/>
-    <col min="8951" max="8974" width="3.375" customWidth="1"/>
-    <col min="9206" max="9206" width="12.75" customWidth="1"/>
-    <col min="9207" max="9230" width="3.375" customWidth="1"/>
-    <col min="9462" max="9462" width="12.75" customWidth="1"/>
-    <col min="9463" max="9486" width="3.375" customWidth="1"/>
-    <col min="9718" max="9718" width="12.75" customWidth="1"/>
-    <col min="9719" max="9742" width="3.375" customWidth="1"/>
-    <col min="9974" max="9974" width="12.75" customWidth="1"/>
-    <col min="9975" max="9998" width="3.375" customWidth="1"/>
-    <col min="10230" max="10230" width="12.75" customWidth="1"/>
-    <col min="10231" max="10254" width="3.375" customWidth="1"/>
-    <col min="10486" max="10486" width="12.75" customWidth="1"/>
-    <col min="10487" max="10510" width="3.375" customWidth="1"/>
-    <col min="10742" max="10742" width="12.75" customWidth="1"/>
-    <col min="10743" max="10766" width="3.375" customWidth="1"/>
-    <col min="10998" max="10998" width="12.75" customWidth="1"/>
-    <col min="10999" max="11022" width="3.375" customWidth="1"/>
-    <col min="11254" max="11254" width="12.75" customWidth="1"/>
-    <col min="11255" max="11278" width="3.375" customWidth="1"/>
-    <col min="11510" max="11510" width="12.75" customWidth="1"/>
-    <col min="11511" max="11534" width="3.375" customWidth="1"/>
-    <col min="11766" max="11766" width="12.75" customWidth="1"/>
-    <col min="11767" max="11790" width="3.375" customWidth="1"/>
-    <col min="12022" max="12022" width="12.75" customWidth="1"/>
-    <col min="12023" max="12046" width="3.375" customWidth="1"/>
-    <col min="12278" max="12278" width="12.75" customWidth="1"/>
-    <col min="12279" max="12302" width="3.375" customWidth="1"/>
-    <col min="12534" max="12534" width="12.75" customWidth="1"/>
-    <col min="12535" max="12558" width="3.375" customWidth="1"/>
-    <col min="12790" max="12790" width="12.75" customWidth="1"/>
-    <col min="12791" max="12814" width="3.375" customWidth="1"/>
-    <col min="13046" max="13046" width="12.75" customWidth="1"/>
-    <col min="13047" max="13070" width="3.375" customWidth="1"/>
-    <col min="13302" max="13302" width="12.75" customWidth="1"/>
-    <col min="13303" max="13326" width="3.375" customWidth="1"/>
-    <col min="13558" max="13558" width="12.75" customWidth="1"/>
-    <col min="13559" max="13582" width="3.375" customWidth="1"/>
-    <col min="13814" max="13814" width="12.75" customWidth="1"/>
-    <col min="13815" max="13838" width="3.375" customWidth="1"/>
-    <col min="14070" max="14070" width="12.75" customWidth="1"/>
-    <col min="14071" max="14094" width="3.375" customWidth="1"/>
-    <col min="14326" max="14326" width="12.75" customWidth="1"/>
-    <col min="14327" max="14350" width="3.375" customWidth="1"/>
-    <col min="14582" max="14582" width="12.75" customWidth="1"/>
-    <col min="14583" max="14606" width="3.375" customWidth="1"/>
-    <col min="14838" max="14838" width="12.75" customWidth="1"/>
-    <col min="14839" max="14862" width="3.375" customWidth="1"/>
-    <col min="15094" max="15094" width="12.75" customWidth="1"/>
-    <col min="15095" max="15118" width="3.375" customWidth="1"/>
-    <col min="15350" max="15350" width="12.75" customWidth="1"/>
-    <col min="15351" max="15374" width="3.375" customWidth="1"/>
-    <col min="15606" max="15606" width="12.75" customWidth="1"/>
-    <col min="15607" max="15630" width="3.375" customWidth="1"/>
-    <col min="15862" max="15862" width="12.75" customWidth="1"/>
-    <col min="15863" max="15886" width="3.375" customWidth="1"/>
-    <col min="16118" max="16118" width="12.75" customWidth="1"/>
-    <col min="16119" max="16142" width="3.375" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" customWidth="1"/>
+    <col min="2" max="26" width="3.3984375" customWidth="1"/>
+    <col min="246" max="246" width="12.69921875" customWidth="1"/>
+    <col min="247" max="270" width="3.3984375" customWidth="1"/>
+    <col min="502" max="502" width="12.69921875" customWidth="1"/>
+    <col min="503" max="526" width="3.3984375" customWidth="1"/>
+    <col min="758" max="758" width="12.69921875" customWidth="1"/>
+    <col min="759" max="782" width="3.3984375" customWidth="1"/>
+    <col min="1014" max="1014" width="12.69921875" customWidth="1"/>
+    <col min="1015" max="1038" width="3.3984375" customWidth="1"/>
+    <col min="1270" max="1270" width="12.69921875" customWidth="1"/>
+    <col min="1271" max="1294" width="3.3984375" customWidth="1"/>
+    <col min="1526" max="1526" width="12.69921875" customWidth="1"/>
+    <col min="1527" max="1550" width="3.3984375" customWidth="1"/>
+    <col min="1782" max="1782" width="12.69921875" customWidth="1"/>
+    <col min="1783" max="1806" width="3.3984375" customWidth="1"/>
+    <col min="2038" max="2038" width="12.69921875" customWidth="1"/>
+    <col min="2039" max="2062" width="3.3984375" customWidth="1"/>
+    <col min="2294" max="2294" width="12.69921875" customWidth="1"/>
+    <col min="2295" max="2318" width="3.3984375" customWidth="1"/>
+    <col min="2550" max="2550" width="12.69921875" customWidth="1"/>
+    <col min="2551" max="2574" width="3.3984375" customWidth="1"/>
+    <col min="2806" max="2806" width="12.69921875" customWidth="1"/>
+    <col min="2807" max="2830" width="3.3984375" customWidth="1"/>
+    <col min="3062" max="3062" width="12.69921875" customWidth="1"/>
+    <col min="3063" max="3086" width="3.3984375" customWidth="1"/>
+    <col min="3318" max="3318" width="12.69921875" customWidth="1"/>
+    <col min="3319" max="3342" width="3.3984375" customWidth="1"/>
+    <col min="3574" max="3574" width="12.69921875" customWidth="1"/>
+    <col min="3575" max="3598" width="3.3984375" customWidth="1"/>
+    <col min="3830" max="3830" width="12.69921875" customWidth="1"/>
+    <col min="3831" max="3854" width="3.3984375" customWidth="1"/>
+    <col min="4086" max="4086" width="12.69921875" customWidth="1"/>
+    <col min="4087" max="4110" width="3.3984375" customWidth="1"/>
+    <col min="4342" max="4342" width="12.69921875" customWidth="1"/>
+    <col min="4343" max="4366" width="3.3984375" customWidth="1"/>
+    <col min="4598" max="4598" width="12.69921875" customWidth="1"/>
+    <col min="4599" max="4622" width="3.3984375" customWidth="1"/>
+    <col min="4854" max="4854" width="12.69921875" customWidth="1"/>
+    <col min="4855" max="4878" width="3.3984375" customWidth="1"/>
+    <col min="5110" max="5110" width="12.69921875" customWidth="1"/>
+    <col min="5111" max="5134" width="3.3984375" customWidth="1"/>
+    <col min="5366" max="5366" width="12.69921875" customWidth="1"/>
+    <col min="5367" max="5390" width="3.3984375" customWidth="1"/>
+    <col min="5622" max="5622" width="12.69921875" customWidth="1"/>
+    <col min="5623" max="5646" width="3.3984375" customWidth="1"/>
+    <col min="5878" max="5878" width="12.69921875" customWidth="1"/>
+    <col min="5879" max="5902" width="3.3984375" customWidth="1"/>
+    <col min="6134" max="6134" width="12.69921875" customWidth="1"/>
+    <col min="6135" max="6158" width="3.3984375" customWidth="1"/>
+    <col min="6390" max="6390" width="12.69921875" customWidth="1"/>
+    <col min="6391" max="6414" width="3.3984375" customWidth="1"/>
+    <col min="6646" max="6646" width="12.69921875" customWidth="1"/>
+    <col min="6647" max="6670" width="3.3984375" customWidth="1"/>
+    <col min="6902" max="6902" width="12.69921875" customWidth="1"/>
+    <col min="6903" max="6926" width="3.3984375" customWidth="1"/>
+    <col min="7158" max="7158" width="12.69921875" customWidth="1"/>
+    <col min="7159" max="7182" width="3.3984375" customWidth="1"/>
+    <col min="7414" max="7414" width="12.69921875" customWidth="1"/>
+    <col min="7415" max="7438" width="3.3984375" customWidth="1"/>
+    <col min="7670" max="7670" width="12.69921875" customWidth="1"/>
+    <col min="7671" max="7694" width="3.3984375" customWidth="1"/>
+    <col min="7926" max="7926" width="12.69921875" customWidth="1"/>
+    <col min="7927" max="7950" width="3.3984375" customWidth="1"/>
+    <col min="8182" max="8182" width="12.69921875" customWidth="1"/>
+    <col min="8183" max="8206" width="3.3984375" customWidth="1"/>
+    <col min="8438" max="8438" width="12.69921875" customWidth="1"/>
+    <col min="8439" max="8462" width="3.3984375" customWidth="1"/>
+    <col min="8694" max="8694" width="12.69921875" customWidth="1"/>
+    <col min="8695" max="8718" width="3.3984375" customWidth="1"/>
+    <col min="8950" max="8950" width="12.69921875" customWidth="1"/>
+    <col min="8951" max="8974" width="3.3984375" customWidth="1"/>
+    <col min="9206" max="9206" width="12.69921875" customWidth="1"/>
+    <col min="9207" max="9230" width="3.3984375" customWidth="1"/>
+    <col min="9462" max="9462" width="12.69921875" customWidth="1"/>
+    <col min="9463" max="9486" width="3.3984375" customWidth="1"/>
+    <col min="9718" max="9718" width="12.69921875" customWidth="1"/>
+    <col min="9719" max="9742" width="3.3984375" customWidth="1"/>
+    <col min="9974" max="9974" width="12.69921875" customWidth="1"/>
+    <col min="9975" max="9998" width="3.3984375" customWidth="1"/>
+    <col min="10230" max="10230" width="12.69921875" customWidth="1"/>
+    <col min="10231" max="10254" width="3.3984375" customWidth="1"/>
+    <col min="10486" max="10486" width="12.69921875" customWidth="1"/>
+    <col min="10487" max="10510" width="3.3984375" customWidth="1"/>
+    <col min="10742" max="10742" width="12.69921875" customWidth="1"/>
+    <col min="10743" max="10766" width="3.3984375" customWidth="1"/>
+    <col min="10998" max="10998" width="12.69921875" customWidth="1"/>
+    <col min="10999" max="11022" width="3.3984375" customWidth="1"/>
+    <col min="11254" max="11254" width="12.69921875" customWidth="1"/>
+    <col min="11255" max="11278" width="3.3984375" customWidth="1"/>
+    <col min="11510" max="11510" width="12.69921875" customWidth="1"/>
+    <col min="11511" max="11534" width="3.3984375" customWidth="1"/>
+    <col min="11766" max="11766" width="12.69921875" customWidth="1"/>
+    <col min="11767" max="11790" width="3.3984375" customWidth="1"/>
+    <col min="12022" max="12022" width="12.69921875" customWidth="1"/>
+    <col min="12023" max="12046" width="3.3984375" customWidth="1"/>
+    <col min="12278" max="12278" width="12.69921875" customWidth="1"/>
+    <col min="12279" max="12302" width="3.3984375" customWidth="1"/>
+    <col min="12534" max="12534" width="12.69921875" customWidth="1"/>
+    <col min="12535" max="12558" width="3.3984375" customWidth="1"/>
+    <col min="12790" max="12790" width="12.69921875" customWidth="1"/>
+    <col min="12791" max="12814" width="3.3984375" customWidth="1"/>
+    <col min="13046" max="13046" width="12.69921875" customWidth="1"/>
+    <col min="13047" max="13070" width="3.3984375" customWidth="1"/>
+    <col min="13302" max="13302" width="12.69921875" customWidth="1"/>
+    <col min="13303" max="13326" width="3.3984375" customWidth="1"/>
+    <col min="13558" max="13558" width="12.69921875" customWidth="1"/>
+    <col min="13559" max="13582" width="3.3984375" customWidth="1"/>
+    <col min="13814" max="13814" width="12.69921875" customWidth="1"/>
+    <col min="13815" max="13838" width="3.3984375" customWidth="1"/>
+    <col min="14070" max="14070" width="12.69921875" customWidth="1"/>
+    <col min="14071" max="14094" width="3.3984375" customWidth="1"/>
+    <col min="14326" max="14326" width="12.69921875" customWidth="1"/>
+    <col min="14327" max="14350" width="3.3984375" customWidth="1"/>
+    <col min="14582" max="14582" width="12.69921875" customWidth="1"/>
+    <col min="14583" max="14606" width="3.3984375" customWidth="1"/>
+    <col min="14838" max="14838" width="12.69921875" customWidth="1"/>
+    <col min="14839" max="14862" width="3.3984375" customWidth="1"/>
+    <col min="15094" max="15094" width="12.69921875" customWidth="1"/>
+    <col min="15095" max="15118" width="3.3984375" customWidth="1"/>
+    <col min="15350" max="15350" width="12.69921875" customWidth="1"/>
+    <col min="15351" max="15374" width="3.3984375" customWidth="1"/>
+    <col min="15606" max="15606" width="12.69921875" customWidth="1"/>
+    <col min="15607" max="15630" width="3.3984375" customWidth="1"/>
+    <col min="15862" max="15862" width="12.69921875" customWidth="1"/>
+    <col min="15863" max="15886" width="3.3984375" customWidth="1"/>
+    <col min="16118" max="16118" width="12.69921875" customWidth="1"/>
+    <col min="16119" max="16142" width="3.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="111"/>
       <c r="C1" s="1"/>
       <c r="D1" s="13"/>
       <c r="E1" s="1"/>
@@ -4096,92 +4275,92 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="67" t="s">
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="69"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="102"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="106"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="79" t="s">
+      <c r="A3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="M3" s="80" t="s">
+      <c r="M3" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="N3" s="81" t="s">
+      <c r="N3" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="O3" s="79" t="s">
+      <c r="O3" s="112" t="s">
         <v>171</v>
       </c>
-      <c r="P3" s="80" t="s">
+      <c r="P3" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="Q3" s="81" t="s">
+      <c r="Q3" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="R3" s="79" t="s">
+      <c r="R3" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="S3" s="80" t="s">
+      <c r="S3" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="T3" s="81" t="s">
+      <c r="T3" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="U3" s="79" t="s">
+      <c r="U3" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="V3" s="80" t="s">
+      <c r="V3" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="W3" s="81" t="s">
+      <c r="W3" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="X3" s="79" t="s">
+      <c r="X3" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="Y3" s="80" t="s">
+      <c r="Y3" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="Z3" s="81" t="s">
+      <c r="Z3" s="114" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4192,124 +4371,124 @@
       <c r="B4" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="134" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="101"/>
+      <c r="D4" s="134"/>
       <c r="E4" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="134" t="s">
         <v>175</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="82" t="s">
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="115" t="s">
         <v>162</v>
       </c>
-      <c r="M4" s="83" t="s">
+      <c r="M4" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="115" t="s">
         <v>162</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="115" t="s">
         <v>162</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="T4" s="84" t="s">
+      <c r="T4" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="115" t="s">
         <v>162</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="W4" s="84" t="s">
+      <c r="W4" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="X4" s="82" t="s">
+      <c r="X4" s="115" t="s">
         <v>162</v>
       </c>
-      <c r="Y4" s="83" t="s">
+      <c r="Y4" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="Z4" s="84" t="s">
+      <c r="Z4" s="117" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="142" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="85" t="s">
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="M5" s="86" t="s">
+      <c r="M5" s="119" t="s">
         <v>162</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="O5" s="85" t="s">
+      <c r="O5" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="P5" s="86" t="s">
+      <c r="P5" s="119" t="s">
         <v>162</v>
       </c>
-      <c r="Q5" s="87" t="s">
+      <c r="Q5" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="R5" s="85" t="s">
+      <c r="R5" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="S5" s="86" t="s">
+      <c r="S5" s="119" t="s">
         <v>162</v>
       </c>
-      <c r="T5" s="87" t="s">
+      <c r="T5" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="U5" s="85" t="s">
+      <c r="U5" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="V5" s="86" t="s">
+      <c r="V5" s="119" t="s">
         <v>162</v>
       </c>
-      <c r="W5" s="87" t="s">
+      <c r="W5" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="X5" s="85" t="s">
+      <c r="X5" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="Y5" s="86" t="s">
+      <c r="Y5" s="119" t="s">
         <v>162</v>
       </c>
-      <c r="Z5" s="87" t="s">
+      <c r="Z5" s="120" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4317,2718 +4496,2726 @@
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="88" t="s">
+      <c r="C6" s="130"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="91" t="s">
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="M6" s="92"/>
-      <c r="N6" s="88" t="s">
+      <c r="M6" s="125"/>
+      <c r="N6" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="O6" s="89"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="95" t="s">
+      <c r="O6" s="122"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="T6" s="96"/>
-      <c r="U6" s="88" t="s">
+      <c r="T6" s="129"/>
+      <c r="U6" s="121" t="s">
         <v>98</v>
       </c>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="90"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="123"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="98" t="s">
+      <c r="C7" s="132"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="100"/>
-      <c r="L7" s="112" t="s">
+      <c r="K7" s="133"/>
+      <c r="L7" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="66" t="s">
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="69"/>
-      <c r="S7" s="112" t="s">
+      <c r="R7" s="102"/>
+      <c r="S7" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="T7" s="113"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="113"/>
-      <c r="W7" s="113"/>
-      <c r="X7" s="113"/>
-      <c r="Y7" s="102" t="s">
+      <c r="T7" s="146"/>
+      <c r="U7" s="146"/>
+      <c r="V7" s="146"/>
+      <c r="W7" s="146"/>
+      <c r="X7" s="146"/>
+      <c r="Y7" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="Z7" s="103"/>
+      <c r="Z7" s="136"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="117" t="s">
+      <c r="A8" s="86"/>
+      <c r="B8" s="150" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="31" t="s">
+      <c r="C8" s="160"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="31" t="s">
+      <c r="F8" s="68"/>
+      <c r="G8" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="31" t="s">
+      <c r="H8" s="68"/>
+      <c r="I8" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="31" t="s">
+      <c r="J8" s="68"/>
+      <c r="K8" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="31" t="s">
+      <c r="L8" s="68"/>
+      <c r="M8" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="31" t="s">
+      <c r="N8" s="68"/>
+      <c r="O8" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="31" t="s">
+      <c r="P8" s="68"/>
+      <c r="Q8" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="32"/>
-      <c r="S8" s="117" t="s">
+      <c r="R8" s="68"/>
+      <c r="S8" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="T8" s="118"/>
-      <c r="U8" s="123" t="s">
+      <c r="T8" s="151"/>
+      <c r="U8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="V8" s="124"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="125"/>
-      <c r="Y8" s="258" t="s">
+      <c r="V8" s="157"/>
+      <c r="W8" s="157"/>
+      <c r="X8" s="158"/>
+      <c r="Y8" s="294" t="s">
         <v>12</v>
       </c>
-      <c r="Z8" s="259"/>
+      <c r="Z8" s="295"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="133"/>
-      <c r="S9" s="119"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="252" t="s">
+      <c r="A9" s="86"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="166"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="166"/>
+      <c r="Q9" s="165"/>
+      <c r="R9" s="166"/>
+      <c r="S9" s="152"/>
+      <c r="T9" s="153"/>
+      <c r="U9" s="288" t="s">
         <v>122</v>
       </c>
-      <c r="V9" s="264"/>
-      <c r="W9" s="264"/>
-      <c r="X9" s="265"/>
-      <c r="Y9" s="260"/>
-      <c r="Z9" s="261"/>
+      <c r="V9" s="300"/>
+      <c r="W9" s="300"/>
+      <c r="X9" s="301"/>
+      <c r="Y9" s="296"/>
+      <c r="Z9" s="297"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="134"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="134"/>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="134"/>
-      <c r="R10" s="135"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="122"/>
-      <c r="U10" s="266" t="s">
+      <c r="A10" s="86"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="167"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="167"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="167"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="168"/>
+      <c r="S10" s="154"/>
+      <c r="T10" s="155"/>
+      <c r="U10" s="302" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="267"/>
-      <c r="W10" s="267"/>
-      <c r="X10" s="268"/>
-      <c r="Y10" s="260"/>
-      <c r="Z10" s="261"/>
+      <c r="V10" s="303"/>
+      <c r="W10" s="303"/>
+      <c r="X10" s="304"/>
+      <c r="Y10" s="296"/>
+      <c r="Z10" s="297"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="86"/>
+      <c r="B11" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="61" t="s">
+      <c r="D11" s="170"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="44" t="s">
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="260"/>
-      <c r="Z11" s="261"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="296"/>
+      <c r="Z11" s="297"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="50"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="45" t="s">
+      <c r="A12" s="86"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="46"/>
-      <c r="M12" s="45" t="s">
+      <c r="L12" s="82"/>
+      <c r="M12" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="46"/>
-      <c r="O12" s="114" t="s">
+      <c r="N12" s="82"/>
+      <c r="O12" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="115"/>
-      <c r="S12" s="115"/>
-      <c r="T12" s="115"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="115"/>
-      <c r="X12" s="116"/>
-      <c r="Y12" s="260"/>
-      <c r="Z12" s="261"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148"/>
+      <c r="R12" s="148"/>
+      <c r="S12" s="148"/>
+      <c r="T12" s="148"/>
+      <c r="U12" s="148"/>
+      <c r="V12" s="148"/>
+      <c r="W12" s="148"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="296"/>
+      <c r="Z12" s="297"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="50"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="51" t="s">
+      <c r="A13" s="86"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="288" t="s">
+      <c r="D13" s="324" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="289"/>
-      <c r="F13" s="289"/>
-      <c r="G13" s="290"/>
-      <c r="H13" s="294" t="s">
+      <c r="E13" s="325"/>
+      <c r="F13" s="325"/>
+      <c r="G13" s="326"/>
+      <c r="H13" s="330" t="s">
         <v>148</v>
       </c>
-      <c r="I13" s="295"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="300" t="s">
+      <c r="I13" s="331"/>
+      <c r="J13" s="332"/>
+      <c r="K13" s="333" t="s">
         <v>99</v>
       </c>
-      <c r="L13" s="301"/>
-      <c r="M13" s="300" t="s">
+      <c r="L13" s="334"/>
+      <c r="M13" s="333" t="s">
         <v>100</v>
       </c>
-      <c r="N13" s="301"/>
-      <c r="O13" s="269" t="s">
-        <v>217</v>
-      </c>
-      <c r="P13" s="270"/>
-      <c r="Q13" s="270"/>
-      <c r="R13" s="270"/>
-      <c r="S13" s="270"/>
-      <c r="T13" s="270"/>
-      <c r="U13" s="270"/>
-      <c r="V13" s="270"/>
-      <c r="W13" s="270"/>
-      <c r="X13" s="270"/>
-      <c r="Y13" s="260"/>
-      <c r="Z13" s="261"/>
+      <c r="N13" s="334"/>
+      <c r="O13" s="305" t="s">
+        <v>214</v>
+      </c>
+      <c r="P13" s="306"/>
+      <c r="Q13" s="306"/>
+      <c r="R13" s="306"/>
+      <c r="S13" s="306"/>
+      <c r="T13" s="306"/>
+      <c r="U13" s="306"/>
+      <c r="V13" s="306"/>
+      <c r="W13" s="306"/>
+      <c r="X13" s="306"/>
+      <c r="Y13" s="296"/>
+      <c r="Z13" s="297"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="50"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="291"/>
-      <c r="E14" s="292"/>
-      <c r="F14" s="292"/>
-      <c r="G14" s="293"/>
-      <c r="H14" s="297"/>
-      <c r="I14" s="298"/>
-      <c r="J14" s="299"/>
-      <c r="K14" s="302"/>
-      <c r="L14" s="303"/>
-      <c r="M14" s="302"/>
-      <c r="N14" s="303"/>
-      <c r="O14" s="269" t="s">
+      <c r="A14" s="86"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="327"/>
+      <c r="E14" s="328"/>
+      <c r="F14" s="328"/>
+      <c r="G14" s="329"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="305" t="s">
+        <v>215</v>
+      </c>
+      <c r="P14" s="306"/>
+      <c r="Q14" s="306"/>
+      <c r="R14" s="306"/>
+      <c r="S14" s="306"/>
+      <c r="T14" s="306"/>
+      <c r="U14" s="306"/>
+      <c r="V14" s="306"/>
+      <c r="W14" s="306"/>
+      <c r="X14" s="306"/>
+      <c r="Y14" s="296"/>
+      <c r="Z14" s="297"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="86"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="159" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="L15" s="74"/>
+      <c r="M15" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="N15" s="74"/>
+      <c r="O15" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="172" t="s">
+        <v>220</v>
+      </c>
+      <c r="R15" s="173"/>
+      <c r="S15" s="173"/>
+      <c r="T15" s="173"/>
+      <c r="U15" s="173"/>
+      <c r="V15" s="173"/>
+      <c r="W15" s="173"/>
+      <c r="X15" s="174"/>
+      <c r="Y15" s="298"/>
+      <c r="Z15" s="299"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="86"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z16" s="318"/>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A17" s="86"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="319"/>
+      <c r="Z17" s="320"/>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A18" s="86"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="322" t="s">
+        <v>180</v>
+      </c>
+      <c r="I18" s="322" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" s="322" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" s="343" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" s="344"/>
+      <c r="M18" s="343" t="s">
+        <v>188</v>
+      </c>
+      <c r="N18" s="344"/>
+      <c r="O18" s="350" t="s">
+        <v>219</v>
+      </c>
+      <c r="P18" s="351"/>
+      <c r="Q18" s="351"/>
+      <c r="R18" s="351"/>
+      <c r="S18" s="351"/>
+      <c r="T18" s="351"/>
+      <c r="U18" s="351"/>
+      <c r="V18" s="351"/>
+      <c r="W18" s="351"/>
+      <c r="X18" s="352"/>
+      <c r="Y18" s="294" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z18" s="295"/>
+    </row>
+    <row r="19" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A19" s="86"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="347" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="322" t="s">
+        <v>181</v>
+      </c>
+      <c r="I19" s="322" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" s="322" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" s="343" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" s="344"/>
+      <c r="M19" s="343" t="s">
+        <v>189</v>
+      </c>
+      <c r="N19" s="344"/>
+      <c r="O19" s="353"/>
+      <c r="P19" s="354"/>
+      <c r="Q19" s="354"/>
+      <c r="R19" s="354"/>
+      <c r="S19" s="354"/>
+      <c r="T19" s="354"/>
+      <c r="U19" s="354"/>
+      <c r="V19" s="354"/>
+      <c r="W19" s="354"/>
+      <c r="X19" s="355"/>
+      <c r="Y19" s="256"/>
+      <c r="Z19" s="340"/>
+    </row>
+    <row r="20" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A20" s="86"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="347" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="322" t="s">
+        <v>182</v>
+      </c>
+      <c r="I20" s="322" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" s="322" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" s="343" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" s="344"/>
+      <c r="M20" s="343" t="s">
+        <v>190</v>
+      </c>
+      <c r="N20" s="344"/>
+      <c r="O20" s="353"/>
+      <c r="P20" s="354"/>
+      <c r="Q20" s="354"/>
+      <c r="R20" s="354"/>
+      <c r="S20" s="354"/>
+      <c r="T20" s="354"/>
+      <c r="U20" s="354"/>
+      <c r="V20" s="354"/>
+      <c r="W20" s="354"/>
+      <c r="X20" s="355"/>
+      <c r="Y20" s="256"/>
+      <c r="Z20" s="340"/>
+    </row>
+    <row r="21" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A21" s="86"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="348" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="349"/>
+      <c r="H21" s="322" t="s">
+        <v>183</v>
+      </c>
+      <c r="I21" s="322" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21" s="322" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" s="343" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" s="344"/>
+      <c r="M21" s="343" t="s">
+        <v>191</v>
+      </c>
+      <c r="N21" s="344"/>
+      <c r="O21" s="356"/>
+      <c r="P21" s="357"/>
+      <c r="Q21" s="357"/>
+      <c r="R21" s="357"/>
+      <c r="S21" s="357"/>
+      <c r="T21" s="357"/>
+      <c r="U21" s="357"/>
+      <c r="V21" s="357"/>
+      <c r="W21" s="357"/>
+      <c r="X21" s="358"/>
+      <c r="Y21" s="256"/>
+      <c r="Z21" s="340"/>
+    </row>
+    <row r="22" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A22" s="86"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22" s="159"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="L22" s="74"/>
+      <c r="M22" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="N22" s="74"/>
+      <c r="O22" s="345" t="s">
+        <v>213</v>
+      </c>
+      <c r="P22" s="346"/>
+      <c r="Q22" s="346"/>
+      <c r="R22" s="346"/>
+      <c r="S22" s="346"/>
+      <c r="T22" s="346"/>
+      <c r="U22" s="346"/>
+      <c r="V22" s="346"/>
+      <c r="W22" s="346"/>
+      <c r="X22" s="346"/>
+      <c r="Y22" s="256"/>
+      <c r="Z22" s="340"/>
+    </row>
+    <row r="23" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A23" s="86"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="322" t="s">
+        <v>204</v>
+      </c>
+      <c r="I23" s="322" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" s="322" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" s="74"/>
+      <c r="M23" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="N23" s="74"/>
+      <c r="O23" s="345" t="s">
+        <v>212</v>
+      </c>
+      <c r="P23" s="346"/>
+      <c r="Q23" s="346"/>
+      <c r="R23" s="346"/>
+      <c r="S23" s="346"/>
+      <c r="T23" s="346"/>
+      <c r="U23" s="346"/>
+      <c r="V23" s="346"/>
+      <c r="W23" s="346"/>
+      <c r="X23" s="346"/>
+      <c r="Y23" s="256"/>
+      <c r="Z23" s="340"/>
+    </row>
+    <row r="24" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A24" s="86"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="L24" s="74"/>
+      <c r="M24" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="N24" s="74"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="256"/>
+      <c r="Z24" s="340"/>
+    </row>
+    <row r="25" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A25" s="86"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="322" t="s">
         <v>218</v>
       </c>
-      <c r="P14" s="270"/>
-      <c r="Q14" s="270"/>
-      <c r="R14" s="270"/>
-      <c r="S14" s="270"/>
-      <c r="T14" s="270"/>
-      <c r="U14" s="270"/>
-      <c r="V14" s="270"/>
-      <c r="W14" s="270"/>
-      <c r="X14" s="270"/>
-      <c r="Y14" s="260"/>
-      <c r="Z14" s="261"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="50"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="126" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="N15" s="38"/>
-      <c r="O15" s="324" t="s">
-        <v>225</v>
-      </c>
-      <c r="P15" s="325"/>
-      <c r="Q15" s="326" t="s">
-        <v>224</v>
-      </c>
-      <c r="R15" s="327"/>
-      <c r="S15" s="327"/>
-      <c r="T15" s="327"/>
-      <c r="U15" s="327"/>
-      <c r="V15" s="327"/>
-      <c r="W15" s="327"/>
-      <c r="X15" s="328"/>
-      <c r="Y15" s="262"/>
-      <c r="Z15" s="263"/>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="50"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z16" s="282"/>
-    </row>
-    <row r="17" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A17" s="50"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="283"/>
-      <c r="Z17" s="284"/>
-    </row>
-    <row r="18" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A18" s="50"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="286" t="s">
-        <v>180</v>
-      </c>
-      <c r="I18" s="286" t="s">
-        <v>162</v>
-      </c>
-      <c r="J18" s="286" t="s">
-        <v>162</v>
-      </c>
-      <c r="K18" s="312" t="s">
-        <v>184</v>
-      </c>
-      <c r="L18" s="313"/>
-      <c r="M18" s="312" t="s">
-        <v>188</v>
-      </c>
-      <c r="N18" s="313"/>
-      <c r="O18" s="331" t="s">
-        <v>223</v>
-      </c>
-      <c r="P18" s="332"/>
-      <c r="Q18" s="332"/>
-      <c r="R18" s="332"/>
-      <c r="S18" s="332"/>
-      <c r="T18" s="332"/>
-      <c r="U18" s="332"/>
-      <c r="V18" s="332"/>
-      <c r="W18" s="332"/>
-      <c r="X18" s="333"/>
-      <c r="Y18" s="258" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z18" s="259"/>
-    </row>
-    <row r="19" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A19" s="50"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="316" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="317"/>
-      <c r="F19" s="322" t="s">
-        <v>177</v>
-      </c>
-      <c r="G19" s="323"/>
-      <c r="H19" s="286" t="s">
-        <v>181</v>
-      </c>
-      <c r="I19" s="286" t="s">
-        <v>162</v>
-      </c>
-      <c r="J19" s="286" t="s">
-        <v>162</v>
-      </c>
-      <c r="K19" s="312" t="s">
-        <v>185</v>
-      </c>
-      <c r="L19" s="313"/>
-      <c r="M19" s="312" t="s">
-        <v>189</v>
-      </c>
-      <c r="N19" s="313"/>
-      <c r="O19" s="334"/>
-      <c r="P19" s="335"/>
-      <c r="Q19" s="335"/>
-      <c r="R19" s="335"/>
-      <c r="S19" s="335"/>
-      <c r="T19" s="335"/>
-      <c r="U19" s="335"/>
-      <c r="V19" s="335"/>
-      <c r="W19" s="335"/>
-      <c r="X19" s="336"/>
-      <c r="Y19" s="220"/>
-      <c r="Z19" s="309"/>
-    </row>
-    <row r="20" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A20" s="50"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="318"/>
-      <c r="E20" s="319"/>
-      <c r="F20" s="322" t="s">
-        <v>178</v>
-      </c>
-      <c r="G20" s="323"/>
-      <c r="H20" s="286" t="s">
-        <v>182</v>
-      </c>
-      <c r="I20" s="286" t="s">
-        <v>162</v>
-      </c>
-      <c r="J20" s="286" t="s">
-        <v>162</v>
-      </c>
-      <c r="K20" s="312" t="s">
-        <v>186</v>
-      </c>
-      <c r="L20" s="313"/>
-      <c r="M20" s="312" t="s">
-        <v>190</v>
-      </c>
-      <c r="N20" s="313"/>
-      <c r="O20" s="334"/>
-      <c r="P20" s="335"/>
-      <c r="Q20" s="335"/>
-      <c r="R20" s="335"/>
-      <c r="S20" s="335"/>
-      <c r="T20" s="335"/>
-      <c r="U20" s="335"/>
-      <c r="V20" s="335"/>
-      <c r="W20" s="335"/>
-      <c r="X20" s="336"/>
-      <c r="Y20" s="220"/>
-      <c r="Z20" s="309"/>
-    </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A21" s="50"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="320"/>
-      <c r="E21" s="321"/>
-      <c r="F21" s="329" t="s">
-        <v>179</v>
-      </c>
-      <c r="G21" s="330"/>
-      <c r="H21" s="286" t="s">
-        <v>183</v>
-      </c>
-      <c r="I21" s="286" t="s">
-        <v>162</v>
-      </c>
-      <c r="J21" s="286" t="s">
-        <v>162</v>
-      </c>
-      <c r="K21" s="312" t="s">
-        <v>187</v>
-      </c>
-      <c r="L21" s="313"/>
-      <c r="M21" s="312" t="s">
-        <v>191</v>
-      </c>
-      <c r="N21" s="313"/>
-      <c r="O21" s="337"/>
-      <c r="P21" s="338"/>
-      <c r="Q21" s="338"/>
-      <c r="R21" s="338"/>
-      <c r="S21" s="338"/>
-      <c r="T21" s="338"/>
-      <c r="U21" s="338"/>
-      <c r="V21" s="338"/>
-      <c r="W21" s="338"/>
-      <c r="X21" s="339"/>
-      <c r="Y21" s="220"/>
-      <c r="Z21" s="309"/>
-    </row>
-    <row r="22" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A22" s="50"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="G22" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="H22" s="126" t="s">
-        <v>148</v>
-      </c>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="L22" s="38"/>
-      <c r="M22" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="N22" s="38"/>
-      <c r="O22" s="314" t="s">
-        <v>216</v>
-      </c>
-      <c r="P22" s="315"/>
-      <c r="Q22" s="315"/>
-      <c r="R22" s="315"/>
-      <c r="S22" s="315"/>
-      <c r="T22" s="315"/>
-      <c r="U22" s="315"/>
-      <c r="V22" s="315"/>
-      <c r="W22" s="315"/>
-      <c r="X22" s="315"/>
-      <c r="Y22" s="220"/>
-      <c r="Z22" s="309"/>
-    </row>
-    <row r="23" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A23" s="50"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="H23" s="286" t="s">
-        <v>205</v>
-      </c>
-      <c r="I23" s="286" t="s">
-        <v>162</v>
-      </c>
-      <c r="J23" s="286" t="s">
-        <v>162</v>
-      </c>
-      <c r="K23" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="L23" s="38"/>
-      <c r="M23" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="N23" s="38"/>
-      <c r="O23" s="314" t="s">
-        <v>215</v>
-      </c>
-      <c r="P23" s="315"/>
-      <c r="Q23" s="315"/>
-      <c r="R23" s="315"/>
-      <c r="S23" s="315"/>
-      <c r="T23" s="315"/>
-      <c r="U23" s="315"/>
-      <c r="V23" s="315"/>
-      <c r="W23" s="315"/>
-      <c r="X23" s="315"/>
-      <c r="Y23" s="220"/>
-      <c r="Z23" s="309"/>
-    </row>
-    <row r="24" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A24" s="50"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="L24" s="38"/>
-      <c r="M24" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="N24" s="38"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="220"/>
-      <c r="Z24" s="309"/>
-    </row>
-    <row r="25" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="286" t="s">
-        <v>221</v>
-      </c>
-      <c r="I25" s="286"/>
-      <c r="J25" s="286"/>
-      <c r="K25" s="37" t="s">
+      <c r="I25" s="322"/>
+      <c r="J25" s="322"/>
+      <c r="K25" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="L25" s="38"/>
-      <c r="M25" s="37" t="s">
+      <c r="L25" s="74"/>
+      <c r="M25" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="N25" s="38"/>
-      <c r="O25" s="139" t="s">
-        <v>222</v>
-      </c>
-      <c r="P25" s="140"/>
-      <c r="Q25" s="140"/>
-      <c r="R25" s="140"/>
-      <c r="S25" s="140"/>
-      <c r="T25" s="140"/>
-      <c r="U25" s="140"/>
-      <c r="V25" s="140"/>
-      <c r="W25" s="140"/>
-      <c r="X25" s="140"/>
-      <c r="Y25" s="220"/>
-      <c r="Z25" s="309"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="172" t="s">
+        <v>227</v>
+      </c>
+      <c r="P25" s="173"/>
+      <c r="Q25" s="173"/>
+      <c r="R25" s="173"/>
+      <c r="S25" s="173"/>
+      <c r="T25" s="173"/>
+      <c r="U25" s="173"/>
+      <c r="V25" s="173"/>
+      <c r="W25" s="173"/>
+      <c r="X25" s="174"/>
+      <c r="Y25" s="256"/>
+      <c r="Z25" s="340"/>
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A26" s="50"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="136" t="s">
+      <c r="A26" s="86"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="136"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="141" t="s">
+      <c r="E26" s="169"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="169"/>
+      <c r="H26" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="141"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="74" t="s">
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="L26" s="75"/>
-      <c r="M26" s="74" t="s">
+      <c r="L26" s="108"/>
+      <c r="M26" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="N26" s="75"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="77"/>
-      <c r="Y26" s="220"/>
-      <c r="Z26" s="309"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="109"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="110"/>
+      <c r="U26" s="110"/>
+      <c r="V26" s="110"/>
+      <c r="W26" s="110"/>
+      <c r="X26" s="110"/>
+      <c r="Y26" s="256"/>
+      <c r="Z26" s="340"/>
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="51" t="s">
+      <c r="B27" s="92"/>
+      <c r="C27" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="308" t="s">
+      <c r="D27" s="339" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="308"/>
-      <c r="F27" s="308"/>
-      <c r="G27" s="308"/>
-      <c r="H27" s="287" t="s">
+      <c r="E27" s="339"/>
+      <c r="F27" s="339"/>
+      <c r="G27" s="339"/>
+      <c r="H27" s="323" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="287"/>
-      <c r="J27" s="287"/>
-      <c r="K27" s="306" t="s">
+      <c r="I27" s="323"/>
+      <c r="J27" s="323"/>
+      <c r="K27" s="337" t="s">
         <v>109</v>
       </c>
-      <c r="L27" s="307"/>
-      <c r="M27" s="306" t="s">
+      <c r="L27" s="338"/>
+      <c r="M27" s="337" t="s">
         <v>110</v>
       </c>
-      <c r="N27" s="307"/>
-      <c r="O27" s="271"/>
-      <c r="P27" s="272"/>
-      <c r="Q27" s="272"/>
-      <c r="R27" s="272"/>
-      <c r="S27" s="272"/>
-      <c r="T27" s="272"/>
-      <c r="U27" s="272"/>
-      <c r="V27" s="272"/>
-      <c r="W27" s="272"/>
-      <c r="X27" s="272"/>
-      <c r="Y27" s="220"/>
-      <c r="Z27" s="309"/>
+      <c r="N27" s="338"/>
+      <c r="O27" s="307"/>
+      <c r="P27" s="308"/>
+      <c r="Q27" s="308"/>
+      <c r="R27" s="308"/>
+      <c r="S27" s="308"/>
+      <c r="T27" s="308"/>
+      <c r="U27" s="308"/>
+      <c r="V27" s="308"/>
+      <c r="W27" s="308"/>
+      <c r="X27" s="308"/>
+      <c r="Y27" s="256"/>
+      <c r="Z27" s="340"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="304"/>
-      <c r="D28" s="33" t="s">
+      <c r="B28" s="92"/>
+      <c r="C28" s="335"/>
+      <c r="D28" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34" t="s">
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="37" t="s">
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="L28" s="38"/>
-      <c r="M28" s="37" t="s">
+      <c r="L28" s="74"/>
+      <c r="M28" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="N28" s="38"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="220"/>
-      <c r="Z28" s="309"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="256"/>
+      <c r="Z28" s="340"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A29" s="47"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="304"/>
-      <c r="D29" s="33" t="s">
+      <c r="A29" s="83"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="335"/>
+      <c r="D29" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" s="74"/>
+      <c r="M29" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="N29" s="74"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="256"/>
+      <c r="Z29" s="340"/>
+    </row>
+    <row r="30" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A30" s="83"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="335"/>
+      <c r="D30" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="34" t="s">
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="37" t="s">
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="L29" s="38"/>
-      <c r="M29" s="37" t="s">
+      <c r="L30" s="74"/>
+      <c r="M30" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="N29" s="38"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="220"/>
-      <c r="Z29" s="309"/>
-    </row>
-    <row r="30" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="304"/>
-      <c r="D30" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34" t="s">
+      <c r="N30" s="74"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="256"/>
+      <c r="Z30" s="340"/>
+    </row>
+    <row r="31" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A31" s="83"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="335"/>
+      <c r="D31" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="L31" s="74"/>
+      <c r="M31" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="N31" s="74"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="72"/>
+      <c r="Y31" s="256"/>
+      <c r="Z31" s="340"/>
+    </row>
+    <row r="32" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A32" s="83"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="335"/>
+      <c r="D32" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="L32" s="50"/>
+      <c r="M32" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="N32" s="50"/>
+      <c r="O32" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="256"/>
+      <c r="Z32" s="340"/>
+    </row>
+    <row r="33" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A33" s="83"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="335"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="256"/>
+      <c r="Z33" s="340"/>
+    </row>
+    <row r="34" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A34" s="83"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="335"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="256"/>
+      <c r="Z34" s="340"/>
+    </row>
+    <row r="35" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A35" s="83"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="335"/>
+      <c r="D35" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="59"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="L35" s="57"/>
+      <c r="M35" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="N35" s="57"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="256"/>
+      <c r="Z35" s="340"/>
+    </row>
+    <row r="36" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A36" s="83"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="335"/>
+      <c r="D36" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="L30" s="38"/>
-      <c r="M30" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="N30" s="38"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="220"/>
-      <c r="Z30" s="309"/>
-    </row>
-    <row r="31" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A31" s="47"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="304"/>
-      <c r="D31" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="L31" s="38"/>
-      <c r="M31" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="N31" s="38"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="220"/>
-      <c r="Z31" s="309"/>
-    </row>
-    <row r="32" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="304"/>
-      <c r="D32" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="L32" s="38"/>
-      <c r="M32" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="N32" s="38"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="220"/>
-      <c r="Z32" s="309"/>
-    </row>
-    <row r="33" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="304"/>
-      <c r="D33" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="L33" s="38"/>
-      <c r="M33" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="N33" s="38"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="220"/>
-      <c r="Z33" s="309"/>
-    </row>
-    <row r="34" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A34" s="47"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="304"/>
-      <c r="D34" s="33" t="s">
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="73" t="s">
+        <v>208</v>
+      </c>
+      <c r="L36" s="74"/>
+      <c r="M36" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="N36" s="74"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="72"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="72"/>
+      <c r="X36" s="72"/>
+      <c r="Y36" s="256"/>
+      <c r="Z36" s="340"/>
+    </row>
+    <row r="37" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A37" s="83"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="335"/>
+      <c r="D37" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="322" t="s">
+        <v>239</v>
+      </c>
+      <c r="I37" s="322"/>
+      <c r="J37" s="322"/>
+      <c r="K37" s="73" t="s">
+        <v>237</v>
+      </c>
+      <c r="L37" s="74"/>
+      <c r="M37" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="N37" s="74"/>
+      <c r="O37" s="172" t="s">
+        <v>240</v>
+      </c>
+      <c r="P37" s="173"/>
+      <c r="Q37" s="173"/>
+      <c r="R37" s="173"/>
+      <c r="S37" s="173"/>
+      <c r="T37" s="173"/>
+      <c r="U37" s="173"/>
+      <c r="V37" s="173"/>
+      <c r="W37" s="173"/>
+      <c r="X37" s="174"/>
+      <c r="Y37" s="256"/>
+      <c r="Z37" s="340"/>
+    </row>
+    <row r="38" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A38" s="83"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="335"/>
+      <c r="D38" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="L34" s="38"/>
-      <c r="M34" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="N34" s="38"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="220"/>
-      <c r="Z34" s="309"/>
-    </row>
-    <row r="35" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A35" s="47"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="304"/>
-      <c r="D35" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="L35" s="38"/>
-      <c r="M35" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="N35" s="38"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="220"/>
-      <c r="Z35" s="309"/>
-    </row>
-    <row r="36" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A36" s="47"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="304"/>
-      <c r="D36" s="33" t="s">
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="220"/>
-      <c r="Z36" s="309"/>
-    </row>
-    <row r="37" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A37" s="48"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="305"/>
-      <c r="D37" s="136" t="s">
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="72"/>
+      <c r="W38" s="72"/>
+      <c r="X38" s="72"/>
+      <c r="Y38" s="256"/>
+      <c r="Z38" s="340"/>
+    </row>
+    <row r="39" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A39" s="84"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="336"/>
+      <c r="D39" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="141" t="s">
+      <c r="E39" s="169"/>
+      <c r="F39" s="169"/>
+      <c r="G39" s="169"/>
+      <c r="H39" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
-      <c r="K37" s="74" t="s">
+      <c r="I39" s="175"/>
+      <c r="J39" s="175"/>
+      <c r="K39" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="L37" s="75"/>
-      <c r="M37" s="74" t="s">
+      <c r="L39" s="108"/>
+      <c r="M39" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="N37" s="75"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="285"/>
-      <c r="Q37" s="285"/>
-      <c r="R37" s="285"/>
-      <c r="S37" s="285"/>
-      <c r="T37" s="285"/>
-      <c r="U37" s="285"/>
-      <c r="V37" s="285"/>
-      <c r="W37" s="285"/>
-      <c r="X37" s="285"/>
-      <c r="Y37" s="310"/>
-      <c r="Z37" s="311"/>
-    </row>
-    <row r="38" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A38" s="64" t="s">
+      <c r="N39" s="108"/>
+      <c r="O39" s="109"/>
+      <c r="P39" s="321"/>
+      <c r="Q39" s="321"/>
+      <c r="R39" s="321"/>
+      <c r="S39" s="321"/>
+      <c r="T39" s="321"/>
+      <c r="U39" s="321"/>
+      <c r="V39" s="321"/>
+      <c r="W39" s="321"/>
+      <c r="X39" s="321"/>
+      <c r="Y39" s="341"/>
+      <c r="Z39" s="342"/>
+    </row>
+    <row r="40" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A40" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B40" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="66" t="s">
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="69"/>
-      <c r="S38" s="66" t="s">
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="100"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="102"/>
+      <c r="S40" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="T38" s="67"/>
-      <c r="U38" s="67"/>
-      <c r="V38" s="67"/>
-      <c r="W38" s="67"/>
-      <c r="X38" s="69"/>
-      <c r="Y38" s="66" t="s">
+      <c r="T40" s="100"/>
+      <c r="U40" s="100"/>
+      <c r="V40" s="100"/>
+      <c r="W40" s="100"/>
+      <c r="X40" s="102"/>
+      <c r="Y40" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="Z38" s="68"/>
-    </row>
-    <row r="39" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A39" s="65"/>
-      <c r="B39" s="22" t="s">
+      <c r="Z40" s="101"/>
+    </row>
+    <row r="41" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A41" s="98"/>
+      <c r="B41" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C41" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="179" t="s">
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="I39" s="180"/>
-      <c r="J39" s="180"/>
-      <c r="K39" s="180"/>
-      <c r="L39" s="180"/>
-      <c r="M39" s="180"/>
-      <c r="N39" s="180"/>
-      <c r="O39" s="180"/>
-      <c r="P39" s="180"/>
-      <c r="Q39" s="180"/>
-      <c r="R39" s="181"/>
-      <c r="S39" s="188" t="s">
+      <c r="I41" s="214"/>
+      <c r="J41" s="214"/>
+      <c r="K41" s="214"/>
+      <c r="L41" s="214"/>
+      <c r="M41" s="214"/>
+      <c r="N41" s="214"/>
+      <c r="O41" s="214"/>
+      <c r="P41" s="214"/>
+      <c r="Q41" s="214"/>
+      <c r="R41" s="215"/>
+      <c r="S41" s="222" t="s">
         <v>46</v>
       </c>
-      <c r="T39" s="189"/>
-      <c r="U39" s="189"/>
-      <c r="V39" s="189"/>
-      <c r="W39" s="189"/>
-      <c r="X39" s="190"/>
-      <c r="Y39" s="146" t="s">
+      <c r="T41" s="223"/>
+      <c r="U41" s="223"/>
+      <c r="V41" s="223"/>
+      <c r="W41" s="223"/>
+      <c r="X41" s="224"/>
+      <c r="Y41" s="180" t="s">
         <v>141</v>
       </c>
-      <c r="Z39" s="147"/>
-    </row>
-    <row r="40" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A40" s="65"/>
-      <c r="B40" s="23" t="s">
+      <c r="Z41" s="181"/>
+    </row>
+    <row r="42" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A42" s="98"/>
+      <c r="B42" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C42" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="169" t="s">
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="I40" s="212"/>
-      <c r="J40" s="212"/>
-      <c r="K40" s="212"/>
-      <c r="L40" s="212"/>
-      <c r="M40" s="212"/>
-      <c r="N40" s="212"/>
-      <c r="O40" s="212"/>
-      <c r="P40" s="212"/>
-      <c r="Q40" s="212"/>
-      <c r="R40" s="213"/>
-      <c r="S40" s="249" t="s">
+      <c r="I42" s="246"/>
+      <c r="J42" s="246"/>
+      <c r="K42" s="246"/>
+      <c r="L42" s="246"/>
+      <c r="M42" s="246"/>
+      <c r="N42" s="246"/>
+      <c r="O42" s="246"/>
+      <c r="P42" s="246"/>
+      <c r="Q42" s="246"/>
+      <c r="R42" s="247"/>
+      <c r="S42" s="285" t="s">
         <v>48</v>
       </c>
-      <c r="T40" s="250"/>
-      <c r="U40" s="250"/>
-      <c r="V40" s="250"/>
-      <c r="W40" s="250"/>
-      <c r="X40" s="273"/>
-      <c r="Y40" s="148"/>
-      <c r="Z40" s="149"/>
-    </row>
-    <row r="41" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A41" s="65"/>
-      <c r="B41" s="24" t="s">
+      <c r="T42" s="286"/>
+      <c r="U42" s="286"/>
+      <c r="V42" s="286"/>
+      <c r="W42" s="286"/>
+      <c r="X42" s="309"/>
+      <c r="Y42" s="182"/>
+      <c r="Z42" s="183"/>
+    </row>
+    <row r="43" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A43" s="98"/>
+      <c r="B43" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C43" s="105" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="169" t="s">
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="I41" s="170"/>
-      <c r="J41" s="170"/>
-      <c r="K41" s="170"/>
-      <c r="L41" s="170"/>
-      <c r="M41" s="170"/>
-      <c r="N41" s="170"/>
-      <c r="O41" s="170"/>
-      <c r="P41" s="170"/>
-      <c r="Q41" s="170"/>
-      <c r="R41" s="171"/>
-      <c r="S41" s="249"/>
-      <c r="T41" s="250"/>
-      <c r="U41" s="250"/>
-      <c r="V41" s="250"/>
-      <c r="W41" s="250"/>
-      <c r="X41" s="273"/>
-      <c r="Y41" s="148"/>
-      <c r="Z41" s="149"/>
-    </row>
-    <row r="42" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A42" s="8" t="s">
+      <c r="I43" s="204"/>
+      <c r="J43" s="204"/>
+      <c r="K43" s="204"/>
+      <c r="L43" s="204"/>
+      <c r="M43" s="204"/>
+      <c r="N43" s="204"/>
+      <c r="O43" s="204"/>
+      <c r="P43" s="204"/>
+      <c r="Q43" s="204"/>
+      <c r="R43" s="205"/>
+      <c r="S43" s="285"/>
+      <c r="T43" s="286"/>
+      <c r="U43" s="286"/>
+      <c r="V43" s="286"/>
+      <c r="W43" s="286"/>
+      <c r="X43" s="309"/>
+      <c r="Y43" s="182"/>
+      <c r="Z43" s="183"/>
+    </row>
+    <row r="44" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A44" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="C42" s="72" t="s">
+      <c r="B44" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" s="105" t="s">
         <v>194</v>
       </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="169"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="170"/>
-      <c r="K42" s="170"/>
-      <c r="L42" s="170"/>
-      <c r="M42" s="170"/>
-      <c r="N42" s="170"/>
-      <c r="O42" s="170"/>
-      <c r="P42" s="170"/>
-      <c r="Q42" s="170"/>
-      <c r="R42" s="171"/>
-      <c r="S42" s="274"/>
-      <c r="T42" s="275"/>
-      <c r="U42" s="275"/>
-      <c r="V42" s="275"/>
-      <c r="W42" s="275"/>
-      <c r="X42" s="273"/>
-      <c r="Y42" s="148"/>
-      <c r="Z42" s="149"/>
-    </row>
-    <row r="43" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A43" s="47" t="s">
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="203"/>
+      <c r="I44" s="204"/>
+      <c r="J44" s="204"/>
+      <c r="K44" s="204"/>
+      <c r="L44" s="204"/>
+      <c r="M44" s="204"/>
+      <c r="N44" s="204"/>
+      <c r="O44" s="204"/>
+      <c r="P44" s="204"/>
+      <c r="Q44" s="204"/>
+      <c r="R44" s="205"/>
+      <c r="S44" s="310"/>
+      <c r="T44" s="311"/>
+      <c r="U44" s="311"/>
+      <c r="V44" s="311"/>
+      <c r="W44" s="311"/>
+      <c r="X44" s="309"/>
+      <c r="Y44" s="182"/>
+      <c r="Z44" s="183"/>
+    </row>
+    <row r="45" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A45" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B45" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="72" t="s">
-        <v>229</v>
-      </c>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="169"/>
-      <c r="I43" s="170"/>
-      <c r="J43" s="170"/>
-      <c r="K43" s="170"/>
-      <c r="L43" s="170"/>
-      <c r="M43" s="170"/>
-      <c r="N43" s="170"/>
-      <c r="O43" s="170"/>
-      <c r="P43" s="170"/>
-      <c r="Q43" s="170"/>
-      <c r="R43" s="171"/>
-      <c r="S43" s="274"/>
-      <c r="T43" s="275"/>
-      <c r="U43" s="275"/>
-      <c r="V43" s="275"/>
-      <c r="W43" s="275"/>
-      <c r="X43" s="273"/>
-      <c r="Y43" s="148"/>
-      <c r="Z43" s="149"/>
-    </row>
-    <row r="44" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A44" s="48"/>
-      <c r="B44" s="25" t="s">
+      <c r="C45" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="203"/>
+      <c r="I45" s="204"/>
+      <c r="J45" s="204"/>
+      <c r="K45" s="204"/>
+      <c r="L45" s="204"/>
+      <c r="M45" s="204"/>
+      <c r="N45" s="204"/>
+      <c r="O45" s="204"/>
+      <c r="P45" s="204"/>
+      <c r="Q45" s="204"/>
+      <c r="R45" s="205"/>
+      <c r="S45" s="310"/>
+      <c r="T45" s="311"/>
+      <c r="U45" s="311"/>
+      <c r="V45" s="311"/>
+      <c r="W45" s="311"/>
+      <c r="X45" s="309"/>
+      <c r="Y45" s="182"/>
+      <c r="Z45" s="183"/>
+    </row>
+    <row r="46" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A46" s="84"/>
+      <c r="B46" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="276"/>
-      <c r="D44" s="276"/>
-      <c r="E44" s="276"/>
-      <c r="F44" s="276"/>
-      <c r="G44" s="277"/>
-      <c r="H44" s="169"/>
-      <c r="I44" s="170"/>
-      <c r="J44" s="170"/>
-      <c r="K44" s="170"/>
-      <c r="L44" s="170"/>
-      <c r="M44" s="170"/>
-      <c r="N44" s="170"/>
-      <c r="O44" s="170"/>
-      <c r="P44" s="170"/>
-      <c r="Q44" s="170"/>
-      <c r="R44" s="171"/>
-      <c r="S44" s="274"/>
-      <c r="T44" s="275"/>
-      <c r="U44" s="275"/>
-      <c r="V44" s="275"/>
-      <c r="W44" s="275"/>
-      <c r="X44" s="273"/>
-      <c r="Y44" s="150"/>
-      <c r="Z44" s="151"/>
-    </row>
-    <row r="45" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A45" s="49" t="s">
+      <c r="C46" s="312"/>
+      <c r="D46" s="312"/>
+      <c r="E46" s="312"/>
+      <c r="F46" s="312"/>
+      <c r="G46" s="313"/>
+      <c r="H46" s="203"/>
+      <c r="I46" s="204"/>
+      <c r="J46" s="204"/>
+      <c r="K46" s="204"/>
+      <c r="L46" s="204"/>
+      <c r="M46" s="204"/>
+      <c r="N46" s="204"/>
+      <c r="O46" s="204"/>
+      <c r="P46" s="204"/>
+      <c r="Q46" s="204"/>
+      <c r="R46" s="205"/>
+      <c r="S46" s="310"/>
+      <c r="T46" s="311"/>
+      <c r="U46" s="311"/>
+      <c r="V46" s="311"/>
+      <c r="W46" s="311"/>
+      <c r="X46" s="309"/>
+      <c r="Y46" s="184"/>
+      <c r="Z46" s="185"/>
+    </row>
+    <row r="47" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A47" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B47" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="98" t="s">
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="I45" s="99"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="99"/>
-      <c r="M45" s="99"/>
-      <c r="N45" s="99"/>
-      <c r="O45" s="99"/>
-      <c r="P45" s="99"/>
-      <c r="Q45" s="99"/>
-      <c r="R45" s="100"/>
-      <c r="S45" s="137" t="s">
+      <c r="I47" s="132"/>
+      <c r="J47" s="132"/>
+      <c r="K47" s="132"/>
+      <c r="L47" s="132"/>
+      <c r="M47" s="132"/>
+      <c r="N47" s="132"/>
+      <c r="O47" s="132"/>
+      <c r="P47" s="132"/>
+      <c r="Q47" s="132"/>
+      <c r="R47" s="133"/>
+      <c r="S47" s="170" t="s">
         <v>54</v>
       </c>
-      <c r="T45" s="137"/>
-      <c r="U45" s="137"/>
-      <c r="V45" s="137"/>
-      <c r="W45" s="137"/>
-      <c r="X45" s="137"/>
-      <c r="Y45" s="66" t="s">
+      <c r="T47" s="170"/>
+      <c r="U47" s="170"/>
+      <c r="V47" s="170"/>
+      <c r="W47" s="170"/>
+      <c r="X47" s="170"/>
+      <c r="Y47" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="Z45" s="68"/>
-    </row>
-    <row r="46" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A46" s="152"/>
-      <c r="B46" s="51" t="s">
+      <c r="Z47" s="101"/>
+    </row>
+    <row r="48" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A48" s="186"/>
+      <c r="B48" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C48" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="280" t="s">
+      <c r="D48" s="316" t="s">
         <v>134</v>
       </c>
-      <c r="E46" s="280"/>
-      <c r="F46" s="280"/>
-      <c r="G46" s="281"/>
-      <c r="H46" s="179" t="s">
+      <c r="E48" s="316"/>
+      <c r="F48" s="316"/>
+      <c r="G48" s="317"/>
+      <c r="H48" s="213" t="s">
         <v>55</v>
       </c>
-      <c r="I46" s="180"/>
-      <c r="J46" s="180"/>
-      <c r="K46" s="180"/>
-      <c r="L46" s="180"/>
-      <c r="M46" s="180"/>
-      <c r="N46" s="180"/>
-      <c r="O46" s="180"/>
-      <c r="P46" s="180"/>
-      <c r="Q46" s="180"/>
-      <c r="R46" s="181"/>
-      <c r="S46" s="182" t="s">
+      <c r="I48" s="214"/>
+      <c r="J48" s="214"/>
+      <c r="K48" s="214"/>
+      <c r="L48" s="214"/>
+      <c r="M48" s="214"/>
+      <c r="N48" s="214"/>
+      <c r="O48" s="214"/>
+      <c r="P48" s="214"/>
+      <c r="Q48" s="214"/>
+      <c r="R48" s="215"/>
+      <c r="S48" s="216" t="s">
         <v>56</v>
       </c>
-      <c r="T46" s="183"/>
-      <c r="U46" s="183"/>
-      <c r="V46" s="183"/>
-      <c r="W46" s="183"/>
-      <c r="X46" s="184"/>
-      <c r="Y46" s="146" t="s">
+      <c r="T48" s="217"/>
+      <c r="U48" s="217"/>
+      <c r="V48" s="217"/>
+      <c r="W48" s="217"/>
+      <c r="X48" s="218"/>
+      <c r="Y48" s="180" t="s">
         <v>141</v>
       </c>
-      <c r="Z46" s="147"/>
-    </row>
-    <row r="47" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A47" s="152"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="24" t="s">
+      <c r="Z48" s="181"/>
+    </row>
+    <row r="49" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A49" s="186"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="D47" s="177" t="s">
+      <c r="D49" s="211" t="s">
         <v>166</v>
       </c>
-      <c r="E47" s="177" t="s">
+      <c r="E49" s="211" t="s">
         <v>162</v>
       </c>
-      <c r="F47" s="177" t="s">
+      <c r="F49" s="211" t="s">
         <v>162</v>
       </c>
-      <c r="G47" s="178" t="s">
+      <c r="G49" s="212" t="s">
         <v>162</v>
       </c>
-      <c r="H47" s="157" t="s">
+      <c r="H49" s="191" t="s">
         <v>57</v>
       </c>
-      <c r="I47" s="158"/>
-      <c r="J47" s="158"/>
-      <c r="K47" s="158"/>
-      <c r="L47" s="158"/>
-      <c r="M47" s="158"/>
-      <c r="N47" s="158"/>
-      <c r="O47" s="158"/>
-      <c r="P47" s="158"/>
-      <c r="Q47" s="158"/>
-      <c r="R47" s="159"/>
-      <c r="S47" s="160"/>
-      <c r="T47" s="161"/>
-      <c r="U47" s="161"/>
-      <c r="V47" s="161"/>
-      <c r="W47" s="161"/>
-      <c r="X47" s="162"/>
-      <c r="Y47" s="148"/>
-      <c r="Z47" s="149"/>
-    </row>
-    <row r="48" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A48" s="152"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="D48" s="177" t="s">
+      <c r="I49" s="192"/>
+      <c r="J49" s="192"/>
+      <c r="K49" s="192"/>
+      <c r="L49" s="192"/>
+      <c r="M49" s="192"/>
+      <c r="N49" s="192"/>
+      <c r="O49" s="192"/>
+      <c r="P49" s="192"/>
+      <c r="Q49" s="192"/>
+      <c r="R49" s="193"/>
+      <c r="S49" s="194"/>
+      <c r="T49" s="195"/>
+      <c r="U49" s="195"/>
+      <c r="V49" s="195"/>
+      <c r="W49" s="195"/>
+      <c r="X49" s="196"/>
+      <c r="Y49" s="182"/>
+      <c r="Z49" s="183"/>
+    </row>
+    <row r="50" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A50" s="186"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50" s="211" t="s">
         <v>167</v>
       </c>
-      <c r="E48" s="177" t="s">
+      <c r="E50" s="211" t="s">
         <v>162</v>
       </c>
-      <c r="F48" s="177" t="s">
+      <c r="F50" s="211" t="s">
         <v>162</v>
       </c>
-      <c r="G48" s="178" t="s">
+      <c r="G50" s="212" t="s">
         <v>162</v>
       </c>
-      <c r="H48" s="157" t="s">
+      <c r="H50" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="I48" s="158"/>
-      <c r="J48" s="158"/>
-      <c r="K48" s="158"/>
-      <c r="L48" s="158"/>
-      <c r="M48" s="158"/>
-      <c r="N48" s="158"/>
-      <c r="O48" s="158"/>
-      <c r="P48" s="158"/>
-      <c r="Q48" s="158"/>
-      <c r="R48" s="159"/>
-      <c r="S48" s="160"/>
-      <c r="T48" s="161"/>
-      <c r="U48" s="161"/>
-      <c r="V48" s="161"/>
-      <c r="W48" s="161"/>
-      <c r="X48" s="162"/>
-      <c r="Y48" s="148"/>
-      <c r="Z48" s="149"/>
-    </row>
-    <row r="49" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A49" s="152"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="24" t="s">
+      <c r="I50" s="192"/>
+      <c r="J50" s="192"/>
+      <c r="K50" s="192"/>
+      <c r="L50" s="192"/>
+      <c r="M50" s="192"/>
+      <c r="N50" s="192"/>
+      <c r="O50" s="192"/>
+      <c r="P50" s="192"/>
+      <c r="Q50" s="192"/>
+      <c r="R50" s="193"/>
+      <c r="S50" s="194"/>
+      <c r="T50" s="195"/>
+      <c r="U50" s="195"/>
+      <c r="V50" s="195"/>
+      <c r="W50" s="195"/>
+      <c r="X50" s="196"/>
+      <c r="Y50" s="182"/>
+      <c r="Z50" s="183"/>
+    </row>
+    <row r="51" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A51" s="186"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="D49" s="276" t="s">
+      <c r="D51" s="312" t="s">
         <v>153</v>
       </c>
-      <c r="E49" s="276"/>
-      <c r="F49" s="276"/>
-      <c r="G49" s="277"/>
-      <c r="H49" s="169" t="s">
+      <c r="E51" s="312"/>
+      <c r="F51" s="312"/>
+      <c r="G51" s="313"/>
+      <c r="H51" s="203" t="s">
         <v>61</v>
       </c>
-      <c r="I49" s="170"/>
-      <c r="J49" s="170"/>
-      <c r="K49" s="170"/>
-      <c r="L49" s="170"/>
-      <c r="M49" s="170"/>
-      <c r="N49" s="170"/>
-      <c r="O49" s="170"/>
-      <c r="P49" s="170"/>
-      <c r="Q49" s="170"/>
-      <c r="R49" s="171"/>
-      <c r="S49" s="160"/>
-      <c r="T49" s="161"/>
-      <c r="U49" s="161"/>
-      <c r="V49" s="161"/>
-      <c r="W49" s="161"/>
-      <c r="X49" s="162"/>
-      <c r="Y49" s="148"/>
-      <c r="Z49" s="149"/>
-    </row>
-    <row r="50" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A50" s="6" t="s">
+      <c r="I51" s="204"/>
+      <c r="J51" s="204"/>
+      <c r="K51" s="204"/>
+      <c r="L51" s="204"/>
+      <c r="M51" s="204"/>
+      <c r="N51" s="204"/>
+      <c r="O51" s="204"/>
+      <c r="P51" s="204"/>
+      <c r="Q51" s="204"/>
+      <c r="R51" s="205"/>
+      <c r="S51" s="194"/>
+      <c r="T51" s="195"/>
+      <c r="U51" s="195"/>
+      <c r="V51" s="195"/>
+      <c r="W51" s="195"/>
+      <c r="X51" s="196"/>
+      <c r="Y51" s="182"/>
+      <c r="Z51" s="183"/>
+    </row>
+    <row r="52" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A52" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B52" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C52" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="D50" s="278" t="s">
+      <c r="D52" s="314" t="s">
         <v>142</v>
       </c>
-      <c r="E50" s="278"/>
-      <c r="F50" s="278"/>
-      <c r="G50" s="279"/>
-      <c r="H50" s="169" t="s">
+      <c r="E52" s="314"/>
+      <c r="F52" s="314"/>
+      <c r="G52" s="315"/>
+      <c r="H52" s="203" t="s">
         <v>169</v>
       </c>
-      <c r="I50" s="172"/>
-      <c r="J50" s="172"/>
-      <c r="K50" s="172"/>
-      <c r="L50" s="172"/>
-      <c r="M50" s="172"/>
-      <c r="N50" s="172"/>
-      <c r="O50" s="172"/>
-      <c r="P50" s="172"/>
-      <c r="Q50" s="172"/>
-      <c r="R50" s="173"/>
-      <c r="S50" s="163"/>
-      <c r="T50" s="164"/>
-      <c r="U50" s="164"/>
-      <c r="V50" s="164"/>
-      <c r="W50" s="164"/>
-      <c r="X50" s="165"/>
-      <c r="Y50" s="148"/>
-      <c r="Z50" s="149"/>
-    </row>
-    <row r="51" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A51" s="47" t="s">
+      <c r="I52" s="206"/>
+      <c r="J52" s="206"/>
+      <c r="K52" s="206"/>
+      <c r="L52" s="206"/>
+      <c r="M52" s="206"/>
+      <c r="N52" s="206"/>
+      <c r="O52" s="206"/>
+      <c r="P52" s="206"/>
+      <c r="Q52" s="206"/>
+      <c r="R52" s="207"/>
+      <c r="S52" s="197"/>
+      <c r="T52" s="198"/>
+      <c r="U52" s="198"/>
+      <c r="V52" s="198"/>
+      <c r="W52" s="198"/>
+      <c r="X52" s="199"/>
+      <c r="Y52" s="182"/>
+      <c r="Z52" s="183"/>
+    </row>
+    <row r="53" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A53" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="24" t="s">
+      <c r="B53" s="88"/>
+      <c r="C53" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D51" s="72" t="s">
+      <c r="D53" s="105" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="174" t="s">
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="208" t="s">
         <v>62</v>
       </c>
-      <c r="I51" s="175"/>
-      <c r="J51" s="175"/>
-      <c r="K51" s="175"/>
-      <c r="L51" s="175"/>
-      <c r="M51" s="175"/>
-      <c r="N51" s="175"/>
-      <c r="O51" s="175"/>
-      <c r="P51" s="175"/>
-      <c r="Q51" s="175"/>
-      <c r="R51" s="176"/>
-      <c r="S51" s="163"/>
-      <c r="T51" s="164"/>
-      <c r="U51" s="164"/>
-      <c r="V51" s="164"/>
-      <c r="W51" s="164"/>
-      <c r="X51" s="165"/>
-      <c r="Y51" s="148"/>
-      <c r="Z51" s="149"/>
-    </row>
-    <row r="52" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A52" s="47"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="24" t="s">
+      <c r="I53" s="209"/>
+      <c r="J53" s="209"/>
+      <c r="K53" s="209"/>
+      <c r="L53" s="209"/>
+      <c r="M53" s="209"/>
+      <c r="N53" s="209"/>
+      <c r="O53" s="209"/>
+      <c r="P53" s="209"/>
+      <c r="Q53" s="209"/>
+      <c r="R53" s="210"/>
+      <c r="S53" s="197"/>
+      <c r="T53" s="198"/>
+      <c r="U53" s="198"/>
+      <c r="V53" s="198"/>
+      <c r="W53" s="198"/>
+      <c r="X53" s="199"/>
+      <c r="Y53" s="182"/>
+      <c r="Z53" s="183"/>
+    </row>
+    <row r="54" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A54" s="83"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="D52" s="177" t="s">
+      <c r="D54" s="211" t="s">
         <v>166</v>
       </c>
-      <c r="E52" s="177" t="s">
+      <c r="E54" s="211" t="s">
         <v>162</v>
       </c>
-      <c r="F52" s="177" t="s">
+      <c r="F54" s="211" t="s">
         <v>162</v>
       </c>
-      <c r="G52" s="178" t="s">
+      <c r="G54" s="212" t="s">
         <v>162</v>
       </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="163"/>
-      <c r="T52" s="164"/>
-      <c r="U52" s="164"/>
-      <c r="V52" s="164"/>
-      <c r="W52" s="164"/>
-      <c r="X52" s="165"/>
-      <c r="Y52" s="148"/>
-      <c r="Z52" s="149"/>
-    </row>
-    <row r="53" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A53" s="48"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" s="177" t="s">
+      <c r="H54" s="16"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="197"/>
+      <c r="T54" s="198"/>
+      <c r="U54" s="198"/>
+      <c r="V54" s="198"/>
+      <c r="W54" s="198"/>
+      <c r="X54" s="199"/>
+      <c r="Y54" s="182"/>
+      <c r="Z54" s="183"/>
+    </row>
+    <row r="55" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A55" s="84"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D55" s="211" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="177" t="s">
+      <c r="E55" s="211" t="s">
         <v>162</v>
       </c>
-      <c r="F53" s="177" t="s">
+      <c r="F55" s="211" t="s">
         <v>162</v>
       </c>
-      <c r="G53" s="178" t="s">
+      <c r="G55" s="212" t="s">
         <v>162</v>
       </c>
-      <c r="H53" s="174"/>
-      <c r="I53" s="175"/>
-      <c r="J53" s="175"/>
-      <c r="K53" s="175"/>
-      <c r="L53" s="175"/>
-      <c r="M53" s="175"/>
-      <c r="N53" s="175"/>
-      <c r="O53" s="175"/>
-      <c r="P53" s="175"/>
-      <c r="Q53" s="175"/>
-      <c r="R53" s="176"/>
-      <c r="S53" s="166"/>
-      <c r="T53" s="167"/>
-      <c r="U53" s="167"/>
-      <c r="V53" s="167"/>
-      <c r="W53" s="167"/>
-      <c r="X53" s="168"/>
-      <c r="Y53" s="150"/>
-      <c r="Z53" s="151"/>
-    </row>
-    <row r="54" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A54" s="49" t="s">
+      <c r="H55" s="208"/>
+      <c r="I55" s="209"/>
+      <c r="J55" s="209"/>
+      <c r="K55" s="209"/>
+      <c r="L55" s="209"/>
+      <c r="M55" s="209"/>
+      <c r="N55" s="209"/>
+      <c r="O55" s="209"/>
+      <c r="P55" s="209"/>
+      <c r="Q55" s="209"/>
+      <c r="R55" s="210"/>
+      <c r="S55" s="200"/>
+      <c r="T55" s="201"/>
+      <c r="U55" s="201"/>
+      <c r="V55" s="201"/>
+      <c r="W55" s="201"/>
+      <c r="X55" s="202"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="185"/>
+    </row>
+    <row r="56" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A56" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="66" t="s">
+      <c r="B56" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="153" t="s">
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="I54" s="154"/>
-      <c r="J54" s="154"/>
-      <c r="K54" s="154"/>
-      <c r="L54" s="154"/>
-      <c r="M54" s="154"/>
-      <c r="N54" s="155"/>
-      <c r="O54" s="155"/>
-      <c r="P54" s="155"/>
-      <c r="Q54" s="155"/>
-      <c r="R54" s="156"/>
-      <c r="S54" s="66" t="s">
+      <c r="I56" s="188"/>
+      <c r="J56" s="188"/>
+      <c r="K56" s="188"/>
+      <c r="L56" s="188"/>
+      <c r="M56" s="188"/>
+      <c r="N56" s="189"/>
+      <c r="O56" s="189"/>
+      <c r="P56" s="189"/>
+      <c r="Q56" s="189"/>
+      <c r="R56" s="190"/>
+      <c r="S56" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="T54" s="67"/>
-      <c r="U54" s="67"/>
-      <c r="V54" s="67"/>
-      <c r="W54" s="67"/>
-      <c r="X54" s="69"/>
-      <c r="Y54" s="66" t="s">
+      <c r="T56" s="100"/>
+      <c r="U56" s="100"/>
+      <c r="V56" s="100"/>
+      <c r="W56" s="100"/>
+      <c r="X56" s="102"/>
+      <c r="Y56" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="Z54" s="68"/>
-    </row>
-    <row r="55" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A55" s="152"/>
-      <c r="B55" s="142" t="s">
+      <c r="Z56" s="101"/>
+    </row>
+    <row r="57" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A57" s="186"/>
+      <c r="B57" s="176" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="196" t="s">
+      <c r="C57" s="230" t="s">
         <v>132</v>
       </c>
-      <c r="D55" s="196"/>
-      <c r="E55" s="197"/>
-      <c r="F55" s="197"/>
-      <c r="G55" s="198"/>
-      <c r="H55" s="185" t="s">
+      <c r="D57" s="230"/>
+      <c r="E57" s="231"/>
+      <c r="F57" s="231"/>
+      <c r="G57" s="232"/>
+      <c r="H57" s="219" t="s">
         <v>67</v>
       </c>
-      <c r="I55" s="186"/>
-      <c r="J55" s="186"/>
-      <c r="K55" s="186"/>
-      <c r="L55" s="186"/>
-      <c r="M55" s="186"/>
-      <c r="N55" s="186"/>
-      <c r="O55" s="186"/>
-      <c r="P55" s="186"/>
-      <c r="Q55" s="186"/>
-      <c r="R55" s="187"/>
-      <c r="S55" s="188" t="s">
+      <c r="I57" s="220"/>
+      <c r="J57" s="220"/>
+      <c r="K57" s="220"/>
+      <c r="L57" s="220"/>
+      <c r="M57" s="220"/>
+      <c r="N57" s="220"/>
+      <c r="O57" s="220"/>
+      <c r="P57" s="220"/>
+      <c r="Q57" s="220"/>
+      <c r="R57" s="221"/>
+      <c r="S57" s="222" t="s">
         <v>46</v>
       </c>
-      <c r="T55" s="189"/>
-      <c r="U55" s="189"/>
-      <c r="V55" s="189"/>
-      <c r="W55" s="189"/>
-      <c r="X55" s="190"/>
-      <c r="Y55" s="146" t="s">
+      <c r="T57" s="223"/>
+      <c r="U57" s="223"/>
+      <c r="V57" s="223"/>
+      <c r="W57" s="223"/>
+      <c r="X57" s="224"/>
+      <c r="Y57" s="180" t="s">
         <v>141</v>
       </c>
-      <c r="Z55" s="147"/>
-    </row>
-    <row r="56" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A56" s="152"/>
-      <c r="B56" s="143"/>
-      <c r="C56" s="199"/>
-      <c r="D56" s="199"/>
-      <c r="E56" s="199"/>
-      <c r="F56" s="199"/>
-      <c r="G56" s="200"/>
-      <c r="H56" s="191" t="s">
+      <c r="Z57" s="181"/>
+    </row>
+    <row r="58" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A58" s="186"/>
+      <c r="B58" s="177"/>
+      <c r="C58" s="233"/>
+      <c r="D58" s="233"/>
+      <c r="E58" s="233"/>
+      <c r="F58" s="233"/>
+      <c r="G58" s="234"/>
+      <c r="H58" s="225" t="s">
         <v>68</v>
       </c>
-      <c r="I56" s="172"/>
-      <c r="J56" s="172"/>
-      <c r="K56" s="172"/>
-      <c r="L56" s="172"/>
-      <c r="M56" s="172"/>
-      <c r="N56" s="172"/>
-      <c r="O56" s="172"/>
-      <c r="P56" s="172"/>
-      <c r="Q56" s="172"/>
-      <c r="R56" s="173"/>
-      <c r="S56" s="192" t="s">
+      <c r="I58" s="206"/>
+      <c r="J58" s="206"/>
+      <c r="K58" s="206"/>
+      <c r="L58" s="206"/>
+      <c r="M58" s="206"/>
+      <c r="N58" s="206"/>
+      <c r="O58" s="206"/>
+      <c r="P58" s="206"/>
+      <c r="Q58" s="206"/>
+      <c r="R58" s="207"/>
+      <c r="S58" s="226" t="s">
         <v>69</v>
       </c>
-      <c r="T56" s="193"/>
-      <c r="U56" s="193"/>
-      <c r="V56" s="193"/>
-      <c r="W56" s="193"/>
-      <c r="X56" s="194"/>
-      <c r="Y56" s="148"/>
-      <c r="Z56" s="149"/>
-    </row>
-    <row r="57" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A57" s="6" t="s">
+      <c r="T58" s="227"/>
+      <c r="U58" s="227"/>
+      <c r="V58" s="227"/>
+      <c r="W58" s="227"/>
+      <c r="X58" s="228"/>
+      <c r="Y58" s="182"/>
+      <c r="Z58" s="183"/>
+    </row>
+    <row r="59" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A59" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B57" s="144" t="s">
+      <c r="B59" s="178" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="201" t="s">
+      <c r="C59" s="235" t="s">
         <v>134</v>
       </c>
-      <c r="D57" s="201"/>
-      <c r="E57" s="201"/>
-      <c r="F57" s="201"/>
-      <c r="G57" s="202"/>
-      <c r="H57" s="191"/>
-      <c r="I57" s="172"/>
-      <c r="J57" s="172"/>
-      <c r="K57" s="172"/>
-      <c r="L57" s="172"/>
-      <c r="M57" s="172"/>
-      <c r="N57" s="172"/>
-      <c r="O57" s="172"/>
-      <c r="P57" s="172"/>
-      <c r="Q57" s="172"/>
-      <c r="R57" s="173"/>
-      <c r="S57" s="195"/>
-      <c r="T57" s="193"/>
-      <c r="U57" s="193"/>
-      <c r="V57" s="193"/>
-      <c r="W57" s="193"/>
-      <c r="X57" s="194"/>
-      <c r="Y57" s="148"/>
-      <c r="Z57" s="149"/>
-    </row>
-    <row r="58" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A58" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="145"/>
-      <c r="C58" s="203"/>
-      <c r="D58" s="203"/>
-      <c r="E58" s="203"/>
-      <c r="F58" s="203"/>
-      <c r="G58" s="204"/>
-      <c r="H58" s="191"/>
-      <c r="I58" s="172"/>
-      <c r="J58" s="172"/>
-      <c r="K58" s="172"/>
-      <c r="L58" s="172"/>
-      <c r="M58" s="172"/>
-      <c r="N58" s="172"/>
-      <c r="O58" s="172"/>
-      <c r="P58" s="172"/>
-      <c r="Q58" s="172"/>
-      <c r="R58" s="173"/>
-      <c r="S58" s="195"/>
-      <c r="T58" s="193"/>
-      <c r="U58" s="193"/>
-      <c r="V58" s="193"/>
-      <c r="W58" s="193"/>
-      <c r="X58" s="194"/>
-      <c r="Y58" s="150"/>
-      <c r="Z58" s="151"/>
-    </row>
-    <row r="59" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A59" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="I59" s="99"/>
-      <c r="J59" s="99"/>
-      <c r="K59" s="99"/>
-      <c r="L59" s="99"/>
-      <c r="M59" s="205"/>
+      <c r="D59" s="235"/>
+      <c r="E59" s="235"/>
+      <c r="F59" s="235"/>
+      <c r="G59" s="236"/>
+      <c r="H59" s="225"/>
+      <c r="I59" s="206"/>
+      <c r="J59" s="206"/>
+      <c r="K59" s="206"/>
+      <c r="L59" s="206"/>
+      <c r="M59" s="206"/>
       <c r="N59" s="206"/>
       <c r="O59" s="206"/>
       <c r="P59" s="206"/>
       <c r="Q59" s="206"/>
       <c r="R59" s="207"/>
-      <c r="S59" s="66" t="s">
+      <c r="S59" s="229"/>
+      <c r="T59" s="227"/>
+      <c r="U59" s="227"/>
+      <c r="V59" s="227"/>
+      <c r="W59" s="227"/>
+      <c r="X59" s="228"/>
+      <c r="Y59" s="182"/>
+      <c r="Z59" s="183"/>
+    </row>
+    <row r="60" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A60" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="179"/>
+      <c r="C60" s="237"/>
+      <c r="D60" s="237"/>
+      <c r="E60" s="237"/>
+      <c r="F60" s="237"/>
+      <c r="G60" s="238"/>
+      <c r="H60" s="225"/>
+      <c r="I60" s="206"/>
+      <c r="J60" s="206"/>
+      <c r="K60" s="206"/>
+      <c r="L60" s="206"/>
+      <c r="M60" s="206"/>
+      <c r="N60" s="206"/>
+      <c r="O60" s="206"/>
+      <c r="P60" s="206"/>
+      <c r="Q60" s="206"/>
+      <c r="R60" s="207"/>
+      <c r="S60" s="229"/>
+      <c r="T60" s="227"/>
+      <c r="U60" s="227"/>
+      <c r="V60" s="227"/>
+      <c r="W60" s="227"/>
+      <c r="X60" s="228"/>
+      <c r="Y60" s="184"/>
+      <c r="Z60" s="185"/>
+    </row>
+    <row r="61" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A61" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="100"/>
+      <c r="D61" s="100"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="100"/>
+      <c r="G61" s="101"/>
+      <c r="H61" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="I61" s="132"/>
+      <c r="J61" s="132"/>
+      <c r="K61" s="132"/>
+      <c r="L61" s="132"/>
+      <c r="M61" s="239"/>
+      <c r="N61" s="240"/>
+      <c r="O61" s="240"/>
+      <c r="P61" s="240"/>
+      <c r="Q61" s="240"/>
+      <c r="R61" s="241"/>
+      <c r="S61" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="T59" s="67"/>
-      <c r="U59" s="67"/>
-      <c r="V59" s="67"/>
-      <c r="W59" s="67"/>
-      <c r="X59" s="69"/>
-      <c r="Y59" s="66" t="s">
+      <c r="T61" s="100"/>
+      <c r="U61" s="100"/>
+      <c r="V61" s="100"/>
+      <c r="W61" s="100"/>
+      <c r="X61" s="102"/>
+      <c r="Y61" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="Z59" s="68"/>
-    </row>
-    <row r="60" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A60" s="152"/>
-      <c r="B60" s="24" t="s">
+      <c r="Z61" s="101"/>
+    </row>
+    <row r="62" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A62" s="186"/>
+      <c r="B62" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="214" t="s">
+      <c r="C62" s="248" t="s">
         <v>151</v>
       </c>
-      <c r="D60" s="214"/>
-      <c r="E60" s="214"/>
-      <c r="F60" s="214"/>
-      <c r="G60" s="215"/>
-      <c r="H60" s="179" t="s">
+      <c r="D62" s="248"/>
+      <c r="E62" s="248"/>
+      <c r="F62" s="248"/>
+      <c r="G62" s="249"/>
+      <c r="H62" s="213" t="s">
         <v>72</v>
       </c>
-      <c r="I60" s="186"/>
-      <c r="J60" s="186"/>
-      <c r="K60" s="186"/>
-      <c r="L60" s="186"/>
-      <c r="M60" s="186"/>
-      <c r="N60" s="186"/>
-      <c r="O60" s="186"/>
-      <c r="P60" s="186"/>
-      <c r="Q60" s="186"/>
-      <c r="R60" s="186"/>
-      <c r="S60" s="188" t="s">
+      <c r="I62" s="220"/>
+      <c r="J62" s="220"/>
+      <c r="K62" s="220"/>
+      <c r="L62" s="220"/>
+      <c r="M62" s="220"/>
+      <c r="N62" s="220"/>
+      <c r="O62" s="220"/>
+      <c r="P62" s="220"/>
+      <c r="Q62" s="220"/>
+      <c r="R62" s="220"/>
+      <c r="S62" s="222" t="s">
         <v>46</v>
       </c>
-      <c r="T60" s="189"/>
-      <c r="U60" s="189"/>
-      <c r="V60" s="189"/>
-      <c r="W60" s="189"/>
-      <c r="X60" s="190"/>
-      <c r="Y60" s="146" t="s">
+      <c r="T62" s="223"/>
+      <c r="U62" s="223"/>
+      <c r="V62" s="223"/>
+      <c r="W62" s="223"/>
+      <c r="X62" s="224"/>
+      <c r="Y62" s="180" t="s">
         <v>141</v>
       </c>
-      <c r="Z60" s="147"/>
-    </row>
-    <row r="61" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A61" s="152"/>
-      <c r="B61" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C61" s="208" t="s">
-        <v>129</v>
-      </c>
-      <c r="D61" s="208"/>
-      <c r="E61" s="208"/>
-      <c r="F61" s="208"/>
-      <c r="G61" s="209"/>
-      <c r="H61" s="169" t="s">
-        <v>73</v>
-      </c>
-      <c r="I61" s="172"/>
-      <c r="J61" s="172"/>
-      <c r="K61" s="172"/>
-      <c r="L61" s="172"/>
-      <c r="M61" s="172"/>
-      <c r="N61" s="172"/>
-      <c r="O61" s="172"/>
-      <c r="P61" s="172"/>
-      <c r="Q61" s="172"/>
-      <c r="R61" s="173"/>
-      <c r="S61" s="192" t="s">
-        <v>69</v>
-      </c>
-      <c r="T61" s="193"/>
-      <c r="U61" s="193"/>
-      <c r="V61" s="193"/>
-      <c r="W61" s="193"/>
-      <c r="X61" s="194"/>
-      <c r="Y61" s="148"/>
-      <c r="Z61" s="149"/>
-    </row>
-    <row r="62" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A62" s="152"/>
-      <c r="B62" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" s="208" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62" s="208"/>
-      <c r="E62" s="208"/>
-      <c r="F62" s="208"/>
-      <c r="G62" s="209"/>
-      <c r="H62" s="169" t="s">
-        <v>168</v>
-      </c>
-      <c r="I62" s="172"/>
-      <c r="J62" s="172"/>
-      <c r="K62" s="172"/>
-      <c r="L62" s="172"/>
-      <c r="M62" s="172"/>
-      <c r="N62" s="172"/>
-      <c r="O62" s="172"/>
-      <c r="P62" s="172"/>
-      <c r="Q62" s="172"/>
-      <c r="R62" s="173"/>
-      <c r="S62" s="195"/>
-      <c r="T62" s="193"/>
-      <c r="U62" s="193"/>
-      <c r="V62" s="193"/>
-      <c r="W62" s="193"/>
-      <c r="X62" s="194"/>
-      <c r="Y62" s="148"/>
-      <c r="Z62" s="149"/>
+      <c r="Z62" s="181"/>
     </row>
     <row r="63" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A63" s="152"/>
+      <c r="A63" s="186"/>
       <c r="B63" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="208"/>
-      <c r="D63" s="208"/>
-      <c r="E63" s="208"/>
-      <c r="F63" s="208"/>
-      <c r="G63" s="209"/>
-      <c r="H63" s="169" t="s">
-        <v>74</v>
-      </c>
-      <c r="I63" s="210"/>
-      <c r="J63" s="210"/>
-      <c r="K63" s="210"/>
-      <c r="L63" s="210"/>
-      <c r="M63" s="210"/>
-      <c r="N63" s="210"/>
-      <c r="O63" s="210"/>
-      <c r="P63" s="210"/>
-      <c r="Q63" s="210"/>
-      <c r="R63" s="211"/>
-      <c r="S63" s="195"/>
-      <c r="T63" s="193"/>
-      <c r="U63" s="193"/>
-      <c r="V63" s="193"/>
-      <c r="W63" s="193"/>
-      <c r="X63" s="194"/>
-      <c r="Y63" s="148"/>
-      <c r="Z63" s="149"/>
+      <c r="C63" s="242" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="242"/>
+      <c r="E63" s="242"/>
+      <c r="F63" s="242"/>
+      <c r="G63" s="243"/>
+      <c r="H63" s="203" t="s">
+        <v>73</v>
+      </c>
+      <c r="I63" s="206"/>
+      <c r="J63" s="206"/>
+      <c r="K63" s="206"/>
+      <c r="L63" s="206"/>
+      <c r="M63" s="206"/>
+      <c r="N63" s="206"/>
+      <c r="O63" s="206"/>
+      <c r="P63" s="206"/>
+      <c r="Q63" s="206"/>
+      <c r="R63" s="207"/>
+      <c r="S63" s="226" t="s">
+        <v>69</v>
+      </c>
+      <c r="T63" s="227"/>
+      <c r="U63" s="227"/>
+      <c r="V63" s="227"/>
+      <c r="W63" s="227"/>
+      <c r="X63" s="228"/>
+      <c r="Y63" s="182"/>
+      <c r="Z63" s="183"/>
     </row>
     <row r="64" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A64" s="152"/>
+      <c r="A64" s="186"/>
       <c r="B64" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
-      <c r="E64" s="208"/>
-      <c r="F64" s="208"/>
-      <c r="G64" s="209"/>
-      <c r="H64" s="169" t="s">
-        <v>75</v>
-      </c>
-      <c r="I64" s="212"/>
-      <c r="J64" s="212"/>
-      <c r="K64" s="212"/>
-      <c r="L64" s="212"/>
-      <c r="M64" s="212"/>
-      <c r="N64" s="212"/>
-      <c r="O64" s="212"/>
-      <c r="P64" s="212"/>
-      <c r="Q64" s="212"/>
-      <c r="R64" s="213"/>
-      <c r="S64" s="195"/>
-      <c r="T64" s="216"/>
-      <c r="U64" s="216"/>
-      <c r="V64" s="216"/>
-      <c r="W64" s="216"/>
-      <c r="X64" s="194"/>
-      <c r="Y64" s="148"/>
-      <c r="Z64" s="149"/>
+      <c r="C64" s="242" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="242"/>
+      <c r="E64" s="242"/>
+      <c r="F64" s="242"/>
+      <c r="G64" s="243"/>
+      <c r="H64" s="203" t="s">
+        <v>168</v>
+      </c>
+      <c r="I64" s="206"/>
+      <c r="J64" s="206"/>
+      <c r="K64" s="206"/>
+      <c r="L64" s="206"/>
+      <c r="M64" s="206"/>
+      <c r="N64" s="206"/>
+      <c r="O64" s="206"/>
+      <c r="P64" s="206"/>
+      <c r="Q64" s="206"/>
+      <c r="R64" s="207"/>
+      <c r="S64" s="229"/>
+      <c r="T64" s="227"/>
+      <c r="U64" s="227"/>
+      <c r="V64" s="227"/>
+      <c r="W64" s="227"/>
+      <c r="X64" s="228"/>
+      <c r="Y64" s="182"/>
+      <c r="Z64" s="183"/>
     </row>
     <row r="65" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A65" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65" s="208"/>
-      <c r="D65" s="208"/>
-      <c r="E65" s="208"/>
-      <c r="F65" s="208"/>
-      <c r="G65" s="209"/>
-      <c r="H65" s="169" t="s">
-        <v>76</v>
-      </c>
-      <c r="I65" s="172"/>
-      <c r="J65" s="172"/>
-      <c r="K65" s="172"/>
-      <c r="L65" s="172"/>
-      <c r="M65" s="172"/>
-      <c r="N65" s="172"/>
-      <c r="O65" s="172"/>
-      <c r="P65" s="172"/>
-      <c r="Q65" s="172"/>
-      <c r="R65" s="173"/>
-      <c r="S65" s="195"/>
-      <c r="T65" s="216"/>
-      <c r="U65" s="216"/>
-      <c r="V65" s="216"/>
-      <c r="W65" s="216"/>
-      <c r="X65" s="194"/>
-      <c r="Y65" s="148"/>
-      <c r="Z65" s="149"/>
+      <c r="A65" s="186"/>
+      <c r="B65" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" s="250" t="s">
+        <v>229</v>
+      </c>
+      <c r="D65" s="250"/>
+      <c r="E65" s="250"/>
+      <c r="F65" s="250"/>
+      <c r="G65" s="251"/>
+      <c r="H65" s="203" t="s">
+        <v>74</v>
+      </c>
+      <c r="I65" s="244"/>
+      <c r="J65" s="244"/>
+      <c r="K65" s="244"/>
+      <c r="L65" s="244"/>
+      <c r="M65" s="244"/>
+      <c r="N65" s="244"/>
+      <c r="O65" s="244"/>
+      <c r="P65" s="244"/>
+      <c r="Q65" s="244"/>
+      <c r="R65" s="245"/>
+      <c r="S65" s="229"/>
+      <c r="T65" s="227"/>
+      <c r="U65" s="227"/>
+      <c r="V65" s="227"/>
+      <c r="W65" s="227"/>
+      <c r="X65" s="228"/>
+      <c r="Y65" s="182"/>
+      <c r="Z65" s="183"/>
     </row>
     <row r="66" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A66" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="A66" s="186"/>
       <c r="B66" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="208"/>
-      <c r="D66" s="208"/>
-      <c r="E66" s="208"/>
-      <c r="F66" s="208"/>
-      <c r="G66" s="209"/>
-      <c r="H66" s="169" t="s">
-        <v>77</v>
-      </c>
-      <c r="I66" s="172"/>
-      <c r="J66" s="172"/>
-      <c r="K66" s="172"/>
-      <c r="L66" s="172"/>
-      <c r="M66" s="172"/>
-      <c r="N66" s="172"/>
-      <c r="O66" s="172"/>
-      <c r="P66" s="172"/>
-      <c r="Q66" s="172"/>
-      <c r="R66" s="173"/>
-      <c r="S66" s="217"/>
-      <c r="T66" s="218"/>
-      <c r="U66" s="218"/>
-      <c r="V66" s="218"/>
-      <c r="W66" s="218"/>
-      <c r="X66" s="219"/>
-      <c r="Y66" s="150"/>
-      <c r="Z66" s="151"/>
+      <c r="C66" s="242"/>
+      <c r="D66" s="242"/>
+      <c r="E66" s="242"/>
+      <c r="F66" s="242"/>
+      <c r="G66" s="243"/>
+      <c r="H66" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="I66" s="246"/>
+      <c r="J66" s="246"/>
+      <c r="K66" s="246"/>
+      <c r="L66" s="246"/>
+      <c r="M66" s="246"/>
+      <c r="N66" s="246"/>
+      <c r="O66" s="246"/>
+      <c r="P66" s="246"/>
+      <c r="Q66" s="246"/>
+      <c r="R66" s="247"/>
+      <c r="S66" s="229"/>
+      <c r="T66" s="252"/>
+      <c r="U66" s="252"/>
+      <c r="V66" s="252"/>
+      <c r="W66" s="252"/>
+      <c r="X66" s="228"/>
+      <c r="Y66" s="182"/>
+      <c r="Z66" s="183"/>
     </row>
     <row r="67" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A67" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B67" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="98" t="s">
-        <v>80</v>
-      </c>
-      <c r="I67" s="99"/>
-      <c r="J67" s="99"/>
-      <c r="K67" s="99"/>
-      <c r="L67" s="99"/>
-      <c r="M67" s="205"/>
+      <c r="A67" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="242"/>
+      <c r="D67" s="242"/>
+      <c r="E67" s="242"/>
+      <c r="F67" s="242"/>
+      <c r="G67" s="243"/>
+      <c r="H67" s="203" t="s">
+        <v>76</v>
+      </c>
+      <c r="I67" s="206"/>
+      <c r="J67" s="206"/>
+      <c r="K67" s="206"/>
+      <c r="L67" s="206"/>
+      <c r="M67" s="206"/>
       <c r="N67" s="206"/>
       <c r="O67" s="206"/>
       <c r="P67" s="206"/>
       <c r="Q67" s="206"/>
       <c r="R67" s="207"/>
-      <c r="S67" s="66" t="s">
+      <c r="S67" s="229"/>
+      <c r="T67" s="252"/>
+      <c r="U67" s="252"/>
+      <c r="V67" s="252"/>
+      <c r="W67" s="252"/>
+      <c r="X67" s="228"/>
+      <c r="Y67" s="182"/>
+      <c r="Z67" s="183"/>
+    </row>
+    <row r="68" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A68" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="242"/>
+      <c r="D68" s="242"/>
+      <c r="E68" s="242"/>
+      <c r="F68" s="242"/>
+      <c r="G68" s="243"/>
+      <c r="H68" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="I68" s="206"/>
+      <c r="J68" s="206"/>
+      <c r="K68" s="206"/>
+      <c r="L68" s="206"/>
+      <c r="M68" s="206"/>
+      <c r="N68" s="206"/>
+      <c r="O68" s="206"/>
+      <c r="P68" s="206"/>
+      <c r="Q68" s="206"/>
+      <c r="R68" s="207"/>
+      <c r="S68" s="253"/>
+      <c r="T68" s="254"/>
+      <c r="U68" s="254"/>
+      <c r="V68" s="254"/>
+      <c r="W68" s="254"/>
+      <c r="X68" s="255"/>
+      <c r="Y68" s="184"/>
+      <c r="Z68" s="185"/>
+    </row>
+    <row r="69" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A69" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="100"/>
+      <c r="D69" s="100"/>
+      <c r="E69" s="100"/>
+      <c r="F69" s="100"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="131" t="s">
+        <v>80</v>
+      </c>
+      <c r="I69" s="132"/>
+      <c r="J69" s="132"/>
+      <c r="K69" s="132"/>
+      <c r="L69" s="132"/>
+      <c r="M69" s="239"/>
+      <c r="N69" s="240"/>
+      <c r="O69" s="240"/>
+      <c r="P69" s="240"/>
+      <c r="Q69" s="240"/>
+      <c r="R69" s="241"/>
+      <c r="S69" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="T67" s="67"/>
-      <c r="U67" s="67"/>
-      <c r="V67" s="67"/>
-      <c r="W67" s="67"/>
-      <c r="X67" s="69"/>
-      <c r="Y67" s="66" t="s">
+      <c r="T69" s="100"/>
+      <c r="U69" s="100"/>
+      <c r="V69" s="100"/>
+      <c r="W69" s="100"/>
+      <c r="X69" s="102"/>
+      <c r="Y69" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="Z67" s="68"/>
-    </row>
-    <row r="68" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A68" s="6" t="s">
+      <c r="Z69" s="101"/>
+    </row>
+    <row r="70" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A70" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B70" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="225" t="s">
+      <c r="C70" s="261" t="s">
         <v>131</v>
       </c>
-      <c r="D68" s="225"/>
-      <c r="E68" s="225"/>
-      <c r="F68" s="225"/>
-      <c r="G68" s="226"/>
-      <c r="H68" s="169" t="s">
+      <c r="D70" s="261"/>
+      <c r="E70" s="261"/>
+      <c r="F70" s="261"/>
+      <c r="G70" s="262"/>
+      <c r="H70" s="203" t="s">
         <v>83</v>
       </c>
-      <c r="I68" s="172"/>
-      <c r="J68" s="172"/>
-      <c r="K68" s="172"/>
-      <c r="L68" s="172"/>
-      <c r="M68" s="172"/>
-      <c r="N68" s="172"/>
-      <c r="O68" s="172"/>
-      <c r="P68" s="172"/>
-      <c r="Q68" s="172"/>
-      <c r="R68" s="172"/>
-      <c r="S68" s="220" t="s">
+      <c r="I70" s="206"/>
+      <c r="J70" s="206"/>
+      <c r="K70" s="206"/>
+      <c r="L70" s="206"/>
+      <c r="M70" s="206"/>
+      <c r="N70" s="206"/>
+      <c r="O70" s="206"/>
+      <c r="P70" s="206"/>
+      <c r="Q70" s="206"/>
+      <c r="R70" s="206"/>
+      <c r="S70" s="256" t="s">
         <v>46</v>
       </c>
-      <c r="T68" s="221"/>
-      <c r="U68" s="221"/>
-      <c r="V68" s="221"/>
-      <c r="W68" s="221"/>
-      <c r="X68" s="222"/>
-      <c r="Y68" s="146" t="s">
+      <c r="T70" s="257"/>
+      <c r="U70" s="257"/>
+      <c r="V70" s="257"/>
+      <c r="W70" s="257"/>
+      <c r="X70" s="258"/>
+      <c r="Y70" s="180" t="s">
         <v>141</v>
       </c>
-      <c r="Z68" s="147"/>
-    </row>
-    <row r="69" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A69" s="6" t="s">
+      <c r="Z70" s="181"/>
+    </row>
+    <row r="71" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A71" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B71" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="227"/>
-      <c r="D69" s="227"/>
-      <c r="E69" s="227"/>
-      <c r="F69" s="227"/>
-      <c r="G69" s="228"/>
-      <c r="H69" s="169" t="s">
+      <c r="C71" s="263"/>
+      <c r="D71" s="263"/>
+      <c r="E71" s="263"/>
+      <c r="F71" s="263"/>
+      <c r="G71" s="264"/>
+      <c r="H71" s="203" t="s">
         <v>84</v>
       </c>
-      <c r="I69" s="172"/>
-      <c r="J69" s="172"/>
-      <c r="K69" s="172"/>
-      <c r="L69" s="172"/>
-      <c r="M69" s="172"/>
-      <c r="N69" s="172"/>
-      <c r="O69" s="172"/>
-      <c r="P69" s="172"/>
-      <c r="Q69" s="172"/>
-      <c r="R69" s="173"/>
-      <c r="S69" s="192" t="s">
+      <c r="I71" s="206"/>
+      <c r="J71" s="206"/>
+      <c r="K71" s="206"/>
+      <c r="L71" s="206"/>
+      <c r="M71" s="206"/>
+      <c r="N71" s="206"/>
+      <c r="O71" s="206"/>
+      <c r="P71" s="206"/>
+      <c r="Q71" s="206"/>
+      <c r="R71" s="207"/>
+      <c r="S71" s="226" t="s">
         <v>69</v>
       </c>
-      <c r="T69" s="193"/>
-      <c r="U69" s="193"/>
-      <c r="V69" s="193"/>
-      <c r="W69" s="193"/>
-      <c r="X69" s="194"/>
-      <c r="Y69" s="148"/>
-      <c r="Z69" s="149"/>
-    </row>
-    <row r="70" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A70" s="47" t="s">
+      <c r="T71" s="227"/>
+      <c r="U71" s="227"/>
+      <c r="V71" s="227"/>
+      <c r="W71" s="227"/>
+      <c r="X71" s="228"/>
+      <c r="Y71" s="182"/>
+      <c r="Z71" s="183"/>
+    </row>
+    <row r="72" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A72" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B72" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="227"/>
-      <c r="D70" s="227"/>
-      <c r="E70" s="227"/>
-      <c r="F70" s="227"/>
-      <c r="G70" s="228"/>
-      <c r="H70" s="169" t="s">
+      <c r="C72" s="263"/>
+      <c r="D72" s="263"/>
+      <c r="E72" s="263"/>
+      <c r="F72" s="263"/>
+      <c r="G72" s="264"/>
+      <c r="H72" s="203" t="s">
         <v>85</v>
       </c>
-      <c r="I70" s="172"/>
-      <c r="J70" s="172"/>
-      <c r="K70" s="172"/>
-      <c r="L70" s="172"/>
-      <c r="M70" s="172"/>
-      <c r="N70" s="172"/>
-      <c r="O70" s="172"/>
-      <c r="P70" s="172"/>
-      <c r="Q70" s="172"/>
-      <c r="R70" s="173"/>
-      <c r="S70" s="195"/>
-      <c r="T70" s="193"/>
-      <c r="U70" s="193"/>
-      <c r="V70" s="193"/>
-      <c r="W70" s="193"/>
-      <c r="X70" s="194"/>
-      <c r="Y70" s="148"/>
-      <c r="Z70" s="149"/>
-    </row>
-    <row r="71" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A71" s="48"/>
-      <c r="B71" s="28" t="s">
+      <c r="I72" s="206"/>
+      <c r="J72" s="206"/>
+      <c r="K72" s="206"/>
+      <c r="L72" s="206"/>
+      <c r="M72" s="206"/>
+      <c r="N72" s="206"/>
+      <c r="O72" s="206"/>
+      <c r="P72" s="206"/>
+      <c r="Q72" s="206"/>
+      <c r="R72" s="207"/>
+      <c r="S72" s="229"/>
+      <c r="T72" s="227"/>
+      <c r="U72" s="227"/>
+      <c r="V72" s="227"/>
+      <c r="W72" s="227"/>
+      <c r="X72" s="228"/>
+      <c r="Y72" s="182"/>
+      <c r="Z72" s="183"/>
+    </row>
+    <row r="73" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A73" s="84"/>
+      <c r="B73" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="229"/>
-      <c r="D71" s="229"/>
-      <c r="E71" s="229"/>
-      <c r="F71" s="229"/>
-      <c r="G71" s="230"/>
-      <c r="H71" s="174"/>
-      <c r="I71" s="223"/>
-      <c r="J71" s="223"/>
-      <c r="K71" s="223"/>
-      <c r="L71" s="223"/>
-      <c r="M71" s="223"/>
-      <c r="N71" s="223"/>
-      <c r="O71" s="223"/>
-      <c r="P71" s="223"/>
-      <c r="Q71" s="223"/>
-      <c r="R71" s="224"/>
-      <c r="S71" s="217"/>
-      <c r="T71" s="218"/>
-      <c r="U71" s="218"/>
-      <c r="V71" s="218"/>
-      <c r="W71" s="218"/>
-      <c r="X71" s="219"/>
-      <c r="Y71" s="150"/>
-      <c r="Z71" s="151"/>
-    </row>
-    <row r="72" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A72" s="10" t="s">
+      <c r="C73" s="265"/>
+      <c r="D73" s="265"/>
+      <c r="E73" s="265"/>
+      <c r="F73" s="265"/>
+      <c r="G73" s="266"/>
+      <c r="H73" s="208"/>
+      <c r="I73" s="259"/>
+      <c r="J73" s="259"/>
+      <c r="K73" s="259"/>
+      <c r="L73" s="259"/>
+      <c r="M73" s="259"/>
+      <c r="N73" s="259"/>
+      <c r="O73" s="259"/>
+      <c r="P73" s="259"/>
+      <c r="Q73" s="259"/>
+      <c r="R73" s="260"/>
+      <c r="S73" s="253"/>
+      <c r="T73" s="254"/>
+      <c r="U73" s="254"/>
+      <c r="V73" s="254"/>
+      <c r="W73" s="254"/>
+      <c r="X73" s="255"/>
+      <c r="Y73" s="184"/>
+      <c r="Z73" s="185"/>
+    </row>
+    <row r="74" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A74" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="66" t="s">
+      <c r="B74" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="68"/>
-      <c r="H72" s="98" t="s">
+      <c r="C74" s="100"/>
+      <c r="D74" s="100"/>
+      <c r="E74" s="100"/>
+      <c r="F74" s="100"/>
+      <c r="G74" s="101"/>
+      <c r="H74" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="I72" s="99"/>
-      <c r="J72" s="99"/>
-      <c r="K72" s="99"/>
-      <c r="L72" s="99"/>
-      <c r="M72" s="99"/>
-      <c r="N72" s="99"/>
-      <c r="O72" s="99"/>
-      <c r="P72" s="99"/>
-      <c r="Q72" s="99"/>
-      <c r="R72" s="100"/>
-      <c r="S72" s="66" t="s">
+      <c r="I74" s="132"/>
+      <c r="J74" s="132"/>
+      <c r="K74" s="132"/>
+      <c r="L74" s="132"/>
+      <c r="M74" s="132"/>
+      <c r="N74" s="132"/>
+      <c r="O74" s="132"/>
+      <c r="P74" s="132"/>
+      <c r="Q74" s="132"/>
+      <c r="R74" s="133"/>
+      <c r="S74" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="T72" s="67"/>
-      <c r="U72" s="67"/>
-      <c r="V72" s="67"/>
-      <c r="W72" s="67"/>
-      <c r="X72" s="69"/>
-      <c r="Y72" s="66" t="s">
+      <c r="T74" s="100"/>
+      <c r="U74" s="100"/>
+      <c r="V74" s="100"/>
+      <c r="W74" s="100"/>
+      <c r="X74" s="102"/>
+      <c r="Y74" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="Z72" s="68"/>
-    </row>
-    <row r="73" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A73" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B73" s="231" t="s">
-        <v>21</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D73" s="232" t="s">
-        <v>124</v>
-      </c>
-      <c r="E73" s="232"/>
-      <c r="F73" s="232"/>
-      <c r="G73" s="233"/>
-      <c r="H73" s="179" t="s">
-        <v>89</v>
-      </c>
-      <c r="I73" s="180"/>
-      <c r="J73" s="180"/>
-      <c r="K73" s="180"/>
-      <c r="L73" s="180"/>
-      <c r="M73" s="180"/>
-      <c r="N73" s="180"/>
-      <c r="O73" s="180"/>
-      <c r="P73" s="180"/>
-      <c r="Q73" s="180"/>
-      <c r="R73" s="181"/>
-      <c r="S73" s="188" t="s">
-        <v>46</v>
-      </c>
-      <c r="T73" s="189"/>
-      <c r="U73" s="189"/>
-      <c r="V73" s="189"/>
-      <c r="W73" s="189"/>
-      <c r="X73" s="190"/>
-      <c r="Y73" s="146" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z73" s="147"/>
-    </row>
-    <row r="74" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A74" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74" s="231"/>
-      <c r="C74" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D74" s="234" t="s">
-        <v>143</v>
-      </c>
-      <c r="E74" s="234"/>
-      <c r="F74" s="234"/>
-      <c r="G74" s="235"/>
-      <c r="H74" s="169" t="s">
-        <v>91</v>
-      </c>
-      <c r="I74" s="172"/>
-      <c r="J74" s="172"/>
-      <c r="K74" s="172"/>
-      <c r="L74" s="172"/>
-      <c r="M74" s="172"/>
-      <c r="N74" s="172"/>
-      <c r="O74" s="172"/>
-      <c r="P74" s="172"/>
-      <c r="Q74" s="172"/>
-      <c r="R74" s="173"/>
-      <c r="S74" s="249" t="s">
-        <v>48</v>
-      </c>
-      <c r="T74" s="250"/>
-      <c r="U74" s="250"/>
-      <c r="V74" s="250"/>
-      <c r="W74" s="250"/>
-      <c r="X74" s="251"/>
-      <c r="Y74" s="148"/>
-      <c r="Z74" s="149"/>
+      <c r="Z74" s="101"/>
     </row>
     <row r="75" spans="1:26" ht="14.25" customHeight="1">
       <c r="A75" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="267" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="268" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" s="268"/>
+      <c r="F75" s="268"/>
+      <c r="G75" s="269"/>
+      <c r="H75" s="213" t="s">
+        <v>89</v>
+      </c>
+      <c r="I75" s="214"/>
+      <c r="J75" s="214"/>
+      <c r="K75" s="214"/>
+      <c r="L75" s="214"/>
+      <c r="M75" s="214"/>
+      <c r="N75" s="214"/>
+      <c r="O75" s="214"/>
+      <c r="P75" s="214"/>
+      <c r="Q75" s="214"/>
+      <c r="R75" s="215"/>
+      <c r="S75" s="222" t="s">
+        <v>46</v>
+      </c>
+      <c r="T75" s="223"/>
+      <c r="U75" s="223"/>
+      <c r="V75" s="223"/>
+      <c r="W75" s="223"/>
+      <c r="X75" s="224"/>
+      <c r="Y75" s="180" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z75" s="181"/>
+    </row>
+    <row r="76" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A76" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="267"/>
+      <c r="C76" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" s="270" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" s="270"/>
+      <c r="F76" s="270"/>
+      <c r="G76" s="271"/>
+      <c r="H76" s="203" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" s="206"/>
+      <c r="J76" s="206"/>
+      <c r="K76" s="206"/>
+      <c r="L76" s="206"/>
+      <c r="M76" s="206"/>
+      <c r="N76" s="206"/>
+      <c r="O76" s="206"/>
+      <c r="P76" s="206"/>
+      <c r="Q76" s="206"/>
+      <c r="R76" s="207"/>
+      <c r="S76" s="285" t="s">
+        <v>48</v>
+      </c>
+      <c r="T76" s="286"/>
+      <c r="U76" s="286"/>
+      <c r="V76" s="286"/>
+      <c r="W76" s="286"/>
+      <c r="X76" s="287"/>
+      <c r="Y76" s="182"/>
+      <c r="Z76" s="183"/>
+    </row>
+    <row r="77" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A77" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="231"/>
-      <c r="C75" s="30" t="s">
+      <c r="B77" s="267"/>
+      <c r="C77" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D75" s="236" t="s">
+      <c r="D77" s="272" t="s">
         <v>125</v>
       </c>
-      <c r="E75" s="236"/>
-      <c r="F75" s="236"/>
-      <c r="G75" s="237"/>
-      <c r="H75" s="169"/>
-      <c r="I75" s="172"/>
-      <c r="J75" s="172"/>
-      <c r="K75" s="172"/>
-      <c r="L75" s="172"/>
-      <c r="M75" s="172"/>
-      <c r="N75" s="172"/>
-      <c r="O75" s="172"/>
-      <c r="P75" s="172"/>
-      <c r="Q75" s="172"/>
-      <c r="R75" s="173"/>
-      <c r="S75" s="252"/>
-      <c r="T75" s="253"/>
-      <c r="U75" s="253"/>
-      <c r="V75" s="253"/>
-      <c r="W75" s="253"/>
-      <c r="X75" s="251"/>
-      <c r="Y75" s="148"/>
-      <c r="Z75" s="149"/>
-    </row>
-    <row r="76" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A76" s="47" t="s">
+      <c r="E77" s="272"/>
+      <c r="F77" s="272"/>
+      <c r="G77" s="273"/>
+      <c r="H77" s="203"/>
+      <c r="I77" s="206"/>
+      <c r="J77" s="206"/>
+      <c r="K77" s="206"/>
+      <c r="L77" s="206"/>
+      <c r="M77" s="206"/>
+      <c r="N77" s="206"/>
+      <c r="O77" s="206"/>
+      <c r="P77" s="206"/>
+      <c r="Q77" s="206"/>
+      <c r="R77" s="207"/>
+      <c r="S77" s="288"/>
+      <c r="T77" s="289"/>
+      <c r="U77" s="289"/>
+      <c r="V77" s="289"/>
+      <c r="W77" s="289"/>
+      <c r="X77" s="287"/>
+      <c r="Y77" s="182"/>
+      <c r="Z77" s="183"/>
+    </row>
+    <row r="78" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A78" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B76" s="254" t="s">
+      <c r="B78" s="290" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D76" s="234" t="s">
-        <v>126</v>
-      </c>
-      <c r="E76" s="234"/>
-      <c r="F76" s="234"/>
-      <c r="G76" s="235"/>
-      <c r="H76" s="244"/>
-      <c r="I76" s="244"/>
-      <c r="J76" s="244"/>
-      <c r="K76" s="244"/>
-      <c r="L76" s="244"/>
-      <c r="M76" s="244"/>
-      <c r="N76" s="244"/>
-      <c r="O76" s="244"/>
-      <c r="P76" s="244"/>
-      <c r="Q76" s="244"/>
-      <c r="R76" s="245"/>
-      <c r="S76" s="252"/>
-      <c r="T76" s="253"/>
-      <c r="U76" s="253"/>
-      <c r="V76" s="253"/>
-      <c r="W76" s="253"/>
-      <c r="X76" s="251"/>
-      <c r="Y76" s="148"/>
-      <c r="Z76" s="149"/>
-    </row>
-    <row r="77" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A77" s="47"/>
-      <c r="B77" s="231"/>
-      <c r="C77" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D77" s="234" t="s">
-        <v>142</v>
-      </c>
-      <c r="E77" s="234"/>
-      <c r="F77" s="234"/>
-      <c r="G77" s="235"/>
-      <c r="H77" s="244"/>
-      <c r="I77" s="244"/>
-      <c r="J77" s="244"/>
-      <c r="K77" s="244"/>
-      <c r="L77" s="244"/>
-      <c r="M77" s="244"/>
-      <c r="N77" s="244"/>
-      <c r="O77" s="244"/>
-      <c r="P77" s="244"/>
-      <c r="Q77" s="244"/>
-      <c r="R77" s="245"/>
-      <c r="S77" s="252"/>
-      <c r="T77" s="253"/>
-      <c r="U77" s="253"/>
-      <c r="V77" s="253"/>
-      <c r="W77" s="253"/>
-      <c r="X77" s="251"/>
-      <c r="Y77" s="148"/>
-      <c r="Z77" s="149"/>
-    </row>
-    <row r="78" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A78" s="47"/>
-      <c r="B78" s="231"/>
       <c r="C78" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D78" s="234" t="s">
-        <v>195</v>
-      </c>
-      <c r="E78" s="234"/>
-      <c r="F78" s="234"/>
-      <c r="G78" s="235"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
-      <c r="R78" s="18"/>
-      <c r="S78" s="252"/>
-      <c r="T78" s="253"/>
-      <c r="U78" s="253"/>
-      <c r="V78" s="253"/>
-      <c r="W78" s="253"/>
-      <c r="X78" s="251"/>
-      <c r="Y78" s="148"/>
-      <c r="Z78" s="149"/>
+      <c r="D78" s="270" t="s">
+        <v>126</v>
+      </c>
+      <c r="E78" s="270"/>
+      <c r="F78" s="270"/>
+      <c r="G78" s="271"/>
+      <c r="H78" s="280"/>
+      <c r="I78" s="280"/>
+      <c r="J78" s="280"/>
+      <c r="K78" s="280"/>
+      <c r="L78" s="280"/>
+      <c r="M78" s="280"/>
+      <c r="N78" s="280"/>
+      <c r="O78" s="280"/>
+      <c r="P78" s="280"/>
+      <c r="Q78" s="280"/>
+      <c r="R78" s="281"/>
+      <c r="S78" s="288"/>
+      <c r="T78" s="289"/>
+      <c r="U78" s="289"/>
+      <c r="V78" s="289"/>
+      <c r="W78" s="289"/>
+      <c r="X78" s="287"/>
+      <c r="Y78" s="182"/>
+      <c r="Z78" s="183"/>
     </row>
     <row r="79" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A79" s="47"/>
-      <c r="B79" s="231"/>
-      <c r="C79" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D79" s="234" t="s">
-        <v>196</v>
-      </c>
-      <c r="E79" s="234"/>
-      <c r="F79" s="234"/>
-      <c r="G79" s="235"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="252"/>
-      <c r="T79" s="253"/>
-      <c r="U79" s="253"/>
-      <c r="V79" s="253"/>
-      <c r="W79" s="253"/>
-      <c r="X79" s="251"/>
-      <c r="Y79" s="148"/>
-      <c r="Z79" s="149"/>
+      <c r="A79" s="83"/>
+      <c r="B79" s="267"/>
+      <c r="C79" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D79" s="270" t="s">
+        <v>142</v>
+      </c>
+      <c r="E79" s="270"/>
+      <c r="F79" s="270"/>
+      <c r="G79" s="271"/>
+      <c r="H79" s="280"/>
+      <c r="I79" s="280"/>
+      <c r="J79" s="280"/>
+      <c r="K79" s="280"/>
+      <c r="L79" s="280"/>
+      <c r="M79" s="280"/>
+      <c r="N79" s="280"/>
+      <c r="O79" s="280"/>
+      <c r="P79" s="280"/>
+      <c r="Q79" s="280"/>
+      <c r="R79" s="281"/>
+      <c r="S79" s="288"/>
+      <c r="T79" s="289"/>
+      <c r="U79" s="289"/>
+      <c r="V79" s="289"/>
+      <c r="W79" s="289"/>
+      <c r="X79" s="287"/>
+      <c r="Y79" s="182"/>
+      <c r="Z79" s="183"/>
     </row>
     <row r="80" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A80" s="47"/>
-      <c r="B80" s="231"/>
+      <c r="A80" s="83"/>
+      <c r="B80" s="267"/>
       <c r="C80" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D80" s="234" t="s">
-        <v>197</v>
-      </c>
-      <c r="E80" s="234"/>
-      <c r="F80" s="234"/>
-      <c r="G80" s="235"/>
+      <c r="D80" s="270" t="s">
+        <v>195</v>
+      </c>
+      <c r="E80" s="270"/>
+      <c r="F80" s="270"/>
+      <c r="G80" s="271"/>
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
@@ -7040,27 +7227,27 @@
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="18"/>
-      <c r="S80" s="252"/>
-      <c r="T80" s="253"/>
-      <c r="U80" s="253"/>
-      <c r="V80" s="253"/>
-      <c r="W80" s="253"/>
-      <c r="X80" s="251"/>
-      <c r="Y80" s="148"/>
-      <c r="Z80" s="149"/>
+      <c r="S80" s="288"/>
+      <c r="T80" s="289"/>
+      <c r="U80" s="289"/>
+      <c r="V80" s="289"/>
+      <c r="W80" s="289"/>
+      <c r="X80" s="287"/>
+      <c r="Y80" s="182"/>
+      <c r="Z80" s="183"/>
     </row>
     <row r="81" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A81" s="47"/>
-      <c r="B81" s="231"/>
+      <c r="A81" s="83"/>
+      <c r="B81" s="267"/>
       <c r="C81" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D81" s="234" t="s">
-        <v>198</v>
-      </c>
-      <c r="E81" s="234"/>
-      <c r="F81" s="234"/>
-      <c r="G81" s="235"/>
+      <c r="D81" s="270" t="s">
+        <v>196</v>
+      </c>
+      <c r="E81" s="270"/>
+      <c r="F81" s="270"/>
+      <c r="G81" s="271"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
       <c r="J81" s="17"/>
@@ -7072,27 +7259,27 @@
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="18"/>
-      <c r="S81" s="252"/>
-      <c r="T81" s="253"/>
-      <c r="U81" s="253"/>
-      <c r="V81" s="253"/>
-      <c r="W81" s="253"/>
-      <c r="X81" s="251"/>
-      <c r="Y81" s="148"/>
-      <c r="Z81" s="149"/>
+      <c r="S81" s="288"/>
+      <c r="T81" s="289"/>
+      <c r="U81" s="289"/>
+      <c r="V81" s="289"/>
+      <c r="W81" s="289"/>
+      <c r="X81" s="287"/>
+      <c r="Y81" s="182"/>
+      <c r="Z81" s="183"/>
     </row>
     <row r="82" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A82" s="47"/>
-      <c r="B82" s="231"/>
+      <c r="A82" s="83"/>
+      <c r="B82" s="267"/>
       <c r="C82" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="234" t="s">
-        <v>199</v>
-      </c>
-      <c r="E82" s="234"/>
-      <c r="F82" s="234"/>
-      <c r="G82" s="235"/>
+      <c r="D82" s="270" t="s">
+        <v>197</v>
+      </c>
+      <c r="E82" s="270"/>
+      <c r="F82" s="270"/>
+      <c r="G82" s="271"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
@@ -7104,25 +7291,27 @@
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="18"/>
-      <c r="S82" s="252"/>
-      <c r="T82" s="253"/>
-      <c r="U82" s="253"/>
-      <c r="V82" s="253"/>
-      <c r="W82" s="253"/>
-      <c r="X82" s="251"/>
-      <c r="Y82" s="148"/>
-      <c r="Z82" s="149"/>
+      <c r="S82" s="288"/>
+      <c r="T82" s="289"/>
+      <c r="U82" s="289"/>
+      <c r="V82" s="289"/>
+      <c r="W82" s="289"/>
+      <c r="X82" s="287"/>
+      <c r="Y82" s="182"/>
+      <c r="Z82" s="183"/>
     </row>
     <row r="83" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A83" s="47"/>
-      <c r="B83" s="231"/>
+      <c r="A83" s="83"/>
+      <c r="B83" s="267"/>
       <c r="C83" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D83" s="234"/>
-      <c r="E83" s="234"/>
-      <c r="F83" s="234"/>
-      <c r="G83" s="235"/>
+      <c r="D83" s="270" t="s">
+        <v>198</v>
+      </c>
+      <c r="E83" s="270"/>
+      <c r="F83" s="270"/>
+      <c r="G83" s="271"/>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
@@ -7134,123 +7323,121 @@
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="18"/>
-      <c r="S83" s="252"/>
-      <c r="T83" s="253"/>
-      <c r="U83" s="253"/>
-      <c r="V83" s="253"/>
-      <c r="W83" s="253"/>
-      <c r="X83" s="251"/>
-      <c r="Y83" s="148"/>
-      <c r="Z83" s="149"/>
+      <c r="S83" s="288"/>
+      <c r="T83" s="289"/>
+      <c r="U83" s="289"/>
+      <c r="V83" s="289"/>
+      <c r="W83" s="289"/>
+      <c r="X83" s="287"/>
+      <c r="Y83" s="182"/>
+      <c r="Z83" s="183"/>
     </row>
     <row r="84" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A84" s="47"/>
-      <c r="B84" s="231"/>
-      <c r="C84" s="24" t="s">
+      <c r="A84" s="83"/>
+      <c r="B84" s="267"/>
+      <c r="C84" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" s="270" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84" s="270"/>
+      <c r="F84" s="270"/>
+      <c r="G84" s="271"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="18"/>
+      <c r="S84" s="288"/>
+      <c r="T84" s="289"/>
+      <c r="U84" s="289"/>
+      <c r="V84" s="289"/>
+      <c r="W84" s="289"/>
+      <c r="X84" s="287"/>
+      <c r="Y84" s="182"/>
+      <c r="Z84" s="183"/>
+    </row>
+    <row r="85" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A85" s="83"/>
+      <c r="B85" s="267"/>
+      <c r="C85" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" s="270"/>
+      <c r="E85" s="270"/>
+      <c r="F85" s="270"/>
+      <c r="G85" s="271"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
+      <c r="R85" s="18"/>
+      <c r="S85" s="288"/>
+      <c r="T85" s="289"/>
+      <c r="U85" s="289"/>
+      <c r="V85" s="289"/>
+      <c r="W85" s="289"/>
+      <c r="X85" s="287"/>
+      <c r="Y85" s="182"/>
+      <c r="Z85" s="183"/>
+    </row>
+    <row r="86" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A86" s="83"/>
+      <c r="B86" s="267"/>
+      <c r="C86" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D84" s="234" t="s">
+      <c r="D86" s="270" t="s">
         <v>127</v>
       </c>
-      <c r="E84" s="234"/>
-      <c r="F84" s="234"/>
-      <c r="G84" s="235"/>
-      <c r="H84" s="244"/>
-      <c r="I84" s="244"/>
-      <c r="J84" s="244"/>
-      <c r="K84" s="244"/>
-      <c r="L84" s="244"/>
-      <c r="M84" s="244"/>
-      <c r="N84" s="244"/>
-      <c r="O84" s="244"/>
-      <c r="P84" s="244"/>
-      <c r="Q84" s="244"/>
-      <c r="R84" s="245"/>
-      <c r="S84" s="252"/>
-      <c r="T84" s="253"/>
-      <c r="U84" s="253"/>
-      <c r="V84" s="253"/>
-      <c r="W84" s="253"/>
-      <c r="X84" s="251"/>
-      <c r="Y84" s="148"/>
-      <c r="Z84" s="149"/>
-    </row>
-    <row r="85" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A85" s="47"/>
-      <c r="B85" s="231"/>
-      <c r="C85" s="24" t="s">
+      <c r="E86" s="270"/>
+      <c r="F86" s="270"/>
+      <c r="G86" s="271"/>
+      <c r="H86" s="280"/>
+      <c r="I86" s="280"/>
+      <c r="J86" s="280"/>
+      <c r="K86" s="280"/>
+      <c r="L86" s="280"/>
+      <c r="M86" s="280"/>
+      <c r="N86" s="280"/>
+      <c r="O86" s="280"/>
+      <c r="P86" s="280"/>
+      <c r="Q86" s="280"/>
+      <c r="R86" s="281"/>
+      <c r="S86" s="288"/>
+      <c r="T86" s="289"/>
+      <c r="U86" s="289"/>
+      <c r="V86" s="289"/>
+      <c r="W86" s="289"/>
+      <c r="X86" s="287"/>
+      <c r="Y86" s="182"/>
+      <c r="Z86" s="183"/>
+    </row>
+    <row r="87" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A87" s="83"/>
+      <c r="B87" s="267"/>
+      <c r="C87" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="D85" s="234" t="s">
+      <c r="D87" s="270" t="s">
         <v>201</v>
       </c>
-      <c r="E85" s="234"/>
-      <c r="F85" s="234"/>
-      <c r="G85" s="235"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="11"/>
-      <c r="R85" s="12"/>
-      <c r="S85" s="252"/>
-      <c r="T85" s="253"/>
-      <c r="U85" s="253"/>
-      <c r="V85" s="253"/>
-      <c r="W85" s="253"/>
-      <c r="X85" s="251"/>
-      <c r="Y85" s="148"/>
-      <c r="Z85" s="149"/>
-    </row>
-    <row r="86" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A86" s="47"/>
-      <c r="B86" s="231"/>
-      <c r="C86" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="D86" s="234" t="s">
-        <v>204</v>
-      </c>
-      <c r="E86" s="234"/>
-      <c r="F86" s="234"/>
-      <c r="G86" s="235"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
-      <c r="R86" s="18"/>
-      <c r="S86" s="252"/>
-      <c r="T86" s="253"/>
-      <c r="U86" s="253"/>
-      <c r="V86" s="253"/>
-      <c r="W86" s="253"/>
-      <c r="X86" s="251"/>
-      <c r="Y86" s="148"/>
-      <c r="Z86" s="149"/>
-    </row>
-    <row r="87" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A87" s="48"/>
-      <c r="B87" s="231"/>
-      <c r="C87" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D87" s="236" t="s">
-        <v>128</v>
-      </c>
-      <c r="E87" s="236"/>
-      <c r="F87" s="236"/>
-      <c r="G87" s="237"/>
+      <c r="E87" s="270"/>
+      <c r="F87" s="270"/>
+      <c r="G87" s="271"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
       <c r="J87" s="11"/>
@@ -7262,194 +7449,248 @@
       <c r="P87" s="11"/>
       <c r="Q87" s="11"/>
       <c r="R87" s="12"/>
-      <c r="S87" s="252"/>
-      <c r="T87" s="253"/>
-      <c r="U87" s="253"/>
-      <c r="V87" s="253"/>
-      <c r="W87" s="253"/>
-      <c r="X87" s="251"/>
-      <c r="Y87" s="150"/>
-      <c r="Z87" s="151"/>
+      <c r="S87" s="288"/>
+      <c r="T87" s="289"/>
+      <c r="U87" s="289"/>
+      <c r="V87" s="289"/>
+      <c r="W87" s="289"/>
+      <c r="X87" s="287"/>
+      <c r="Y87" s="182"/>
+      <c r="Z87" s="183"/>
     </row>
     <row r="88" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A88" s="246" t="s">
+      <c r="A88" s="83"/>
+      <c r="B88" s="267"/>
+      <c r="C88" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D88" s="270" t="s">
+        <v>203</v>
+      </c>
+      <c r="E88" s="270"/>
+      <c r="F88" s="270"/>
+      <c r="G88" s="271"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="288"/>
+      <c r="T88" s="289"/>
+      <c r="U88" s="289"/>
+      <c r="V88" s="289"/>
+      <c r="W88" s="289"/>
+      <c r="X88" s="287"/>
+      <c r="Y88" s="182"/>
+      <c r="Z88" s="183"/>
+    </row>
+    <row r="89" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A89" s="84"/>
+      <c r="B89" s="267"/>
+      <c r="C89" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D89" s="272" t="s">
+        <v>128</v>
+      </c>
+      <c r="E89" s="272"/>
+      <c r="F89" s="272"/>
+      <c r="G89" s="273"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="288"/>
+      <c r="T89" s="289"/>
+      <c r="U89" s="289"/>
+      <c r="V89" s="289"/>
+      <c r="W89" s="289"/>
+      <c r="X89" s="287"/>
+      <c r="Y89" s="184"/>
+      <c r="Z89" s="185"/>
+    </row>
+    <row r="90" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A90" s="282" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="247"/>
-      <c r="C88" s="247"/>
-      <c r="D88" s="247"/>
-      <c r="E88" s="247"/>
-      <c r="F88" s="247"/>
-      <c r="G88" s="247"/>
-      <c r="H88" s="247"/>
-      <c r="I88" s="247"/>
-      <c r="J88" s="247"/>
-      <c r="K88" s="247"/>
-      <c r="L88" s="247"/>
-      <c r="M88" s="247"/>
-      <c r="N88" s="247"/>
-      <c r="O88" s="247"/>
-      <c r="P88" s="247"/>
-      <c r="Q88" s="247"/>
-      <c r="R88" s="247"/>
-      <c r="S88" s="247"/>
-      <c r="T88" s="247"/>
-      <c r="U88" s="247"/>
-      <c r="V88" s="247"/>
-      <c r="W88" s="247"/>
-      <c r="X88" s="247"/>
-      <c r="Y88" s="247"/>
-      <c r="Z88" s="248"/>
-    </row>
-    <row r="89" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A89" s="238" t="s">
+      <c r="B90" s="283"/>
+      <c r="C90" s="283"/>
+      <c r="D90" s="283"/>
+      <c r="E90" s="283"/>
+      <c r="F90" s="283"/>
+      <c r="G90" s="283"/>
+      <c r="H90" s="283"/>
+      <c r="I90" s="283"/>
+      <c r="J90" s="283"/>
+      <c r="K90" s="283"/>
+      <c r="L90" s="283"/>
+      <c r="M90" s="283"/>
+      <c r="N90" s="283"/>
+      <c r="O90" s="283"/>
+      <c r="P90" s="283"/>
+      <c r="Q90" s="283"/>
+      <c r="R90" s="283"/>
+      <c r="S90" s="283"/>
+      <c r="T90" s="283"/>
+      <c r="U90" s="283"/>
+      <c r="V90" s="283"/>
+      <c r="W90" s="283"/>
+      <c r="X90" s="283"/>
+      <c r="Y90" s="283"/>
+      <c r="Z90" s="284"/>
+    </row>
+    <row r="91" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A91" s="274" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="239"/>
-      <c r="C89" s="239"/>
-      <c r="D89" s="239"/>
-      <c r="E89" s="239"/>
-      <c r="F89" s="239"/>
-      <c r="G89" s="239"/>
-      <c r="H89" s="239"/>
-      <c r="I89" s="239"/>
-      <c r="J89" s="239"/>
-      <c r="K89" s="239"/>
-      <c r="L89" s="239"/>
-      <c r="M89" s="239"/>
-      <c r="N89" s="239"/>
-      <c r="O89" s="239"/>
-      <c r="P89" s="239"/>
-      <c r="Q89" s="239"/>
-      <c r="R89" s="239"/>
-      <c r="S89" s="239"/>
-      <c r="T89" s="239"/>
-      <c r="U89" s="239"/>
-      <c r="V89" s="239"/>
-      <c r="W89" s="239"/>
-      <c r="X89" s="239"/>
-      <c r="Y89" s="239"/>
-      <c r="Z89" s="240"/>
-    </row>
-    <row r="90" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A90" s="238" t="s">
+      <c r="B91" s="275"/>
+      <c r="C91" s="275"/>
+      <c r="D91" s="275"/>
+      <c r="E91" s="275"/>
+      <c r="F91" s="275"/>
+      <c r="G91" s="275"/>
+      <c r="H91" s="275"/>
+      <c r="I91" s="275"/>
+      <c r="J91" s="275"/>
+      <c r="K91" s="275"/>
+      <c r="L91" s="275"/>
+      <c r="M91" s="275"/>
+      <c r="N91" s="275"/>
+      <c r="O91" s="275"/>
+      <c r="P91" s="275"/>
+      <c r="Q91" s="275"/>
+      <c r="R91" s="275"/>
+      <c r="S91" s="275"/>
+      <c r="T91" s="275"/>
+      <c r="U91" s="275"/>
+      <c r="V91" s="275"/>
+      <c r="W91" s="275"/>
+      <c r="X91" s="275"/>
+      <c r="Y91" s="275"/>
+      <c r="Z91" s="276"/>
+    </row>
+    <row r="92" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A92" s="274" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="239"/>
-      <c r="C90" s="239"/>
-      <c r="D90" s="239"/>
-      <c r="E90" s="239"/>
-      <c r="F90" s="239"/>
-      <c r="G90" s="239"/>
-      <c r="H90" s="239"/>
-      <c r="I90" s="239"/>
-      <c r="J90" s="239"/>
-      <c r="K90" s="239"/>
-      <c r="L90" s="239"/>
-      <c r="M90" s="239"/>
-      <c r="N90" s="239"/>
-      <c r="O90" s="239"/>
-      <c r="P90" s="239"/>
-      <c r="Q90" s="239"/>
-      <c r="R90" s="239"/>
-      <c r="S90" s="239"/>
-      <c r="T90" s="239"/>
-      <c r="U90" s="239"/>
-      <c r="V90" s="239"/>
-      <c r="W90" s="239"/>
-      <c r="X90" s="239"/>
-      <c r="Y90" s="239"/>
-      <c r="Z90" s="240"/>
-    </row>
-    <row r="91" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A91" s="255" t="s">
+      <c r="B92" s="275"/>
+      <c r="C92" s="275"/>
+      <c r="D92" s="275"/>
+      <c r="E92" s="275"/>
+      <c r="F92" s="275"/>
+      <c r="G92" s="275"/>
+      <c r="H92" s="275"/>
+      <c r="I92" s="275"/>
+      <c r="J92" s="275"/>
+      <c r="K92" s="275"/>
+      <c r="L92" s="275"/>
+      <c r="M92" s="275"/>
+      <c r="N92" s="275"/>
+      <c r="O92" s="275"/>
+      <c r="P92" s="275"/>
+      <c r="Q92" s="275"/>
+      <c r="R92" s="275"/>
+      <c r="S92" s="275"/>
+      <c r="T92" s="275"/>
+      <c r="U92" s="275"/>
+      <c r="V92" s="275"/>
+      <c r="W92" s="275"/>
+      <c r="X92" s="275"/>
+      <c r="Y92" s="275"/>
+      <c r="Z92" s="276"/>
+    </row>
+    <row r="93" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A93" s="291" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="256"/>
-      <c r="C91" s="256"/>
-      <c r="D91" s="256"/>
-      <c r="E91" s="256"/>
-      <c r="F91" s="256"/>
-      <c r="G91" s="256"/>
-      <c r="H91" s="256"/>
-      <c r="I91" s="256"/>
-      <c r="J91" s="256"/>
-      <c r="K91" s="256"/>
-      <c r="L91" s="256"/>
-      <c r="M91" s="256"/>
-      <c r="N91" s="256"/>
-      <c r="O91" s="256"/>
-      <c r="P91" s="256"/>
-      <c r="Q91" s="256"/>
-      <c r="R91" s="256"/>
-      <c r="S91" s="256"/>
-      <c r="T91" s="256"/>
-      <c r="U91" s="256"/>
-      <c r="V91" s="256"/>
-      <c r="W91" s="256"/>
-      <c r="X91" s="256"/>
-      <c r="Y91" s="256"/>
-      <c r="Z91" s="257"/>
-    </row>
-    <row r="92" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A92" s="241" t="s">
+      <c r="B93" s="292"/>
+      <c r="C93" s="292"/>
+      <c r="D93" s="292"/>
+      <c r="E93" s="292"/>
+      <c r="F93" s="292"/>
+      <c r="G93" s="292"/>
+      <c r="H93" s="292"/>
+      <c r="I93" s="292"/>
+      <c r="J93" s="292"/>
+      <c r="K93" s="292"/>
+      <c r="L93" s="292"/>
+      <c r="M93" s="292"/>
+      <c r="N93" s="292"/>
+      <c r="O93" s="292"/>
+      <c r="P93" s="292"/>
+      <c r="Q93" s="292"/>
+      <c r="R93" s="292"/>
+      <c r="S93" s="292"/>
+      <c r="T93" s="292"/>
+      <c r="U93" s="292"/>
+      <c r="V93" s="292"/>
+      <c r="W93" s="292"/>
+      <c r="X93" s="292"/>
+      <c r="Y93" s="292"/>
+      <c r="Z93" s="293"/>
+    </row>
+    <row r="94" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A94" s="277" t="s">
         <v>200</v>
       </c>
-      <c r="B92" s="242"/>
-      <c r="C92" s="242"/>
-      <c r="D92" s="242"/>
-      <c r="E92" s="242"/>
-      <c r="F92" s="242"/>
-      <c r="G92" s="242"/>
-      <c r="H92" s="242"/>
-      <c r="I92" s="242"/>
-      <c r="J92" s="242"/>
-      <c r="K92" s="242"/>
-      <c r="L92" s="242"/>
-      <c r="M92" s="242"/>
-      <c r="N92" s="242"/>
-      <c r="O92" s="242"/>
-      <c r="P92" s="242"/>
-      <c r="Q92" s="242"/>
-      <c r="R92" s="242"/>
-      <c r="S92" s="242"/>
-      <c r="T92" s="242"/>
-      <c r="U92" s="242"/>
-      <c r="V92" s="242"/>
-      <c r="W92" s="242"/>
-      <c r="X92" s="242"/>
-      <c r="Y92" s="242"/>
-      <c r="Z92" s="243"/>
+      <c r="B94" s="278"/>
+      <c r="C94" s="278"/>
+      <c r="D94" s="278"/>
+      <c r="E94" s="278"/>
+      <c r="F94" s="278"/>
+      <c r="G94" s="278"/>
+      <c r="H94" s="278"/>
+      <c r="I94" s="278"/>
+      <c r="J94" s="278"/>
+      <c r="K94" s="278"/>
+      <c r="L94" s="278"/>
+      <c r="M94" s="278"/>
+      <c r="N94" s="278"/>
+      <c r="O94" s="278"/>
+      <c r="P94" s="278"/>
+      <c r="Q94" s="278"/>
+      <c r="R94" s="278"/>
+      <c r="S94" s="278"/>
+      <c r="T94" s="278"/>
+      <c r="U94" s="278"/>
+      <c r="V94" s="278"/>
+      <c r="W94" s="278"/>
+      <c r="X94" s="278"/>
+      <c r="Y94" s="278"/>
+      <c r="Z94" s="279"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="327">
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:X30"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="Q15:X15"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:X32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:X33"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="O22:X22"/>
     <mergeCell ref="O18:X21"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:X30"/>
-    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D54:G54"/>
     <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z37"/>
+    <mergeCell ref="Y19:Z39"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="K19:L19"/>
@@ -7457,7 +7698,7 @@
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="O23:X23"/>
-    <mergeCell ref="H48:R48"/>
+    <mergeCell ref="H50:R50"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="K20:L20"/>
@@ -7467,7 +7708,7 @@
     <mergeCell ref="D19:E21"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D50:G50"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
@@ -7476,10 +7717,10 @@
     <mergeCell ref="K13:L14"/>
     <mergeCell ref="M13:N14"/>
     <mergeCell ref="O14:X14"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
     <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C27:C37"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C27:C39"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:N27"/>
@@ -7495,40 +7736,40 @@
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="M31:N31"/>
     <mergeCell ref="O31:X31"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D48:G48"/>
     <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
     <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="Y47:Z53"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="Y40:Z44"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:X37"/>
+    <mergeCell ref="Y49:Z55"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="Y42:Z46"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:X39"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:N25"/>
-    <mergeCell ref="S38:X38"/>
+    <mergeCell ref="S40:X40"/>
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="O28:X28"/>
     <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D39:G39"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="Y9:Z15"/>
     <mergeCell ref="U9:X9"/>
-    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="Y40:Z40"/>
     <mergeCell ref="U10:X10"/>
-    <mergeCell ref="H42:R42"/>
-    <mergeCell ref="H43:R43"/>
     <mergeCell ref="H44:R44"/>
-    <mergeCell ref="H53:R53"/>
-    <mergeCell ref="H39:R39"/>
+    <mergeCell ref="H45:R45"/>
+    <mergeCell ref="H46:R46"/>
+    <mergeCell ref="H55:R55"/>
+    <mergeCell ref="H41:R41"/>
     <mergeCell ref="I9:J10"/>
     <mergeCell ref="K9:L10"/>
     <mergeCell ref="M9:N10"/>
@@ -7536,120 +7777,128 @@
     <mergeCell ref="Q9:R10"/>
     <mergeCell ref="O13:X13"/>
     <mergeCell ref="O27:X27"/>
-    <mergeCell ref="S39:X39"/>
-    <mergeCell ref="H40:R40"/>
-    <mergeCell ref="S40:X44"/>
-    <mergeCell ref="H41:R41"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="S41:X41"/>
+    <mergeCell ref="H42:R42"/>
+    <mergeCell ref="S42:X46"/>
+    <mergeCell ref="H43:R43"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:L39"/>
     <mergeCell ref="M12:N12"/>
+    <mergeCell ref="A92:Z92"/>
+    <mergeCell ref="A94:Z94"/>
+    <mergeCell ref="H86:R86"/>
     <mergeCell ref="A90:Z90"/>
-    <mergeCell ref="A92:Z92"/>
-    <mergeCell ref="H84:R84"/>
-    <mergeCell ref="A88:Z88"/>
-    <mergeCell ref="A89:Z89"/>
+    <mergeCell ref="A91:Z91"/>
+    <mergeCell ref="H76:R76"/>
+    <mergeCell ref="S76:X89"/>
+    <mergeCell ref="H77:R77"/>
+    <mergeCell ref="B78:B89"/>
+    <mergeCell ref="H78:R78"/>
+    <mergeCell ref="H79:R79"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="A93:Z93"/>
+    <mergeCell ref="A78:A89"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="B74:G74"/>
     <mergeCell ref="H74:R74"/>
-    <mergeCell ref="S74:X87"/>
+    <mergeCell ref="S74:X74"/>
+    <mergeCell ref="Y74:Z74"/>
+    <mergeCell ref="B75:B77"/>
     <mergeCell ref="H75:R75"/>
-    <mergeCell ref="B76:B87"/>
-    <mergeCell ref="H76:R76"/>
-    <mergeCell ref="H77:R77"/>
-    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="S75:X75"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D76:G76"/>
     <mergeCell ref="D77:G77"/>
-    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="Y75:Z75"/>
+    <mergeCell ref="Y76:Z89"/>
     <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="A91:Z91"/>
-    <mergeCell ref="A76:A87"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="S63:X68"/>
+    <mergeCell ref="S70:X70"/>
+    <mergeCell ref="H71:R71"/>
+    <mergeCell ref="S71:X73"/>
     <mergeCell ref="H72:R72"/>
-    <mergeCell ref="S72:X72"/>
-    <mergeCell ref="Y72:Z72"/>
-    <mergeCell ref="B73:B75"/>
     <mergeCell ref="H73:R73"/>
-    <mergeCell ref="S73:X73"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="Y73:Z73"/>
-    <mergeCell ref="Y74:Z87"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="Y68:Z68"/>
-    <mergeCell ref="Y69:Z71"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="H67:R67"/>
-    <mergeCell ref="S67:X67"/>
-    <mergeCell ref="Y67:Z67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="Y70:Z70"/>
+    <mergeCell ref="Y71:Z73"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:R69"/>
+    <mergeCell ref="S69:X69"/>
+    <mergeCell ref="Y69:Z69"/>
     <mergeCell ref="C70:G70"/>
     <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H70:R70"/>
+    <mergeCell ref="C57:G58"/>
+    <mergeCell ref="C59:G60"/>
+    <mergeCell ref="Y63:Z68"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:R61"/>
+    <mergeCell ref="S61:X61"/>
+    <mergeCell ref="Y61:Z61"/>
+    <mergeCell ref="H62:R62"/>
+    <mergeCell ref="S62:X62"/>
     <mergeCell ref="H68:R68"/>
+    <mergeCell ref="Y62:Z62"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H63:R63"/>
+    <mergeCell ref="H64:R64"/>
     <mergeCell ref="H65:R65"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H66:R66"/>
+    <mergeCell ref="H67:R67"/>
     <mergeCell ref="C62:G62"/>
     <mergeCell ref="C63:G63"/>
-    <mergeCell ref="S61:X66"/>
-    <mergeCell ref="S68:X68"/>
-    <mergeCell ref="H69:R69"/>
-    <mergeCell ref="S69:X71"/>
-    <mergeCell ref="H70:R70"/>
-    <mergeCell ref="H71:R71"/>
-    <mergeCell ref="S55:X55"/>
-    <mergeCell ref="H56:R56"/>
-    <mergeCell ref="S56:X58"/>
-    <mergeCell ref="H57:R57"/>
-    <mergeCell ref="H58:R58"/>
-    <mergeCell ref="C55:G56"/>
-    <mergeCell ref="C57:G58"/>
-    <mergeCell ref="Y61:Z66"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:R59"/>
-    <mergeCell ref="S59:X59"/>
-    <mergeCell ref="Y59:Z59"/>
-    <mergeCell ref="H60:R60"/>
-    <mergeCell ref="S60:X60"/>
-    <mergeCell ref="H66:R66"/>
-    <mergeCell ref="Y60:Z60"/>
     <mergeCell ref="C64:G64"/>
     <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H61:R61"/>
-    <mergeCell ref="H62:R62"/>
-    <mergeCell ref="H63:R63"/>
-    <mergeCell ref="H64:R64"/>
-    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="H48:R48"/>
+    <mergeCell ref="S48:X48"/>
+    <mergeCell ref="Y56:Z56"/>
+    <mergeCell ref="H57:R57"/>
+    <mergeCell ref="S57:X57"/>
+    <mergeCell ref="H58:R58"/>
+    <mergeCell ref="S58:X60"/>
+    <mergeCell ref="H59:R59"/>
+    <mergeCell ref="H60:R60"/>
+    <mergeCell ref="O25:X25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K8:L8"/>
     <mergeCell ref="B57:B58"/>
-    <mergeCell ref="Y55:Z55"/>
-    <mergeCell ref="Y56:Z58"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="H54:R54"/>
-    <mergeCell ref="S54:X54"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="Y57:Z57"/>
+    <mergeCell ref="Y58:Z60"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:R56"/>
+    <mergeCell ref="S56:X56"/>
+    <mergeCell ref="H49:R49"/>
+    <mergeCell ref="S49:X55"/>
+    <mergeCell ref="H51:R51"/>
+    <mergeCell ref="H52:R52"/>
+    <mergeCell ref="H53:R53"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:G47"/>
     <mergeCell ref="H47:R47"/>
-    <mergeCell ref="S47:X53"/>
-    <mergeCell ref="H49:R49"/>
-    <mergeCell ref="H50:R50"/>
-    <mergeCell ref="H51:R51"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="H45:R45"/>
-    <mergeCell ref="S45:X45"/>
-    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="S47:X47"/>
     <mergeCell ref="D53:G53"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="H46:R46"/>
-    <mergeCell ref="S46:X46"/>
-    <mergeCell ref="Y54:Z54"/>
-    <mergeCell ref="H55:R55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:X7"/>
     <mergeCell ref="O12:X12"/>
     <mergeCell ref="C13:C26"/>
     <mergeCell ref="S8:T10"/>
@@ -7670,10 +7919,11 @@
     <mergeCell ref="C11:G12"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="O17:X17"/>
-    <mergeCell ref="O25:X25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:X26"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="X3:Z5"/>
     <mergeCell ref="E6:K6"/>
@@ -7693,45 +7943,46 @@
     <mergeCell ref="A2:K3"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:X7"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:X36"/>
+    <mergeCell ref="K11:X11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A28:A39"/>
     <mergeCell ref="A7:A26"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B48:B51"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B11:B37"/>
+    <mergeCell ref="B11:B39"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="H11:J12"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:R38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:X26"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:R40"/>
+    <mergeCell ref="T32:X32"/>
+    <mergeCell ref="O35:X35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="T34:X34"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="O35:X35"/>
-    <mergeCell ref="O36:X36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="O37:X37"/>
+    <mergeCell ref="O38:X38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="K16:L16"/>
@@ -7739,16 +7990,21 @@
     <mergeCell ref="O16:X16"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="O29:X29"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:X34"/>
-    <mergeCell ref="K11:X11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="D32:G34"/>
+    <mergeCell ref="H32:J34"/>
+    <mergeCell ref="K32:L34"/>
+    <mergeCell ref="M32:N34"/>
+    <mergeCell ref="O33:S33"/>
+    <mergeCell ref="O34:S34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O32:S32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/lib/excel_templates/process_design_plan_report.xlsx
+++ b/lib/excel_templates/process_design_plan_report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhn15\httpnodered_rubocop_autocorrect_20240129\lib\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhn15\Ruby On Rails\httpnodered_rubocop_autocorrect_20240324\lib\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1716" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1710" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="256">
   <si>
     <t>S-2501 3版</t>
     <rPh sb="8" eb="9">
@@ -2156,6 +2156,14 @@
   </si>
   <si>
     <t>設計部門</t>
+  </si>
+  <si>
+    <t>#{?dr_kanagata_shochi}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#{?dr_kanagata_try_kekka}</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2852,7 +2860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="362">
+  <cellXfs count="365">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2949,21 +2957,960 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2973,909 +3920,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3885,59 +3929,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4221,147 +4238,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73:B76"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22:X22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="12.69921875" customWidth="1"/>
-    <col min="2" max="26" width="3.3984375" customWidth="1"/>
-    <col min="246" max="246" width="12.69921875" customWidth="1"/>
-    <col min="247" max="270" width="3.3984375" customWidth="1"/>
-    <col min="502" max="502" width="12.69921875" customWidth="1"/>
-    <col min="503" max="526" width="3.3984375" customWidth="1"/>
-    <col min="758" max="758" width="12.69921875" customWidth="1"/>
-    <col min="759" max="782" width="3.3984375" customWidth="1"/>
-    <col min="1014" max="1014" width="12.69921875" customWidth="1"/>
-    <col min="1015" max="1038" width="3.3984375" customWidth="1"/>
-    <col min="1270" max="1270" width="12.69921875" customWidth="1"/>
-    <col min="1271" max="1294" width="3.3984375" customWidth="1"/>
-    <col min="1526" max="1526" width="12.69921875" customWidth="1"/>
-    <col min="1527" max="1550" width="3.3984375" customWidth="1"/>
-    <col min="1782" max="1782" width="12.69921875" customWidth="1"/>
-    <col min="1783" max="1806" width="3.3984375" customWidth="1"/>
-    <col min="2038" max="2038" width="12.69921875" customWidth="1"/>
-    <col min="2039" max="2062" width="3.3984375" customWidth="1"/>
-    <col min="2294" max="2294" width="12.69921875" customWidth="1"/>
-    <col min="2295" max="2318" width="3.3984375" customWidth="1"/>
-    <col min="2550" max="2550" width="12.69921875" customWidth="1"/>
-    <col min="2551" max="2574" width="3.3984375" customWidth="1"/>
-    <col min="2806" max="2806" width="12.69921875" customWidth="1"/>
-    <col min="2807" max="2830" width="3.3984375" customWidth="1"/>
-    <col min="3062" max="3062" width="12.69921875" customWidth="1"/>
-    <col min="3063" max="3086" width="3.3984375" customWidth="1"/>
-    <col min="3318" max="3318" width="12.69921875" customWidth="1"/>
-    <col min="3319" max="3342" width="3.3984375" customWidth="1"/>
-    <col min="3574" max="3574" width="12.69921875" customWidth="1"/>
-    <col min="3575" max="3598" width="3.3984375" customWidth="1"/>
-    <col min="3830" max="3830" width="12.69921875" customWidth="1"/>
-    <col min="3831" max="3854" width="3.3984375" customWidth="1"/>
-    <col min="4086" max="4086" width="12.69921875" customWidth="1"/>
-    <col min="4087" max="4110" width="3.3984375" customWidth="1"/>
-    <col min="4342" max="4342" width="12.69921875" customWidth="1"/>
-    <col min="4343" max="4366" width="3.3984375" customWidth="1"/>
-    <col min="4598" max="4598" width="12.69921875" customWidth="1"/>
-    <col min="4599" max="4622" width="3.3984375" customWidth="1"/>
-    <col min="4854" max="4854" width="12.69921875" customWidth="1"/>
-    <col min="4855" max="4878" width="3.3984375" customWidth="1"/>
-    <col min="5110" max="5110" width="12.69921875" customWidth="1"/>
-    <col min="5111" max="5134" width="3.3984375" customWidth="1"/>
-    <col min="5366" max="5366" width="12.69921875" customWidth="1"/>
-    <col min="5367" max="5390" width="3.3984375" customWidth="1"/>
-    <col min="5622" max="5622" width="12.69921875" customWidth="1"/>
-    <col min="5623" max="5646" width="3.3984375" customWidth="1"/>
-    <col min="5878" max="5878" width="12.69921875" customWidth="1"/>
-    <col min="5879" max="5902" width="3.3984375" customWidth="1"/>
-    <col min="6134" max="6134" width="12.69921875" customWidth="1"/>
-    <col min="6135" max="6158" width="3.3984375" customWidth="1"/>
-    <col min="6390" max="6390" width="12.69921875" customWidth="1"/>
-    <col min="6391" max="6414" width="3.3984375" customWidth="1"/>
-    <col min="6646" max="6646" width="12.69921875" customWidth="1"/>
-    <col min="6647" max="6670" width="3.3984375" customWidth="1"/>
-    <col min="6902" max="6902" width="12.69921875" customWidth="1"/>
-    <col min="6903" max="6926" width="3.3984375" customWidth="1"/>
-    <col min="7158" max="7158" width="12.69921875" customWidth="1"/>
-    <col min="7159" max="7182" width="3.3984375" customWidth="1"/>
-    <col min="7414" max="7414" width="12.69921875" customWidth="1"/>
-    <col min="7415" max="7438" width="3.3984375" customWidth="1"/>
-    <col min="7670" max="7670" width="12.69921875" customWidth="1"/>
-    <col min="7671" max="7694" width="3.3984375" customWidth="1"/>
-    <col min="7926" max="7926" width="12.69921875" customWidth="1"/>
-    <col min="7927" max="7950" width="3.3984375" customWidth="1"/>
-    <col min="8182" max="8182" width="12.69921875" customWidth="1"/>
-    <col min="8183" max="8206" width="3.3984375" customWidth="1"/>
-    <col min="8438" max="8438" width="12.69921875" customWidth="1"/>
-    <col min="8439" max="8462" width="3.3984375" customWidth="1"/>
-    <col min="8694" max="8694" width="12.69921875" customWidth="1"/>
-    <col min="8695" max="8718" width="3.3984375" customWidth="1"/>
-    <col min="8950" max="8950" width="12.69921875" customWidth="1"/>
-    <col min="8951" max="8974" width="3.3984375" customWidth="1"/>
-    <col min="9206" max="9206" width="12.69921875" customWidth="1"/>
-    <col min="9207" max="9230" width="3.3984375" customWidth="1"/>
-    <col min="9462" max="9462" width="12.69921875" customWidth="1"/>
-    <col min="9463" max="9486" width="3.3984375" customWidth="1"/>
-    <col min="9718" max="9718" width="12.69921875" customWidth="1"/>
-    <col min="9719" max="9742" width="3.3984375" customWidth="1"/>
-    <col min="9974" max="9974" width="12.69921875" customWidth="1"/>
-    <col min="9975" max="9998" width="3.3984375" customWidth="1"/>
-    <col min="10230" max="10230" width="12.69921875" customWidth="1"/>
-    <col min="10231" max="10254" width="3.3984375" customWidth="1"/>
-    <col min="10486" max="10486" width="12.69921875" customWidth="1"/>
-    <col min="10487" max="10510" width="3.3984375" customWidth="1"/>
-    <col min="10742" max="10742" width="12.69921875" customWidth="1"/>
-    <col min="10743" max="10766" width="3.3984375" customWidth="1"/>
-    <col min="10998" max="10998" width="12.69921875" customWidth="1"/>
-    <col min="10999" max="11022" width="3.3984375" customWidth="1"/>
-    <col min="11254" max="11254" width="12.69921875" customWidth="1"/>
-    <col min="11255" max="11278" width="3.3984375" customWidth="1"/>
-    <col min="11510" max="11510" width="12.69921875" customWidth="1"/>
-    <col min="11511" max="11534" width="3.3984375" customWidth="1"/>
-    <col min="11766" max="11766" width="12.69921875" customWidth="1"/>
-    <col min="11767" max="11790" width="3.3984375" customWidth="1"/>
-    <col min="12022" max="12022" width="12.69921875" customWidth="1"/>
-    <col min="12023" max="12046" width="3.3984375" customWidth="1"/>
-    <col min="12278" max="12278" width="12.69921875" customWidth="1"/>
-    <col min="12279" max="12302" width="3.3984375" customWidth="1"/>
-    <col min="12534" max="12534" width="12.69921875" customWidth="1"/>
-    <col min="12535" max="12558" width="3.3984375" customWidth="1"/>
-    <col min="12790" max="12790" width="12.69921875" customWidth="1"/>
-    <col min="12791" max="12814" width="3.3984375" customWidth="1"/>
-    <col min="13046" max="13046" width="12.69921875" customWidth="1"/>
-    <col min="13047" max="13070" width="3.3984375" customWidth="1"/>
-    <col min="13302" max="13302" width="12.69921875" customWidth="1"/>
-    <col min="13303" max="13326" width="3.3984375" customWidth="1"/>
-    <col min="13558" max="13558" width="12.69921875" customWidth="1"/>
-    <col min="13559" max="13582" width="3.3984375" customWidth="1"/>
-    <col min="13814" max="13814" width="12.69921875" customWidth="1"/>
-    <col min="13815" max="13838" width="3.3984375" customWidth="1"/>
-    <col min="14070" max="14070" width="12.69921875" customWidth="1"/>
-    <col min="14071" max="14094" width="3.3984375" customWidth="1"/>
-    <col min="14326" max="14326" width="12.69921875" customWidth="1"/>
-    <col min="14327" max="14350" width="3.3984375" customWidth="1"/>
-    <col min="14582" max="14582" width="12.69921875" customWidth="1"/>
-    <col min="14583" max="14606" width="3.3984375" customWidth="1"/>
-    <col min="14838" max="14838" width="12.69921875" customWidth="1"/>
-    <col min="14839" max="14862" width="3.3984375" customWidth="1"/>
-    <col min="15094" max="15094" width="12.69921875" customWidth="1"/>
-    <col min="15095" max="15118" width="3.3984375" customWidth="1"/>
-    <col min="15350" max="15350" width="12.69921875" customWidth="1"/>
-    <col min="15351" max="15374" width="3.3984375" customWidth="1"/>
-    <col min="15606" max="15606" width="12.69921875" customWidth="1"/>
-    <col min="15607" max="15630" width="3.3984375" customWidth="1"/>
-    <col min="15862" max="15862" width="12.69921875" customWidth="1"/>
-    <col min="15863" max="15886" width="3.3984375" customWidth="1"/>
-    <col min="16118" max="16118" width="12.69921875" customWidth="1"/>
-    <col min="16119" max="16142" width="3.3984375" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="26" width="3.375" customWidth="1"/>
+    <col min="246" max="246" width="12.75" customWidth="1"/>
+    <col min="247" max="270" width="3.375" customWidth="1"/>
+    <col min="502" max="502" width="12.75" customWidth="1"/>
+    <col min="503" max="526" width="3.375" customWidth="1"/>
+    <col min="758" max="758" width="12.75" customWidth="1"/>
+    <col min="759" max="782" width="3.375" customWidth="1"/>
+    <col min="1014" max="1014" width="12.75" customWidth="1"/>
+    <col min="1015" max="1038" width="3.375" customWidth="1"/>
+    <col min="1270" max="1270" width="12.75" customWidth="1"/>
+    <col min="1271" max="1294" width="3.375" customWidth="1"/>
+    <col min="1526" max="1526" width="12.75" customWidth="1"/>
+    <col min="1527" max="1550" width="3.375" customWidth="1"/>
+    <col min="1782" max="1782" width="12.75" customWidth="1"/>
+    <col min="1783" max="1806" width="3.375" customWidth="1"/>
+    <col min="2038" max="2038" width="12.75" customWidth="1"/>
+    <col min="2039" max="2062" width="3.375" customWidth="1"/>
+    <col min="2294" max="2294" width="12.75" customWidth="1"/>
+    <col min="2295" max="2318" width="3.375" customWidth="1"/>
+    <col min="2550" max="2550" width="12.75" customWidth="1"/>
+    <col min="2551" max="2574" width="3.375" customWidth="1"/>
+    <col min="2806" max="2806" width="12.75" customWidth="1"/>
+    <col min="2807" max="2830" width="3.375" customWidth="1"/>
+    <col min="3062" max="3062" width="12.75" customWidth="1"/>
+    <col min="3063" max="3086" width="3.375" customWidth="1"/>
+    <col min="3318" max="3318" width="12.75" customWidth="1"/>
+    <col min="3319" max="3342" width="3.375" customWidth="1"/>
+    <col min="3574" max="3574" width="12.75" customWidth="1"/>
+    <col min="3575" max="3598" width="3.375" customWidth="1"/>
+    <col min="3830" max="3830" width="12.75" customWidth="1"/>
+    <col min="3831" max="3854" width="3.375" customWidth="1"/>
+    <col min="4086" max="4086" width="12.75" customWidth="1"/>
+    <col min="4087" max="4110" width="3.375" customWidth="1"/>
+    <col min="4342" max="4342" width="12.75" customWidth="1"/>
+    <col min="4343" max="4366" width="3.375" customWidth="1"/>
+    <col min="4598" max="4598" width="12.75" customWidth="1"/>
+    <col min="4599" max="4622" width="3.375" customWidth="1"/>
+    <col min="4854" max="4854" width="12.75" customWidth="1"/>
+    <col min="4855" max="4878" width="3.375" customWidth="1"/>
+    <col min="5110" max="5110" width="12.75" customWidth="1"/>
+    <col min="5111" max="5134" width="3.375" customWidth="1"/>
+    <col min="5366" max="5366" width="12.75" customWidth="1"/>
+    <col min="5367" max="5390" width="3.375" customWidth="1"/>
+    <col min="5622" max="5622" width="12.75" customWidth="1"/>
+    <col min="5623" max="5646" width="3.375" customWidth="1"/>
+    <col min="5878" max="5878" width="12.75" customWidth="1"/>
+    <col min="5879" max="5902" width="3.375" customWidth="1"/>
+    <col min="6134" max="6134" width="12.75" customWidth="1"/>
+    <col min="6135" max="6158" width="3.375" customWidth="1"/>
+    <col min="6390" max="6390" width="12.75" customWidth="1"/>
+    <col min="6391" max="6414" width="3.375" customWidth="1"/>
+    <col min="6646" max="6646" width="12.75" customWidth="1"/>
+    <col min="6647" max="6670" width="3.375" customWidth="1"/>
+    <col min="6902" max="6902" width="12.75" customWidth="1"/>
+    <col min="6903" max="6926" width="3.375" customWidth="1"/>
+    <col min="7158" max="7158" width="12.75" customWidth="1"/>
+    <col min="7159" max="7182" width="3.375" customWidth="1"/>
+    <col min="7414" max="7414" width="12.75" customWidth="1"/>
+    <col min="7415" max="7438" width="3.375" customWidth="1"/>
+    <col min="7670" max="7670" width="12.75" customWidth="1"/>
+    <col min="7671" max="7694" width="3.375" customWidth="1"/>
+    <col min="7926" max="7926" width="12.75" customWidth="1"/>
+    <col min="7927" max="7950" width="3.375" customWidth="1"/>
+    <col min="8182" max="8182" width="12.75" customWidth="1"/>
+    <col min="8183" max="8206" width="3.375" customWidth="1"/>
+    <col min="8438" max="8438" width="12.75" customWidth="1"/>
+    <col min="8439" max="8462" width="3.375" customWidth="1"/>
+    <col min="8694" max="8694" width="12.75" customWidth="1"/>
+    <col min="8695" max="8718" width="3.375" customWidth="1"/>
+    <col min="8950" max="8950" width="12.75" customWidth="1"/>
+    <col min="8951" max="8974" width="3.375" customWidth="1"/>
+    <col min="9206" max="9206" width="12.75" customWidth="1"/>
+    <col min="9207" max="9230" width="3.375" customWidth="1"/>
+    <col min="9462" max="9462" width="12.75" customWidth="1"/>
+    <col min="9463" max="9486" width="3.375" customWidth="1"/>
+    <col min="9718" max="9718" width="12.75" customWidth="1"/>
+    <col min="9719" max="9742" width="3.375" customWidth="1"/>
+    <col min="9974" max="9974" width="12.75" customWidth="1"/>
+    <col min="9975" max="9998" width="3.375" customWidth="1"/>
+    <col min="10230" max="10230" width="12.75" customWidth="1"/>
+    <col min="10231" max="10254" width="3.375" customWidth="1"/>
+    <col min="10486" max="10486" width="12.75" customWidth="1"/>
+    <col min="10487" max="10510" width="3.375" customWidth="1"/>
+    <col min="10742" max="10742" width="12.75" customWidth="1"/>
+    <col min="10743" max="10766" width="3.375" customWidth="1"/>
+    <col min="10998" max="10998" width="12.75" customWidth="1"/>
+    <col min="10999" max="11022" width="3.375" customWidth="1"/>
+    <col min="11254" max="11254" width="12.75" customWidth="1"/>
+    <col min="11255" max="11278" width="3.375" customWidth="1"/>
+    <col min="11510" max="11510" width="12.75" customWidth="1"/>
+    <col min="11511" max="11534" width="3.375" customWidth="1"/>
+    <col min="11766" max="11766" width="12.75" customWidth="1"/>
+    <col min="11767" max="11790" width="3.375" customWidth="1"/>
+    <col min="12022" max="12022" width="12.75" customWidth="1"/>
+    <col min="12023" max="12046" width="3.375" customWidth="1"/>
+    <col min="12278" max="12278" width="12.75" customWidth="1"/>
+    <col min="12279" max="12302" width="3.375" customWidth="1"/>
+    <col min="12534" max="12534" width="12.75" customWidth="1"/>
+    <col min="12535" max="12558" width="3.375" customWidth="1"/>
+    <col min="12790" max="12790" width="12.75" customWidth="1"/>
+    <col min="12791" max="12814" width="3.375" customWidth="1"/>
+    <col min="13046" max="13046" width="12.75" customWidth="1"/>
+    <col min="13047" max="13070" width="3.375" customWidth="1"/>
+    <col min="13302" max="13302" width="12.75" customWidth="1"/>
+    <col min="13303" max="13326" width="3.375" customWidth="1"/>
+    <col min="13558" max="13558" width="12.75" customWidth="1"/>
+    <col min="13559" max="13582" width="3.375" customWidth="1"/>
+    <col min="13814" max="13814" width="12.75" customWidth="1"/>
+    <col min="13815" max="13838" width="3.375" customWidth="1"/>
+    <col min="14070" max="14070" width="12.75" customWidth="1"/>
+    <col min="14071" max="14094" width="3.375" customWidth="1"/>
+    <col min="14326" max="14326" width="12.75" customWidth="1"/>
+    <col min="14327" max="14350" width="3.375" customWidth="1"/>
+    <col min="14582" max="14582" width="12.75" customWidth="1"/>
+    <col min="14583" max="14606" width="3.375" customWidth="1"/>
+    <col min="14838" max="14838" width="12.75" customWidth="1"/>
+    <col min="14839" max="14862" width="3.375" customWidth="1"/>
+    <col min="15094" max="15094" width="12.75" customWidth="1"/>
+    <col min="15095" max="15118" width="3.375" customWidth="1"/>
+    <col min="15350" max="15350" width="12.75" customWidth="1"/>
+    <col min="15351" max="15374" width="3.375" customWidth="1"/>
+    <col min="15606" max="15606" width="12.75" customWidth="1"/>
+    <col min="15607" max="15630" width="3.375" customWidth="1"/>
+    <col min="15862" max="15862" width="12.75" customWidth="1"/>
+    <col min="15863" max="15886" width="3.375" customWidth="1"/>
+    <col min="16118" max="16118" width="12.75" customWidth="1"/>
+    <col min="16119" max="16142" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="257"/>
+      <c r="B1" s="73"/>
       <c r="C1" s="1"/>
       <c r="D1" s="13"/>
       <c r="E1" s="1"/>
@@ -4388,74 +4405,74 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="266"/>
-      <c r="K2" s="266"/>
-      <c r="L2" s="66" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="67"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="90"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="267"/>
-      <c r="B3" s="268"/>
-      <c r="C3" s="268"/>
-      <c r="D3" s="268"/>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="268"/>
-      <c r="H3" s="268"/>
-      <c r="I3" s="268"/>
-      <c r="J3" s="268"/>
-      <c r="K3" s="268"/>
-      <c r="L3" s="281" t="s">
+      <c r="A3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="M3" s="282"/>
-      <c r="N3" s="283"/>
-      <c r="O3" s="281" t="s">
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="P3" s="282"/>
-      <c r="Q3" s="283"/>
-      <c r="R3" s="281" t="s">
+      <c r="P3" s="35"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="S3" s="282"/>
-      <c r="T3" s="283"/>
-      <c r="U3" s="281" t="s">
+      <c r="S3" s="35"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="V3" s="282"/>
-      <c r="W3" s="283"/>
-      <c r="X3" s="281" t="s">
+      <c r="V3" s="35"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="Y3" s="282"/>
-      <c r="Z3" s="283"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="36"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="15" t="s">
@@ -4464,1943 +4481,1947 @@
       <c r="B4" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="263" t="s">
+      <c r="C4" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="263"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="263" t="s">
+      <c r="F4" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="263"/>
-      <c r="H4" s="263"/>
-      <c r="I4" s="263"/>
-      <c r="J4" s="263"/>
-      <c r="K4" s="269"/>
-      <c r="L4" s="284"/>
-      <c r="M4" s="285"/>
-      <c r="N4" s="286"/>
-      <c r="O4" s="284"/>
-      <c r="P4" s="285"/>
-      <c r="Q4" s="286"/>
-      <c r="R4" s="284"/>
-      <c r="S4" s="285"/>
-      <c r="T4" s="286"/>
-      <c r="U4" s="284"/>
-      <c r="V4" s="285"/>
-      <c r="W4" s="286"/>
-      <c r="X4" s="284"/>
-      <c r="Y4" s="285"/>
-      <c r="Z4" s="286"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="39"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A5" s="270" t="s">
+      <c r="A5" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="271"/>
-      <c r="C5" s="271"/>
-      <c r="D5" s="271"/>
-      <c r="E5" s="271"/>
-      <c r="F5" s="271"/>
-      <c r="G5" s="271"/>
-      <c r="H5" s="271"/>
-      <c r="I5" s="271"/>
-      <c r="J5" s="271"/>
-      <c r="K5" s="272"/>
-      <c r="L5" s="287"/>
-      <c r="M5" s="288"/>
-      <c r="N5" s="289"/>
-      <c r="O5" s="287"/>
-      <c r="P5" s="288"/>
-      <c r="Q5" s="289"/>
-      <c r="R5" s="287"/>
-      <c r="S5" s="288"/>
-      <c r="T5" s="289"/>
-      <c r="U5" s="287"/>
-      <c r="V5" s="288"/>
-      <c r="W5" s="289"/>
-      <c r="X5" s="287"/>
-      <c r="Y5" s="288"/>
-      <c r="Z5" s="289"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="42"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="262"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="290" t="s">
+      <c r="C6" s="83"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="291"/>
-      <c r="G6" s="291"/>
-      <c r="H6" s="291"/>
-      <c r="I6" s="291"/>
-      <c r="J6" s="291"/>
-      <c r="K6" s="292"/>
-      <c r="L6" s="258" t="s">
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="M6" s="259"/>
-      <c r="N6" s="290" t="s">
+      <c r="M6" s="78"/>
+      <c r="N6" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="O6" s="291"/>
-      <c r="P6" s="293"/>
-      <c r="Q6" s="293"/>
-      <c r="R6" s="294"/>
-      <c r="S6" s="260" t="s">
+      <c r="O6" s="75"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="T6" s="261"/>
-      <c r="U6" s="290" t="s">
+      <c r="T6" s="82"/>
+      <c r="U6" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="V6" s="291"/>
-      <c r="W6" s="291"/>
-      <c r="X6" s="291"/>
-      <c r="Y6" s="291"/>
-      <c r="Z6" s="292"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="76"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="172" t="s">
+      <c r="A7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="274"/>
-      <c r="F7" s="275"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="275"/>
-      <c r="I7" s="275"/>
-      <c r="J7" s="140" t="s">
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="142"/>
-      <c r="L7" s="295" t="s">
+      <c r="K7" s="86"/>
+      <c r="L7" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="M7" s="296"/>
-      <c r="N7" s="296"/>
-      <c r="O7" s="296"/>
-      <c r="P7" s="296"/>
-      <c r="Q7" s="65" t="s">
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="67"/>
-      <c r="S7" s="295" t="s">
+      <c r="R7" s="90"/>
+      <c r="S7" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="T7" s="296"/>
-      <c r="U7" s="296"/>
-      <c r="V7" s="296"/>
-      <c r="W7" s="296"/>
-      <c r="X7" s="296"/>
-      <c r="Y7" s="89" t="s">
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="Z7" s="264"/>
+      <c r="Z7" s="89"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="273"/>
-      <c r="B8" s="95" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="244"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="71" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="71" t="s">
+      <c r="F8" s="56"/>
+      <c r="G8" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="72"/>
-      <c r="I8" s="71" t="s">
+      <c r="H8" s="56"/>
+      <c r="I8" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="72"/>
-      <c r="K8" s="71" t="s">
+      <c r="J8" s="56"/>
+      <c r="K8" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="72"/>
-      <c r="M8" s="71" t="s">
+      <c r="L8" s="56"/>
+      <c r="M8" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="N8" s="72"/>
-      <c r="O8" s="71" t="s">
+      <c r="N8" s="56"/>
+      <c r="O8" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="71" t="s">
+      <c r="P8" s="56"/>
+      <c r="Q8" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="R8" s="72"/>
-      <c r="S8" s="95" t="s">
+      <c r="R8" s="56"/>
+      <c r="S8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="T8" s="96"/>
-      <c r="U8" s="101" t="s">
+      <c r="T8" s="103"/>
+      <c r="U8" s="276" t="s">
         <v>11</v>
       </c>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="297" t="s">
+      <c r="V8" s="277"/>
+      <c r="W8" s="277"/>
+      <c r="X8" s="278"/>
+      <c r="Y8" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="Z8" s="298"/>
+      <c r="Z8" s="180"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="273"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="245"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="82" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="266" t="s">
         <v>119</v>
       </c>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="79"/>
+      <c r="V9" s="299"/>
+      <c r="W9" s="299"/>
+      <c r="X9" s="300"/>
+      <c r="Y9" s="295"/>
+      <c r="Z9" s="296"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="273"/>
-      <c r="B10" s="246"/>
-      <c r="C10" s="247"/>
-      <c r="D10" s="248"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="108" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="113"/>
+      <c r="S10" s="274"/>
+      <c r="T10" s="275"/>
+      <c r="U10" s="288" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="109"/>
-      <c r="W10" s="109"/>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="79"/>
+      <c r="V10" s="289"/>
+      <c r="W10" s="289"/>
+      <c r="X10" s="290"/>
+      <c r="Y10" s="295"/>
+      <c r="Z10" s="296"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="273"/>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="336" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="202" t="s">
+      <c r="C11" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="202"/>
-      <c r="E11" s="240"/>
-      <c r="F11" s="240"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="276" t="s">
+      <c r="D11" s="164"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="277"/>
-      <c r="J11" s="277"/>
-      <c r="K11" s="104" t="s">
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="279" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="104"/>
-      <c r="U11" s="104"/>
-      <c r="V11" s="104"/>
-      <c r="W11" s="104"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="79"/>
+      <c r="L11" s="279"/>
+      <c r="M11" s="279"/>
+      <c r="N11" s="279"/>
+      <c r="O11" s="279"/>
+      <c r="P11" s="279"/>
+      <c r="Q11" s="279"/>
+      <c r="R11" s="279"/>
+      <c r="S11" s="279"/>
+      <c r="T11" s="279"/>
+      <c r="U11" s="279"/>
+      <c r="V11" s="279"/>
+      <c r="W11" s="279"/>
+      <c r="X11" s="279"/>
+      <c r="Y11" s="295"/>
+      <c r="Z11" s="296"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="273"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="240"/>
-      <c r="E12" s="240"/>
-      <c r="F12" s="240"/>
-      <c r="G12" s="240"/>
-      <c r="H12" s="278"/>
-      <c r="I12" s="278"/>
-      <c r="J12" s="278"/>
-      <c r="K12" s="93" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="337"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="272" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="94"/>
-      <c r="M12" s="93" t="s">
+      <c r="L12" s="273"/>
+      <c r="M12" s="272" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="94"/>
-      <c r="O12" s="105" t="s">
+      <c r="N12" s="273"/>
+      <c r="O12" s="285" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="79"/>
+      <c r="P12" s="286"/>
+      <c r="Q12" s="286"/>
+      <c r="R12" s="286"/>
+      <c r="S12" s="286"/>
+      <c r="T12" s="286"/>
+      <c r="U12" s="286"/>
+      <c r="V12" s="286"/>
+      <c r="W12" s="286"/>
+      <c r="X12" s="287"/>
+      <c r="Y12" s="295"/>
+      <c r="Z12" s="296"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="273"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="224" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="337"/>
+      <c r="C13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="249" t="s">
+      <c r="D13" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="250"/>
-      <c r="F13" s="250"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="299" t="s">
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="I13" s="300"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="302" t="s">
+      <c r="I13" s="121"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="167"/>
-      <c r="M13" s="302" t="s">
+      <c r="L13" s="127"/>
+      <c r="M13" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="N13" s="167"/>
-      <c r="O13" s="303" t="s">
+      <c r="N13" s="127"/>
+      <c r="O13" s="136" t="s">
         <v>181</v>
       </c>
-      <c r="P13" s="304"/>
-      <c r="Q13" s="304"/>
-      <c r="R13" s="304"/>
-      <c r="S13" s="304"/>
-      <c r="T13" s="304"/>
-      <c r="U13" s="304"/>
-      <c r="V13" s="304"/>
-      <c r="W13" s="304"/>
-      <c r="X13" s="304"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="79"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="137"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="137"/>
+      <c r="U13" s="137"/>
+      <c r="V13" s="137"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="295"/>
+      <c r="Z13" s="296"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="273"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="225"/>
-      <c r="D14" s="252"/>
-      <c r="E14" s="253"/>
-      <c r="F14" s="253"/>
-      <c r="G14" s="254"/>
-      <c r="H14" s="305"/>
-      <c r="I14" s="306"/>
-      <c r="J14" s="307"/>
-      <c r="K14" s="308"/>
-      <c r="L14" s="309"/>
-      <c r="M14" s="308"/>
-      <c r="N14" s="309"/>
-      <c r="O14" s="303" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="337"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="136" t="s">
         <v>182</v>
       </c>
-      <c r="P14" s="304"/>
-      <c r="Q14" s="304"/>
-      <c r="R14" s="304"/>
-      <c r="S14" s="304"/>
-      <c r="T14" s="304"/>
-      <c r="U14" s="304"/>
-      <c r="V14" s="304"/>
-      <c r="W14" s="304"/>
-      <c r="X14" s="304"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="79"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="295"/>
+      <c r="Z14" s="296"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="273"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="225"/>
-      <c r="D15" s="35" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="337"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="310" t="s">
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="I15" s="310"/>
-      <c r="J15" s="310"/>
-      <c r="K15" s="73" t="s">
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="L15" s="311"/>
-      <c r="M15" s="73" t="s">
+      <c r="L15" s="133"/>
+      <c r="M15" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="N15" s="311"/>
-      <c r="O15" s="69" t="s">
+      <c r="N15" s="133"/>
+      <c r="O15" s="280" t="s">
         <v>185</v>
       </c>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="312" t="s">
+      <c r="P15" s="282"/>
+      <c r="Q15" s="304" t="s">
         <v>184</v>
       </c>
-      <c r="R15" s="313"/>
-      <c r="S15" s="313"/>
-      <c r="T15" s="313"/>
-      <c r="U15" s="313"/>
-      <c r="V15" s="313"/>
-      <c r="W15" s="313"/>
-      <c r="X15" s="314"/>
-      <c r="Y15" s="80"/>
-      <c r="Z15" s="81"/>
+      <c r="R15" s="302"/>
+      <c r="S15" s="302"/>
+      <c r="T15" s="302"/>
+      <c r="U15" s="302"/>
+      <c r="V15" s="302"/>
+      <c r="W15" s="302"/>
+      <c r="X15" s="303"/>
+      <c r="Y15" s="297"/>
+      <c r="Z15" s="298"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="273"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="225"/>
-      <c r="D16" s="35" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="337"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36" t="s">
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="311"/>
-      <c r="M16" s="73" t="s">
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="132" t="s">
         <v>248</v>
       </c>
-      <c r="N16" s="311"/>
-      <c r="O16" s="315" t="s">
+      <c r="N16" s="133"/>
+      <c r="O16" s="318" t="s">
         <v>249</v>
       </c>
-      <c r="P16" s="316"/>
-      <c r="Q16" s="316"/>
-      <c r="R16" s="316"/>
-      <c r="S16" s="316"/>
-      <c r="T16" s="316"/>
-      <c r="U16" s="316"/>
-      <c r="V16" s="316"/>
-      <c r="W16" s="316"/>
-      <c r="X16" s="316"/>
-      <c r="Y16" s="89" t="s">
+      <c r="P16" s="319"/>
+      <c r="Q16" s="319"/>
+      <c r="R16" s="319"/>
+      <c r="S16" s="319"/>
+      <c r="T16" s="319"/>
+      <c r="U16" s="319"/>
+      <c r="V16" s="319"/>
+      <c r="W16" s="319"/>
+      <c r="X16" s="319"/>
+      <c r="Y16" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="Z16" s="90"/>
+      <c r="Z16" s="312"/>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A17" s="273"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="225"/>
-      <c r="D17" s="35" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="337"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36" t="s">
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="311"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="311"/>
-      <c r="O17" s="317"/>
-      <c r="P17" s="318"/>
-      <c r="Q17" s="318"/>
-      <c r="R17" s="318"/>
-      <c r="S17" s="318"/>
-      <c r="T17" s="318"/>
-      <c r="U17" s="318"/>
-      <c r="V17" s="318"/>
-      <c r="W17" s="318"/>
-      <c r="X17" s="318"/>
-      <c r="Y17" s="91"/>
-      <c r="Z17" s="92"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="283"/>
+      <c r="P17" s="291"/>
+      <c r="Q17" s="291"/>
+      <c r="R17" s="291"/>
+      <c r="S17" s="291"/>
+      <c r="T17" s="291"/>
+      <c r="U17" s="291"/>
+      <c r="V17" s="291"/>
+      <c r="W17" s="291"/>
+      <c r="X17" s="291"/>
+      <c r="Y17" s="313"/>
+      <c r="Z17" s="314"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A18" s="273"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="225"/>
-      <c r="D18" s="243" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="337"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="36" t="s">
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="K18" s="319" t="s">
+      <c r="K18" s="134" t="s">
         <v>215</v>
       </c>
-      <c r="L18" s="320"/>
-      <c r="M18" s="319" t="s">
+      <c r="L18" s="135"/>
+      <c r="M18" s="134" t="s">
         <v>219</v>
       </c>
-      <c r="N18" s="320"/>
-      <c r="O18" s="321" t="s">
+      <c r="N18" s="135"/>
+      <c r="O18" s="320" t="s">
         <v>223</v>
       </c>
-      <c r="P18" s="322"/>
-      <c r="Q18" s="322"/>
-      <c r="R18" s="322"/>
-      <c r="S18" s="322"/>
-      <c r="T18" s="322"/>
-      <c r="U18" s="322"/>
-      <c r="V18" s="322"/>
-      <c r="W18" s="322"/>
-      <c r="X18" s="323"/>
-      <c r="Y18" s="297" t="s">
+      <c r="P18" s="321"/>
+      <c r="Q18" s="321"/>
+      <c r="R18" s="321"/>
+      <c r="S18" s="321"/>
+      <c r="T18" s="321"/>
+      <c r="U18" s="321"/>
+      <c r="V18" s="321"/>
+      <c r="W18" s="321"/>
+      <c r="X18" s="322"/>
+      <c r="Y18" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="Z18" s="298"/>
+      <c r="Z18" s="180"/>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A19" s="273"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="225"/>
-      <c r="D19" s="211" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="337"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="171" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="212"/>
-      <c r="F19" s="217" t="s">
+      <c r="E19" s="172"/>
+      <c r="F19" s="138" t="s">
         <v>164</v>
       </c>
-      <c r="G19" s="218"/>
-      <c r="H19" s="36" t="s">
+      <c r="G19" s="139"/>
+      <c r="H19" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="K19" s="319" t="s">
+      <c r="K19" s="134" t="s">
         <v>216</v>
       </c>
-      <c r="L19" s="320"/>
-      <c r="M19" s="319" t="s">
+      <c r="L19" s="135"/>
+      <c r="M19" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="N19" s="320"/>
-      <c r="O19" s="324"/>
-      <c r="P19" s="325"/>
-      <c r="Q19" s="325"/>
-      <c r="R19" s="325"/>
-      <c r="S19" s="325"/>
-      <c r="T19" s="325"/>
-      <c r="U19" s="325"/>
-      <c r="V19" s="325"/>
-      <c r="W19" s="325"/>
-      <c r="X19" s="326"/>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="86"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="323"/>
+      <c r="P19" s="324"/>
+      <c r="Q19" s="324"/>
+      <c r="R19" s="324"/>
+      <c r="S19" s="324"/>
+      <c r="T19" s="324"/>
+      <c r="U19" s="324"/>
+      <c r="V19" s="324"/>
+      <c r="W19" s="324"/>
+      <c r="X19" s="325"/>
+      <c r="Y19" s="237"/>
+      <c r="Z19" s="309"/>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A20" s="273"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="225"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="214"/>
-      <c r="F20" s="217" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="337"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="138" t="s">
         <v>165</v>
       </c>
-      <c r="G20" s="218"/>
-      <c r="H20" s="36" t="s">
+      <c r="G20" s="139"/>
+      <c r="H20" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="K20" s="319" t="s">
+      <c r="K20" s="134" t="s">
         <v>217</v>
       </c>
-      <c r="L20" s="320"/>
-      <c r="M20" s="319" t="s">
+      <c r="L20" s="135"/>
+      <c r="M20" s="134" t="s">
         <v>221</v>
       </c>
-      <c r="N20" s="320"/>
-      <c r="O20" s="324"/>
-      <c r="P20" s="325"/>
-      <c r="Q20" s="325"/>
-      <c r="R20" s="325"/>
-      <c r="S20" s="325"/>
-      <c r="T20" s="325"/>
-      <c r="U20" s="325"/>
-      <c r="V20" s="325"/>
-      <c r="W20" s="325"/>
-      <c r="X20" s="326"/>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="86"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="323"/>
+      <c r="P20" s="324"/>
+      <c r="Q20" s="324"/>
+      <c r="R20" s="324"/>
+      <c r="S20" s="324"/>
+      <c r="T20" s="324"/>
+      <c r="U20" s="324"/>
+      <c r="V20" s="324"/>
+      <c r="W20" s="324"/>
+      <c r="X20" s="325"/>
+      <c r="Y20" s="237"/>
+      <c r="Z20" s="309"/>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A21" s="273"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="225"/>
-      <c r="D21" s="215"/>
-      <c r="E21" s="216"/>
-      <c r="F21" s="255" t="s">
+      <c r="A21" s="46"/>
+      <c r="B21" s="337"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="130" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="256"/>
-      <c r="H21" s="36" t="s">
+      <c r="G21" s="131"/>
+      <c r="H21" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="J21" s="36" t="s">
+      <c r="J21" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="K21" s="319" t="s">
+      <c r="K21" s="134" t="s">
         <v>218</v>
       </c>
-      <c r="L21" s="320"/>
-      <c r="M21" s="319" t="s">
+      <c r="L21" s="135"/>
+      <c r="M21" s="134" t="s">
         <v>222</v>
       </c>
-      <c r="N21" s="320"/>
-      <c r="O21" s="327"/>
-      <c r="P21" s="328"/>
-      <c r="Q21" s="328"/>
-      <c r="R21" s="328"/>
-      <c r="S21" s="328"/>
-      <c r="T21" s="328"/>
-      <c r="U21" s="328"/>
-      <c r="V21" s="328"/>
-      <c r="W21" s="328"/>
-      <c r="X21" s="329"/>
-      <c r="Y21" s="85"/>
-      <c r="Z21" s="86"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="326"/>
+      <c r="P21" s="327"/>
+      <c r="Q21" s="327"/>
+      <c r="R21" s="327"/>
+      <c r="S21" s="327"/>
+      <c r="T21" s="327"/>
+      <c r="U21" s="327"/>
+      <c r="V21" s="327"/>
+      <c r="W21" s="327"/>
+      <c r="X21" s="328"/>
+      <c r="Y21" s="237"/>
+      <c r="Z21" s="309"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A22" s="273"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="225"/>
-      <c r="D22" s="243" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="337"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="310" t="s">
+      <c r="H22" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="I22" s="310"/>
-      <c r="J22" s="310"/>
-      <c r="K22" s="73" t="s">
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="L22" s="311"/>
-      <c r="M22" s="73" t="s">
+      <c r="L22" s="133"/>
+      <c r="M22" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="N22" s="311"/>
-      <c r="O22" s="330" t="s">
+      <c r="N22" s="133"/>
+      <c r="O22" s="362" t="s">
         <v>180</v>
       </c>
-      <c r="P22" s="331"/>
-      <c r="Q22" s="331"/>
-      <c r="R22" s="331"/>
-      <c r="S22" s="331"/>
-      <c r="T22" s="331"/>
-      <c r="U22" s="331"/>
-      <c r="V22" s="331"/>
-      <c r="W22" s="331"/>
-      <c r="X22" s="331"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="86"/>
+      <c r="P22" s="363"/>
+      <c r="Q22" s="363"/>
+      <c r="R22" s="364"/>
+      <c r="S22" s="362" t="s">
+        <v>254</v>
+      </c>
+      <c r="T22" s="363"/>
+      <c r="U22" s="363"/>
+      <c r="V22" s="362" t="s">
+        <v>255</v>
+      </c>
+      <c r="W22" s="363"/>
+      <c r="X22" s="363"/>
+      <c r="Y22" s="237"/>
+      <c r="Z22" s="309"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A23" s="273"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="225"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="337"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="21" t="s">
         <v>156</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="23"/>
-      <c r="H23" s="36" t="s">
+      <c r="H23" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I23" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="J23" s="36" t="s">
+      <c r="J23" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="K23" s="73" t="s">
+      <c r="K23" s="132" t="s">
         <v>209</v>
       </c>
-      <c r="L23" s="311"/>
-      <c r="M23" s="73" t="s">
+      <c r="L23" s="133"/>
+      <c r="M23" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="N23" s="311"/>
-      <c r="O23" s="330" t="s">
+      <c r="N23" s="133"/>
+      <c r="O23" s="293" t="s">
         <v>229</v>
       </c>
-      <c r="P23" s="331"/>
-      <c r="Q23" s="331"/>
-      <c r="R23" s="331"/>
-      <c r="S23" s="331"/>
-      <c r="T23" s="331"/>
-      <c r="U23" s="331"/>
-      <c r="V23" s="331"/>
-      <c r="W23" s="331"/>
-      <c r="X23" s="331"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="86"/>
+      <c r="P23" s="294"/>
+      <c r="Q23" s="294"/>
+      <c r="R23" s="294"/>
+      <c r="S23" s="294"/>
+      <c r="T23" s="294"/>
+      <c r="U23" s="294"/>
+      <c r="V23" s="294"/>
+      <c r="W23" s="294"/>
+      <c r="X23" s="294"/>
+      <c r="Y23" s="237"/>
+      <c r="Z23" s="309"/>
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A24" s="273"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="225"/>
-      <c r="D24" s="35" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="337"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36" t="s">
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="73" t="s">
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="132" t="s">
         <v>102</v>
       </c>
-      <c r="L24" s="311"/>
-      <c r="M24" s="73" t="s">
+      <c r="L24" s="133"/>
+      <c r="M24" s="132" t="s">
         <v>103</v>
       </c>
-      <c r="N24" s="311"/>
-      <c r="O24" s="317"/>
-      <c r="P24" s="318"/>
-      <c r="Q24" s="318"/>
-      <c r="R24" s="318"/>
-      <c r="S24" s="318"/>
-      <c r="T24" s="318"/>
-      <c r="U24" s="318"/>
-      <c r="V24" s="318"/>
-      <c r="W24" s="318"/>
-      <c r="X24" s="318"/>
-      <c r="Y24" s="85"/>
-      <c r="Z24" s="86"/>
+      <c r="N24" s="133"/>
+      <c r="O24" s="283"/>
+      <c r="P24" s="291"/>
+      <c r="Q24" s="291"/>
+      <c r="R24" s="291"/>
+      <c r="S24" s="291"/>
+      <c r="T24" s="291"/>
+      <c r="U24" s="291"/>
+      <c r="V24" s="291"/>
+      <c r="W24" s="291"/>
+      <c r="X24" s="291"/>
+      <c r="Y24" s="237"/>
+      <c r="Z24" s="309"/>
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A25" s="273"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="225"/>
-      <c r="D25" s="35" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="337"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36" t="s">
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="73" t="s">
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="132" t="s">
         <v>100</v>
       </c>
-      <c r="L25" s="311"/>
-      <c r="M25" s="73" t="s">
+      <c r="L25" s="133"/>
+      <c r="M25" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="N25" s="311"/>
-      <c r="O25" s="312" t="s">
+      <c r="N25" s="133"/>
+      <c r="O25" s="304" t="s">
         <v>191</v>
       </c>
-      <c r="P25" s="313"/>
-      <c r="Q25" s="313"/>
-      <c r="R25" s="313"/>
-      <c r="S25" s="313"/>
-      <c r="T25" s="313"/>
-      <c r="U25" s="313"/>
-      <c r="V25" s="313"/>
-      <c r="W25" s="313"/>
-      <c r="X25" s="314"/>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="86"/>
+      <c r="P25" s="302"/>
+      <c r="Q25" s="302"/>
+      <c r="R25" s="302"/>
+      <c r="S25" s="302"/>
+      <c r="T25" s="302"/>
+      <c r="U25" s="302"/>
+      <c r="V25" s="302"/>
+      <c r="W25" s="302"/>
+      <c r="X25" s="303"/>
+      <c r="Y25" s="237"/>
+      <c r="Z25" s="309"/>
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A26" s="273"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="226"/>
-      <c r="D26" s="56" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="337"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="344" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="111" t="s">
+      <c r="E26" s="344"/>
+      <c r="F26" s="344"/>
+      <c r="G26" s="344"/>
+      <c r="H26" s="292" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="332" t="s">
+      <c r="I26" s="292"/>
+      <c r="J26" s="292"/>
+      <c r="K26" s="197" t="s">
         <v>104</v>
       </c>
-      <c r="L26" s="333"/>
-      <c r="M26" s="332" t="s">
+      <c r="L26" s="198"/>
+      <c r="M26" s="197" t="s">
         <v>105</v>
       </c>
-      <c r="N26" s="333"/>
-      <c r="O26" s="334"/>
-      <c r="P26" s="335"/>
-      <c r="Q26" s="335"/>
-      <c r="R26" s="335"/>
-      <c r="S26" s="335"/>
-      <c r="T26" s="335"/>
-      <c r="U26" s="335"/>
-      <c r="V26" s="335"/>
-      <c r="W26" s="335"/>
-      <c r="X26" s="335"/>
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="86"/>
+      <c r="N26" s="198"/>
+      <c r="O26" s="305"/>
+      <c r="P26" s="306"/>
+      <c r="Q26" s="306"/>
+      <c r="R26" s="306"/>
+      <c r="S26" s="306"/>
+      <c r="T26" s="306"/>
+      <c r="U26" s="306"/>
+      <c r="V26" s="306"/>
+      <c r="W26" s="306"/>
+      <c r="X26" s="306"/>
+      <c r="Y26" s="237"/>
+      <c r="Z26" s="309"/>
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="50" t="s">
+      <c r="B27" s="337"/>
+      <c r="C27" s="333" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="348" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="68" t="s">
+      <c r="E27" s="349"/>
+      <c r="F27" s="349"/>
+      <c r="G27" s="349"/>
+      <c r="H27" s="347" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="336" t="s">
+      <c r="I27" s="347"/>
+      <c r="J27" s="347"/>
+      <c r="K27" s="345" t="s">
         <v>106</v>
       </c>
-      <c r="L27" s="337"/>
-      <c r="M27" s="336" t="s">
+      <c r="L27" s="346"/>
+      <c r="M27" s="345" t="s">
         <v>107</v>
       </c>
-      <c r="N27" s="337"/>
-      <c r="O27" s="338"/>
-      <c r="P27" s="339"/>
-      <c r="Q27" s="339"/>
-      <c r="R27" s="339"/>
-      <c r="S27" s="339"/>
-      <c r="T27" s="339"/>
-      <c r="U27" s="339"/>
-      <c r="V27" s="339"/>
-      <c r="W27" s="339"/>
-      <c r="X27" s="339"/>
-      <c r="Y27" s="85"/>
-      <c r="Z27" s="86"/>
+      <c r="N27" s="346"/>
+      <c r="O27" s="307"/>
+      <c r="P27" s="308"/>
+      <c r="Q27" s="308"/>
+      <c r="R27" s="308"/>
+      <c r="S27" s="308"/>
+      <c r="T27" s="308"/>
+      <c r="U27" s="308"/>
+      <c r="V27" s="308"/>
+      <c r="W27" s="308"/>
+      <c r="X27" s="308"/>
+      <c r="Y27" s="237"/>
+      <c r="Z27" s="309"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="34" t="s">
+      <c r="B28" s="337"/>
+      <c r="C28" s="334"/>
+      <c r="D28" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36" t="s">
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="73" t="s">
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="L28" s="311"/>
-      <c r="M28" s="73" t="s">
+      <c r="L28" s="133"/>
+      <c r="M28" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="N28" s="311"/>
-      <c r="O28" s="317"/>
-      <c r="P28" s="340"/>
-      <c r="Q28" s="340"/>
-      <c r="R28" s="340"/>
-      <c r="S28" s="340"/>
-      <c r="T28" s="340"/>
-      <c r="U28" s="340"/>
-      <c r="V28" s="340"/>
-      <c r="W28" s="340"/>
-      <c r="X28" s="340"/>
-      <c r="Y28" s="85"/>
-      <c r="Z28" s="86"/>
+      <c r="N28" s="133"/>
+      <c r="O28" s="283"/>
+      <c r="P28" s="284"/>
+      <c r="Q28" s="284"/>
+      <c r="R28" s="284"/>
+      <c r="S28" s="284"/>
+      <c r="T28" s="284"/>
+      <c r="U28" s="284"/>
+      <c r="V28" s="284"/>
+      <c r="W28" s="284"/>
+      <c r="X28" s="284"/>
+      <c r="Y28" s="237"/>
+      <c r="Z28" s="309"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="34" t="s">
+      <c r="A29" s="43"/>
+      <c r="B29" s="337"/>
+      <c r="C29" s="334"/>
+      <c r="D29" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36" t="s">
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="73" t="s">
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="L29" s="311"/>
-      <c r="M29" s="73" t="s">
+      <c r="L29" s="133"/>
+      <c r="M29" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="N29" s="311"/>
-      <c r="O29" s="317"/>
-      <c r="P29" s="340"/>
-      <c r="Q29" s="340"/>
-      <c r="R29" s="340"/>
-      <c r="S29" s="340"/>
-      <c r="T29" s="340"/>
-      <c r="U29" s="340"/>
-      <c r="V29" s="340"/>
-      <c r="W29" s="340"/>
-      <c r="X29" s="340"/>
-      <c r="Y29" s="85"/>
-      <c r="Z29" s="86"/>
+      <c r="N29" s="133"/>
+      <c r="O29" s="283"/>
+      <c r="P29" s="284"/>
+      <c r="Q29" s="284"/>
+      <c r="R29" s="284"/>
+      <c r="S29" s="284"/>
+      <c r="T29" s="284"/>
+      <c r="U29" s="284"/>
+      <c r="V29" s="284"/>
+      <c r="W29" s="284"/>
+      <c r="X29" s="284"/>
+      <c r="Y29" s="237"/>
+      <c r="Z29" s="309"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A30" s="44"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="34" t="s">
+      <c r="A30" s="43"/>
+      <c r="B30" s="337"/>
+      <c r="C30" s="334"/>
+      <c r="D30" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36" t="s">
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="73" t="s">
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="L30" s="311"/>
-      <c r="M30" s="73" t="s">
+      <c r="L30" s="133"/>
+      <c r="M30" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="N30" s="311"/>
-      <c r="O30" s="317"/>
-      <c r="P30" s="340"/>
-      <c r="Q30" s="340"/>
-      <c r="R30" s="340"/>
-      <c r="S30" s="340"/>
-      <c r="T30" s="340"/>
-      <c r="U30" s="340"/>
-      <c r="V30" s="340"/>
-      <c r="W30" s="340"/>
-      <c r="X30" s="340"/>
-      <c r="Y30" s="85"/>
-      <c r="Z30" s="86"/>
+      <c r="N30" s="133"/>
+      <c r="O30" s="283"/>
+      <c r="P30" s="284"/>
+      <c r="Q30" s="284"/>
+      <c r="R30" s="284"/>
+      <c r="S30" s="284"/>
+      <c r="T30" s="284"/>
+      <c r="U30" s="284"/>
+      <c r="V30" s="284"/>
+      <c r="W30" s="284"/>
+      <c r="X30" s="284"/>
+      <c r="Y30" s="237"/>
+      <c r="Z30" s="309"/>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A31" s="44"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="34" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="337"/>
+      <c r="C31" s="334"/>
+      <c r="D31" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36" t="s">
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="73" t="s">
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="311"/>
-      <c r="M31" s="73" t="s">
+      <c r="L31" s="133"/>
+      <c r="M31" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="N31" s="311"/>
-      <c r="O31" s="317"/>
-      <c r="P31" s="340"/>
-      <c r="Q31" s="340"/>
-      <c r="R31" s="340"/>
-      <c r="S31" s="340"/>
-      <c r="T31" s="340"/>
-      <c r="U31" s="340"/>
-      <c r="V31" s="340"/>
-      <c r="W31" s="340"/>
-      <c r="X31" s="340"/>
-      <c r="Y31" s="85"/>
-      <c r="Z31" s="86"/>
+      <c r="N31" s="133"/>
+      <c r="O31" s="283"/>
+      <c r="P31" s="284"/>
+      <c r="Q31" s="284"/>
+      <c r="R31" s="284"/>
+      <c r="S31" s="284"/>
+      <c r="T31" s="284"/>
+      <c r="U31" s="284"/>
+      <c r="V31" s="284"/>
+      <c r="W31" s="284"/>
+      <c r="X31" s="284"/>
+      <c r="Y31" s="237"/>
+      <c r="Z31" s="309"/>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A32" s="44"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="212" t="s">
+      <c r="A32" s="43"/>
+      <c r="B32" s="337"/>
+      <c r="C32" s="334"/>
+      <c r="D32" s="172" t="s">
         <v>187</v>
       </c>
-      <c r="E32" s="212"/>
-      <c r="F32" s="212"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="341" t="s">
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="353" t="s">
         <v>192</v>
       </c>
-      <c r="I32" s="342"/>
-      <c r="J32" s="343"/>
-      <c r="K32" s="344" t="s">
+      <c r="I32" s="354"/>
+      <c r="J32" s="355"/>
+      <c r="K32" s="359" t="s">
         <v>104</v>
       </c>
-      <c r="L32" s="345"/>
-      <c r="M32" s="344" t="s">
+      <c r="L32" s="360"/>
+      <c r="M32" s="359" t="s">
         <v>105</v>
       </c>
-      <c r="N32" s="345"/>
-      <c r="O32" s="69" t="s">
+      <c r="N32" s="360"/>
+      <c r="O32" s="280" t="s">
         <v>197</v>
       </c>
-      <c r="P32" s="346"/>
-      <c r="Q32" s="346"/>
-      <c r="R32" s="346"/>
-      <c r="S32" s="70"/>
-      <c r="T32" s="69" t="s">
+      <c r="P32" s="281"/>
+      <c r="Q32" s="281"/>
+      <c r="R32" s="281"/>
+      <c r="S32" s="282"/>
+      <c r="T32" s="280" t="s">
         <v>194</v>
       </c>
-      <c r="U32" s="346"/>
-      <c r="V32" s="346"/>
-      <c r="W32" s="346"/>
-      <c r="X32" s="70"/>
-      <c r="Y32" s="85"/>
-      <c r="Z32" s="86"/>
+      <c r="U32" s="281"/>
+      <c r="V32" s="281"/>
+      <c r="W32" s="281"/>
+      <c r="X32" s="282"/>
+      <c r="Y32" s="237"/>
+      <c r="Z32" s="309"/>
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A33" s="44"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="214"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="214"/>
-      <c r="G33" s="219"/>
-      <c r="H33" s="347"/>
-      <c r="I33" s="348"/>
-      <c r="J33" s="349"/>
-      <c r="K33" s="350"/>
-      <c r="L33" s="169"/>
-      <c r="M33" s="350"/>
-      <c r="N33" s="169"/>
-      <c r="O33" s="69" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="337"/>
+      <c r="C33" s="334"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="356"/>
+      <c r="I33" s="357"/>
+      <c r="J33" s="358"/>
+      <c r="K33" s="361"/>
+      <c r="L33" s="244"/>
+      <c r="M33" s="361"/>
+      <c r="N33" s="244"/>
+      <c r="O33" s="280" t="s">
         <v>198</v>
       </c>
-      <c r="P33" s="346"/>
-      <c r="Q33" s="346"/>
-      <c r="R33" s="346"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="69" t="s">
+      <c r="P33" s="281"/>
+      <c r="Q33" s="281"/>
+      <c r="R33" s="281"/>
+      <c r="S33" s="282"/>
+      <c r="T33" s="280" t="s">
         <v>196</v>
       </c>
-      <c r="U33" s="346"/>
-      <c r="V33" s="346"/>
-      <c r="W33" s="346"/>
-      <c r="X33" s="70"/>
-      <c r="Y33" s="85"/>
-      <c r="Z33" s="86"/>
+      <c r="U33" s="281"/>
+      <c r="V33" s="281"/>
+      <c r="W33" s="281"/>
+      <c r="X33" s="282"/>
+      <c r="Y33" s="237"/>
+      <c r="Z33" s="309"/>
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A34" s="44"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="216"/>
-      <c r="E34" s="216"/>
-      <c r="F34" s="216"/>
-      <c r="G34" s="220"/>
-      <c r="H34" s="305"/>
-      <c r="I34" s="306"/>
-      <c r="J34" s="307"/>
-      <c r="K34" s="308"/>
-      <c r="L34" s="309"/>
-      <c r="M34" s="308"/>
-      <c r="N34" s="309"/>
-      <c r="O34" s="69" t="s">
+      <c r="A34" s="43"/>
+      <c r="B34" s="337"/>
+      <c r="C34" s="334"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="128"/>
+      <c r="N34" s="129"/>
+      <c r="O34" s="280" t="s">
         <v>199</v>
       </c>
-      <c r="P34" s="346"/>
-      <c r="Q34" s="346"/>
-      <c r="R34" s="346"/>
-      <c r="S34" s="70"/>
-      <c r="T34" s="69" t="s">
+      <c r="P34" s="281"/>
+      <c r="Q34" s="281"/>
+      <c r="R34" s="281"/>
+      <c r="S34" s="282"/>
+      <c r="T34" s="280" t="s">
         <v>195</v>
       </c>
-      <c r="U34" s="346"/>
-      <c r="V34" s="346"/>
-      <c r="W34" s="346"/>
-      <c r="X34" s="70"/>
-      <c r="Y34" s="85"/>
-      <c r="Z34" s="86"/>
+      <c r="U34" s="281"/>
+      <c r="V34" s="281"/>
+      <c r="W34" s="281"/>
+      <c r="X34" s="282"/>
+      <c r="Y34" s="237"/>
+      <c r="Z34" s="309"/>
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A35" s="44"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="61" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="337"/>
+      <c r="C35" s="334"/>
+      <c r="D35" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="62" t="s">
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="315" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="63"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="69" t="s">
+      <c r="I35" s="316"/>
+      <c r="J35" s="317"/>
+      <c r="K35" s="280" t="s">
         <v>110</v>
       </c>
-      <c r="L35" s="70"/>
-      <c r="M35" s="69" t="s">
+      <c r="L35" s="282"/>
+      <c r="M35" s="280" t="s">
         <v>111</v>
       </c>
-      <c r="N35" s="70"/>
-      <c r="O35" s="351"/>
-      <c r="P35" s="352"/>
-      <c r="Q35" s="352"/>
-      <c r="R35" s="352"/>
-      <c r="S35" s="352"/>
-      <c r="T35" s="352"/>
-      <c r="U35" s="352"/>
-      <c r="V35" s="352"/>
-      <c r="W35" s="352"/>
-      <c r="X35" s="353"/>
-      <c r="Y35" s="85"/>
-      <c r="Z35" s="86"/>
+      <c r="N35" s="282"/>
+      <c r="O35" s="194"/>
+      <c r="P35" s="195"/>
+      <c r="Q35" s="195"/>
+      <c r="R35" s="195"/>
+      <c r="S35" s="195"/>
+      <c r="T35" s="195"/>
+      <c r="U35" s="195"/>
+      <c r="V35" s="195"/>
+      <c r="W35" s="195"/>
+      <c r="X35" s="196"/>
+      <c r="Y35" s="237"/>
+      <c r="Z35" s="309"/>
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A36" s="44"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="61" t="s">
+      <c r="A36" s="43"/>
+      <c r="B36" s="337"/>
+      <c r="C36" s="334"/>
+      <c r="D36" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="62" t="s">
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="315" t="s">
         <v>36</v>
       </c>
-      <c r="I36" s="63"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="69" t="s">
+      <c r="I36" s="316"/>
+      <c r="J36" s="317"/>
+      <c r="K36" s="280" t="s">
         <v>110</v>
       </c>
-      <c r="L36" s="70"/>
-      <c r="M36" s="69" t="s">
+      <c r="L36" s="282"/>
+      <c r="M36" s="280" t="s">
         <v>111</v>
       </c>
-      <c r="N36" s="70"/>
-      <c r="O36" s="351"/>
-      <c r="P36" s="352"/>
-      <c r="Q36" s="352"/>
-      <c r="R36" s="352"/>
-      <c r="S36" s="352"/>
-      <c r="T36" s="352"/>
-      <c r="U36" s="352"/>
-      <c r="V36" s="352"/>
-      <c r="W36" s="352"/>
-      <c r="X36" s="353"/>
-      <c r="Y36" s="85"/>
-      <c r="Z36" s="86"/>
+      <c r="N36" s="282"/>
+      <c r="O36" s="194"/>
+      <c r="P36" s="195"/>
+      <c r="Q36" s="195"/>
+      <c r="R36" s="195"/>
+      <c r="S36" s="195"/>
+      <c r="T36" s="195"/>
+      <c r="U36" s="195"/>
+      <c r="V36" s="195"/>
+      <c r="W36" s="195"/>
+      <c r="X36" s="196"/>
+      <c r="Y36" s="237"/>
+      <c r="Z36" s="309"/>
     </row>
     <row r="37" spans="1:26" ht="45" customHeight="1">
-      <c r="A37" s="44"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="51"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="337"/>
+      <c r="C37" s="334"/>
       <c r="D37" s="21" t="s">
         <v>177</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="36" t="s">
+      <c r="H37" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="73" t="s">
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="132" t="s">
         <v>244</v>
       </c>
-      <c r="L37" s="311"/>
-      <c r="M37" s="73" t="s">
+      <c r="L37" s="133"/>
+      <c r="M37" s="132" t="s">
         <v>245</v>
       </c>
-      <c r="N37" s="311"/>
-      <c r="O37" s="354" t="s">
+      <c r="N37" s="133"/>
+      <c r="O37" s="301" t="s">
         <v>243</v>
       </c>
-      <c r="P37" s="313"/>
-      <c r="Q37" s="313"/>
-      <c r="R37" s="313"/>
-      <c r="S37" s="313"/>
-      <c r="T37" s="313"/>
-      <c r="U37" s="313"/>
-      <c r="V37" s="313"/>
-      <c r="W37" s="313"/>
-      <c r="X37" s="314"/>
-      <c r="Y37" s="85"/>
-      <c r="Z37" s="86"/>
+      <c r="P37" s="302"/>
+      <c r="Q37" s="302"/>
+      <c r="R37" s="302"/>
+      <c r="S37" s="302"/>
+      <c r="T37" s="302"/>
+      <c r="U37" s="302"/>
+      <c r="V37" s="302"/>
+      <c r="W37" s="302"/>
+      <c r="X37" s="303"/>
+      <c r="Y37" s="237"/>
+      <c r="Z37" s="309"/>
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A38" s="44"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="51"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="337"/>
+      <c r="C38" s="334"/>
       <c r="D38" s="22" t="s">
         <v>176</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="G38" s="23"/>
-      <c r="H38" s="36" t="s">
+      <c r="H38" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="73" t="s">
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="132" t="s">
         <v>205</v>
       </c>
-      <c r="L38" s="311"/>
-      <c r="M38" s="73" t="s">
+      <c r="L38" s="133"/>
+      <c r="M38" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="N38" s="311"/>
-      <c r="O38" s="312" t="s">
+      <c r="N38" s="133"/>
+      <c r="O38" s="304" t="s">
         <v>207</v>
       </c>
-      <c r="P38" s="313"/>
-      <c r="Q38" s="313"/>
-      <c r="R38" s="313"/>
-      <c r="S38" s="313"/>
-      <c r="T38" s="313"/>
-      <c r="U38" s="313"/>
-      <c r="V38" s="313"/>
-      <c r="W38" s="313"/>
-      <c r="X38" s="314"/>
-      <c r="Y38" s="85"/>
-      <c r="Z38" s="86"/>
+      <c r="P38" s="302"/>
+      <c r="Q38" s="302"/>
+      <c r="R38" s="302"/>
+      <c r="S38" s="302"/>
+      <c r="T38" s="302"/>
+      <c r="U38" s="302"/>
+      <c r="V38" s="302"/>
+      <c r="W38" s="302"/>
+      <c r="X38" s="303"/>
+      <c r="Y38" s="237"/>
+      <c r="Z38" s="309"/>
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A39" s="44"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="34" t="s">
+      <c r="A39" s="43"/>
+      <c r="B39" s="337"/>
+      <c r="C39" s="334"/>
+      <c r="D39" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="36" t="s">
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="70"/>
-      <c r="O39" s="317"/>
-      <c r="P39" s="340"/>
-      <c r="Q39" s="340"/>
-      <c r="R39" s="340"/>
-      <c r="S39" s="340"/>
-      <c r="T39" s="340"/>
-      <c r="U39" s="340"/>
-      <c r="V39" s="340"/>
-      <c r="W39" s="340"/>
-      <c r="X39" s="340"/>
-      <c r="Y39" s="85"/>
-      <c r="Z39" s="86"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="280"/>
+      <c r="L39" s="282"/>
+      <c r="M39" s="280"/>
+      <c r="N39" s="282"/>
+      <c r="O39" s="283"/>
+      <c r="P39" s="284"/>
+      <c r="Q39" s="284"/>
+      <c r="R39" s="284"/>
+      <c r="S39" s="284"/>
+      <c r="T39" s="284"/>
+      <c r="U39" s="284"/>
+      <c r="V39" s="284"/>
+      <c r="W39" s="284"/>
+      <c r="X39" s="284"/>
+      <c r="Y39" s="237"/>
+      <c r="Z39" s="309"/>
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A40" s="44"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="35" t="s">
+      <c r="A40" s="43"/>
+      <c r="B40" s="337"/>
+      <c r="C40" s="334"/>
+      <c r="D40" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36" t="s">
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="73" t="s">
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="311"/>
-      <c r="M40" s="73" t="s">
+      <c r="L40" s="133"/>
+      <c r="M40" s="132" t="s">
         <v>113</v>
       </c>
-      <c r="N40" s="311"/>
-      <c r="O40" s="317"/>
-      <c r="P40" s="340"/>
-      <c r="Q40" s="340"/>
-      <c r="R40" s="340"/>
-      <c r="S40" s="340"/>
-      <c r="T40" s="340"/>
-      <c r="U40" s="340"/>
-      <c r="V40" s="340"/>
-      <c r="W40" s="340"/>
-      <c r="X40" s="340"/>
-      <c r="Y40" s="85"/>
-      <c r="Z40" s="86"/>
+      <c r="N40" s="133"/>
+      <c r="O40" s="283"/>
+      <c r="P40" s="284"/>
+      <c r="Q40" s="284"/>
+      <c r="R40" s="284"/>
+      <c r="S40" s="284"/>
+      <c r="T40" s="284"/>
+      <c r="U40" s="284"/>
+      <c r="V40" s="284"/>
+      <c r="W40" s="284"/>
+      <c r="X40" s="284"/>
+      <c r="Y40" s="237"/>
+      <c r="Z40" s="309"/>
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A41" s="45"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="208" t="s">
+      <c r="A41" s="44"/>
+      <c r="B41" s="338"/>
+      <c r="C41" s="335"/>
+      <c r="D41" s="168" t="s">
         <v>224</v>
       </c>
-      <c r="E41" s="209"/>
-      <c r="F41" s="209"/>
-      <c r="G41" s="210"/>
-      <c r="H41" s="36" t="s">
+      <c r="E41" s="169"/>
+      <c r="F41" s="169"/>
+      <c r="G41" s="170"/>
+      <c r="H41" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="355" t="s">
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="339" t="s">
         <v>225</v>
       </c>
-      <c r="L41" s="356"/>
-      <c r="M41" s="355" t="s">
+      <c r="L41" s="340"/>
+      <c r="M41" s="339" t="s">
         <v>226</v>
       </c>
-      <c r="N41" s="356"/>
-      <c r="O41" s="357" t="s">
+      <c r="N41" s="340"/>
+      <c r="O41" s="341" t="s">
         <v>228</v>
       </c>
-      <c r="P41" s="358"/>
-      <c r="Q41" s="358"/>
-      <c r="R41" s="358"/>
-      <c r="S41" s="358"/>
-      <c r="T41" s="358"/>
-      <c r="U41" s="358"/>
-      <c r="V41" s="358"/>
-      <c r="W41" s="358"/>
-      <c r="X41" s="359"/>
-      <c r="Y41" s="87"/>
-      <c r="Z41" s="88"/>
+      <c r="P41" s="342"/>
+      <c r="Q41" s="342"/>
+      <c r="R41" s="342"/>
+      <c r="S41" s="342"/>
+      <c r="T41" s="342"/>
+      <c r="U41" s="342"/>
+      <c r="V41" s="342"/>
+      <c r="W41" s="342"/>
+      <c r="X41" s="343"/>
+      <c r="Y41" s="310"/>
+      <c r="Z41" s="311"/>
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A42" s="279" t="s">
+      <c r="A42" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="65" t="s">
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="67"/>
-      <c r="S42" s="65" t="s">
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="90"/>
+      <c r="S42" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="T42" s="66"/>
-      <c r="U42" s="66"/>
-      <c r="V42" s="66"/>
-      <c r="W42" s="66"/>
-      <c r="X42" s="67"/>
-      <c r="Y42" s="65" t="s">
+      <c r="T42" s="64"/>
+      <c r="U42" s="64"/>
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="90"/>
+      <c r="Y42" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="Z42" s="139"/>
+      <c r="Z42" s="65"/>
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A43" s="280"/>
-      <c r="B43" s="360" t="s">
+      <c r="A43" s="62"/>
+      <c r="B43" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C43" s="241" t="s">
+      <c r="C43" s="166" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="241"/>
-      <c r="E43" s="241"/>
-      <c r="F43" s="241"/>
-      <c r="G43" s="242"/>
-      <c r="H43" s="143" t="s">
+      <c r="D43" s="166"/>
+      <c r="E43" s="166"/>
+      <c r="F43" s="166"/>
+      <c r="G43" s="167"/>
+      <c r="H43" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="144"/>
-      <c r="J43" s="144"/>
-      <c r="K43" s="144"/>
-      <c r="L43" s="144"/>
-      <c r="M43" s="144"/>
-      <c r="N43" s="144"/>
-      <c r="O43" s="144"/>
-      <c r="P43" s="144"/>
-      <c r="Q43" s="144"/>
-      <c r="R43" s="145"/>
-      <c r="S43" s="146" t="s">
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="181" t="s">
         <v>44</v>
       </c>
-      <c r="T43" s="147"/>
-      <c r="U43" s="147"/>
-      <c r="V43" s="147"/>
-      <c r="W43" s="147"/>
-      <c r="X43" s="148"/>
-      <c r="Y43" s="297" t="s">
+      <c r="T43" s="182"/>
+      <c r="U43" s="182"/>
+      <c r="V43" s="182"/>
+      <c r="W43" s="182"/>
+      <c r="X43" s="183"/>
+      <c r="Y43" s="179" t="s">
         <v>138</v>
       </c>
-      <c r="Z43" s="298"/>
+      <c r="Z43" s="180"/>
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A44" s="280"/>
-      <c r="B44" s="360" t="s">
+      <c r="A44" s="62"/>
+      <c r="B44" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="123" t="s">
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="I44" s="179"/>
-      <c r="J44" s="179"/>
-      <c r="K44" s="179"/>
-      <c r="L44" s="179"/>
-      <c r="M44" s="179"/>
-      <c r="N44" s="179"/>
-      <c r="O44" s="179"/>
-      <c r="P44" s="179"/>
-      <c r="Q44" s="179"/>
-      <c r="R44" s="180"/>
-      <c r="S44" s="126" t="s">
+      <c r="I44" s="185"/>
+      <c r="J44" s="185"/>
+      <c r="K44" s="185"/>
+      <c r="L44" s="185"/>
+      <c r="M44" s="185"/>
+      <c r="N44" s="185"/>
+      <c r="O44" s="185"/>
+      <c r="P44" s="185"/>
+      <c r="Q44" s="185"/>
+      <c r="R44" s="186"/>
+      <c r="S44" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="T44" s="127"/>
-      <c r="U44" s="127"/>
-      <c r="V44" s="127"/>
-      <c r="W44" s="127"/>
-      <c r="X44" s="221"/>
-      <c r="Y44" s="40"/>
-      <c r="Z44" s="41"/>
+      <c r="T44" s="188"/>
+      <c r="U44" s="188"/>
+      <c r="V44" s="188"/>
+      <c r="W44" s="188"/>
+      <c r="X44" s="189"/>
+      <c r="Y44" s="199"/>
+      <c r="Z44" s="200"/>
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A45" s="280"/>
-      <c r="B45" s="361" t="s">
+      <c r="A45" s="62"/>
+      <c r="B45" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="123" t="s">
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="184" t="s">
         <v>47</v>
       </c>
-      <c r="I45" s="198"/>
-      <c r="J45" s="198"/>
-      <c r="K45" s="198"/>
-      <c r="L45" s="198"/>
-      <c r="M45" s="198"/>
-      <c r="N45" s="198"/>
-      <c r="O45" s="198"/>
-      <c r="P45" s="198"/>
-      <c r="Q45" s="198"/>
-      <c r="R45" s="199"/>
-      <c r="S45" s="126"/>
-      <c r="T45" s="127"/>
-      <c r="U45" s="127"/>
-      <c r="V45" s="127"/>
-      <c r="W45" s="127"/>
-      <c r="X45" s="221"/>
-      <c r="Y45" s="40"/>
-      <c r="Z45" s="41"/>
+      <c r="I45" s="192"/>
+      <c r="J45" s="192"/>
+      <c r="K45" s="192"/>
+      <c r="L45" s="192"/>
+      <c r="M45" s="192"/>
+      <c r="N45" s="192"/>
+      <c r="O45" s="192"/>
+      <c r="P45" s="192"/>
+      <c r="Q45" s="192"/>
+      <c r="R45" s="193"/>
+      <c r="S45" s="187"/>
+      <c r="T45" s="188"/>
+      <c r="U45" s="188"/>
+      <c r="V45" s="188"/>
+      <c r="W45" s="188"/>
+      <c r="X45" s="189"/>
+      <c r="Y45" s="199"/>
+      <c r="Z45" s="200"/>
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1">
       <c r="A46" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="361" t="s">
+      <c r="B46" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="123"/>
-      <c r="I46" s="198"/>
-      <c r="J46" s="198"/>
-      <c r="K46" s="198"/>
-      <c r="L46" s="198"/>
-      <c r="M46" s="198"/>
-      <c r="N46" s="198"/>
-      <c r="O46" s="198"/>
-      <c r="P46" s="198"/>
-      <c r="Q46" s="198"/>
-      <c r="R46" s="199"/>
-      <c r="S46" s="222"/>
-      <c r="T46" s="223"/>
-      <c r="U46" s="223"/>
-      <c r="V46" s="223"/>
-      <c r="W46" s="223"/>
-      <c r="X46" s="221"/>
-      <c r="Y46" s="40"/>
-      <c r="Z46" s="41"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="184"/>
+      <c r="I46" s="192"/>
+      <c r="J46" s="192"/>
+      <c r="K46" s="192"/>
+      <c r="L46" s="192"/>
+      <c r="M46" s="192"/>
+      <c r="N46" s="192"/>
+      <c r="O46" s="192"/>
+      <c r="P46" s="192"/>
+      <c r="Q46" s="192"/>
+      <c r="R46" s="193"/>
+      <c r="S46" s="190"/>
+      <c r="T46" s="191"/>
+      <c r="U46" s="191"/>
+      <c r="V46" s="191"/>
+      <c r="W46" s="191"/>
+      <c r="X46" s="189"/>
+      <c r="Y46" s="199"/>
+      <c r="Z46" s="200"/>
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="360" t="s">
+      <c r="B47" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="123"/>
-      <c r="I47" s="198"/>
-      <c r="J47" s="198"/>
-      <c r="K47" s="198"/>
-      <c r="L47" s="198"/>
-      <c r="M47" s="198"/>
-      <c r="N47" s="198"/>
-      <c r="O47" s="198"/>
-      <c r="P47" s="198"/>
-      <c r="Q47" s="198"/>
-      <c r="R47" s="199"/>
-      <c r="S47" s="222"/>
-      <c r="T47" s="223"/>
-      <c r="U47" s="223"/>
-      <c r="V47" s="223"/>
-      <c r="W47" s="223"/>
-      <c r="X47" s="221"/>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="41"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="184"/>
+      <c r="I47" s="192"/>
+      <c r="J47" s="192"/>
+      <c r="K47" s="192"/>
+      <c r="L47" s="192"/>
+      <c r="M47" s="192"/>
+      <c r="N47" s="192"/>
+      <c r="O47" s="192"/>
+      <c r="P47" s="192"/>
+      <c r="Q47" s="192"/>
+      <c r="R47" s="193"/>
+      <c r="S47" s="190"/>
+      <c r="T47" s="191"/>
+      <c r="U47" s="191"/>
+      <c r="V47" s="191"/>
+      <c r="W47" s="191"/>
+      <c r="X47" s="189"/>
+      <c r="Y47" s="199"/>
+      <c r="Z47" s="200"/>
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A48" s="45"/>
-      <c r="B48" s="360" t="s">
+      <c r="A48" s="44"/>
+      <c r="B48" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="198"/>
-      <c r="J48" s="198"/>
-      <c r="K48" s="198"/>
-      <c r="L48" s="198"/>
-      <c r="M48" s="198"/>
-      <c r="N48" s="198"/>
-      <c r="O48" s="198"/>
-      <c r="P48" s="198"/>
-      <c r="Q48" s="198"/>
-      <c r="R48" s="199"/>
-      <c r="S48" s="222"/>
-      <c r="T48" s="223"/>
-      <c r="U48" s="223"/>
-      <c r="V48" s="223"/>
-      <c r="W48" s="223"/>
-      <c r="X48" s="221"/>
-      <c r="Y48" s="42"/>
-      <c r="Z48" s="43"/>
+      <c r="C48" s="156"/>
+      <c r="D48" s="156"/>
+      <c r="E48" s="156"/>
+      <c r="F48" s="156"/>
+      <c r="G48" s="157"/>
+      <c r="H48" s="184"/>
+      <c r="I48" s="192"/>
+      <c r="J48" s="192"/>
+      <c r="K48" s="192"/>
+      <c r="L48" s="192"/>
+      <c r="M48" s="192"/>
+      <c r="N48" s="192"/>
+      <c r="O48" s="192"/>
+      <c r="P48" s="192"/>
+      <c r="Q48" s="192"/>
+      <c r="R48" s="193"/>
+      <c r="S48" s="190"/>
+      <c r="T48" s="191"/>
+      <c r="U48" s="191"/>
+      <c r="V48" s="191"/>
+      <c r="W48" s="191"/>
+      <c r="X48" s="189"/>
+      <c r="Y48" s="201"/>
+      <c r="Z48" s="202"/>
     </row>
     <row r="49" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A49" s="172" t="s">
+      <c r="A49" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="140" t="s">
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="I49" s="141"/>
-      <c r="J49" s="141"/>
-      <c r="K49" s="141"/>
-      <c r="L49" s="141"/>
-      <c r="M49" s="141"/>
-      <c r="N49" s="141"/>
-      <c r="O49" s="141"/>
-      <c r="P49" s="141"/>
-      <c r="Q49" s="141"/>
-      <c r="R49" s="142"/>
-      <c r="S49" s="202" t="s">
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="85"/>
+      <c r="M49" s="85"/>
+      <c r="N49" s="85"/>
+      <c r="O49" s="85"/>
+      <c r="P49" s="85"/>
+      <c r="Q49" s="85"/>
+      <c r="R49" s="86"/>
+      <c r="S49" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="T49" s="202"/>
-      <c r="U49" s="202"/>
-      <c r="V49" s="202"/>
-      <c r="W49" s="202"/>
-      <c r="X49" s="202"/>
-      <c r="Y49" s="65" t="s">
+      <c r="T49" s="164"/>
+      <c r="U49" s="164"/>
+      <c r="V49" s="164"/>
+      <c r="W49" s="164"/>
+      <c r="X49" s="164"/>
+      <c r="Y49" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="Z49" s="139"/>
+      <c r="Z49" s="65"/>
     </row>
     <row r="50" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A50" s="173"/>
-      <c r="B50" s="224" t="s">
+      <c r="A50" s="203"/>
+      <c r="B50" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="360" t="s">
+      <c r="C50" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="D50" s="238" t="s">
+      <c r="D50" s="160" t="s">
         <v>131</v>
       </c>
-      <c r="E50" s="238"/>
-      <c r="F50" s="238"/>
-      <c r="G50" s="239"/>
-      <c r="H50" s="143" t="s">
+      <c r="E50" s="160"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="161"/>
+      <c r="H50" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="I50" s="144"/>
-      <c r="J50" s="144"/>
-      <c r="K50" s="144"/>
-      <c r="L50" s="144"/>
-      <c r="M50" s="144"/>
-      <c r="N50" s="144"/>
-      <c r="O50" s="144"/>
-      <c r="P50" s="144"/>
-      <c r="Q50" s="144"/>
-      <c r="R50" s="145"/>
-      <c r="S50" s="37" t="s">
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="71"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="72"/>
+      <c r="S50" s="350" t="s">
         <v>53</v>
       </c>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38"/>
-      <c r="W50" s="38"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="297" t="s">
+      <c r="T50" s="351"/>
+      <c r="U50" s="351"/>
+      <c r="V50" s="351"/>
+      <c r="W50" s="351"/>
+      <c r="X50" s="352"/>
+      <c r="Y50" s="179" t="s">
         <v>138</v>
       </c>
-      <c r="Z50" s="298"/>
+      <c r="Z50" s="180"/>
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A51" s="173"/>
-      <c r="B51" s="225"/>
+      <c r="A51" s="203"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="D51" s="203" t="s">
+      <c r="D51" s="162" t="s">
         <v>157</v>
       </c>
-      <c r="E51" s="203" t="s">
+      <c r="E51" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="F51" s="203" t="s">
+      <c r="F51" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="G51" s="204" t="s">
+      <c r="G51" s="163" t="s">
         <v>153</v>
       </c>
-      <c r="H51" s="186" t="s">
+      <c r="H51" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="I51" s="187"/>
-      <c r="J51" s="187"/>
-      <c r="K51" s="187"/>
-      <c r="L51" s="187"/>
-      <c r="M51" s="187"/>
-      <c r="N51" s="187"/>
-      <c r="O51" s="187"/>
-      <c r="P51" s="187"/>
-      <c r="Q51" s="187"/>
-      <c r="R51" s="188"/>
-      <c r="S51" s="189"/>
-      <c r="T51" s="190"/>
-      <c r="U51" s="190"/>
-      <c r="V51" s="190"/>
-      <c r="W51" s="190"/>
-      <c r="X51" s="191"/>
-      <c r="Y51" s="40"/>
-      <c r="Z51" s="41"/>
+      <c r="I51" s="209"/>
+      <c r="J51" s="209"/>
+      <c r="K51" s="209"/>
+      <c r="L51" s="209"/>
+      <c r="M51" s="209"/>
+      <c r="N51" s="209"/>
+      <c r="O51" s="209"/>
+      <c r="P51" s="209"/>
+      <c r="Q51" s="209"/>
+      <c r="R51" s="210"/>
+      <c r="S51" s="211"/>
+      <c r="T51" s="212"/>
+      <c r="U51" s="212"/>
+      <c r="V51" s="212"/>
+      <c r="W51" s="212"/>
+      <c r="X51" s="213"/>
+      <c r="Y51" s="199"/>
+      <c r="Z51" s="200"/>
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A52" s="173"/>
-      <c r="B52" s="225"/>
+      <c r="A52" s="203"/>
+      <c r="B52" s="48"/>
       <c r="C52" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="D52" s="203" t="s">
+      <c r="D52" s="162" t="s">
         <v>158</v>
       </c>
-      <c r="E52" s="203" t="s">
+      <c r="E52" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="F52" s="203" t="s">
+      <c r="F52" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="G52" s="204" t="s">
+      <c r="G52" s="163" t="s">
         <v>153</v>
       </c>
-      <c r="H52" s="186" t="s">
+      <c r="H52" s="208" t="s">
         <v>56</v>
       </c>
-      <c r="I52" s="187"/>
-      <c r="J52" s="187"/>
-      <c r="K52" s="187"/>
-      <c r="L52" s="187"/>
-      <c r="M52" s="187"/>
-      <c r="N52" s="187"/>
-      <c r="O52" s="187"/>
-      <c r="P52" s="187"/>
-      <c r="Q52" s="187"/>
-      <c r="R52" s="188"/>
-      <c r="S52" s="189"/>
-      <c r="T52" s="190"/>
-      <c r="U52" s="190"/>
-      <c r="V52" s="190"/>
-      <c r="W52" s="190"/>
-      <c r="X52" s="191"/>
-      <c r="Y52" s="40"/>
-      <c r="Z52" s="41"/>
+      <c r="I52" s="209"/>
+      <c r="J52" s="209"/>
+      <c r="K52" s="209"/>
+      <c r="L52" s="209"/>
+      <c r="M52" s="209"/>
+      <c r="N52" s="209"/>
+      <c r="O52" s="209"/>
+      <c r="P52" s="209"/>
+      <c r="Q52" s="209"/>
+      <c r="R52" s="210"/>
+      <c r="S52" s="211"/>
+      <c r="T52" s="212"/>
+      <c r="U52" s="212"/>
+      <c r="V52" s="212"/>
+      <c r="W52" s="212"/>
+      <c r="X52" s="213"/>
+      <c r="Y52" s="199"/>
+      <c r="Z52" s="200"/>
     </row>
     <row r="53" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A53" s="173"/>
-      <c r="B53" s="226"/>
+      <c r="A53" s="203"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="D53" s="59" t="s">
+      <c r="D53" s="156" t="s">
         <v>150</v>
       </c>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="123" t="s">
+      <c r="E53" s="156"/>
+      <c r="F53" s="156"/>
+      <c r="G53" s="157"/>
+      <c r="H53" s="184" t="s">
         <v>58</v>
       </c>
-      <c r="I53" s="198"/>
-      <c r="J53" s="198"/>
-      <c r="K53" s="198"/>
-      <c r="L53" s="198"/>
-      <c r="M53" s="198"/>
-      <c r="N53" s="198"/>
-      <c r="O53" s="198"/>
-      <c r="P53" s="198"/>
-      <c r="Q53" s="198"/>
-      <c r="R53" s="199"/>
-      <c r="S53" s="189"/>
-      <c r="T53" s="190"/>
-      <c r="U53" s="190"/>
-      <c r="V53" s="190"/>
-      <c r="W53" s="190"/>
-      <c r="X53" s="191"/>
-      <c r="Y53" s="40"/>
-      <c r="Z53" s="41"/>
+      <c r="I53" s="192"/>
+      <c r="J53" s="192"/>
+      <c r="K53" s="192"/>
+      <c r="L53" s="192"/>
+      <c r="M53" s="192"/>
+      <c r="N53" s="192"/>
+      <c r="O53" s="192"/>
+      <c r="P53" s="192"/>
+      <c r="Q53" s="192"/>
+      <c r="R53" s="193"/>
+      <c r="S53" s="211"/>
+      <c r="T53" s="212"/>
+      <c r="U53" s="212"/>
+      <c r="V53" s="212"/>
+      <c r="W53" s="212"/>
+      <c r="X53" s="213"/>
+      <c r="Y53" s="199"/>
+      <c r="Z53" s="200"/>
     </row>
     <row r="54" spans="1:26" ht="14.25" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="224" t="s">
+      <c r="B54" s="47" t="s">
         <v>55</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="D54" s="236" t="s">
+      <c r="D54" s="158" t="s">
         <v>139</v>
       </c>
-      <c r="E54" s="236"/>
-      <c r="F54" s="236"/>
-      <c r="G54" s="237"/>
-      <c r="H54" s="123" t="s">
+      <c r="E54" s="158"/>
+      <c r="F54" s="158"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="184" t="s">
         <v>160</v>
       </c>
-      <c r="I54" s="124"/>
-      <c r="J54" s="124"/>
-      <c r="K54" s="124"/>
-      <c r="L54" s="124"/>
-      <c r="M54" s="124"/>
-      <c r="N54" s="124"/>
-      <c r="O54" s="124"/>
-      <c r="P54" s="124"/>
-      <c r="Q54" s="124"/>
-      <c r="R54" s="125"/>
-      <c r="S54" s="192"/>
-      <c r="T54" s="193"/>
-      <c r="U54" s="193"/>
-      <c r="V54" s="193"/>
-      <c r="W54" s="193"/>
-      <c r="X54" s="194"/>
-      <c r="Y54" s="40"/>
-      <c r="Z54" s="41"/>
+      <c r="I54" s="145"/>
+      <c r="J54" s="145"/>
+      <c r="K54" s="145"/>
+      <c r="L54" s="145"/>
+      <c r="M54" s="145"/>
+      <c r="N54" s="145"/>
+      <c r="O54" s="145"/>
+      <c r="P54" s="145"/>
+      <c r="Q54" s="145"/>
+      <c r="R54" s="146"/>
+      <c r="S54" s="214"/>
+      <c r="T54" s="215"/>
+      <c r="U54" s="215"/>
+      <c r="V54" s="215"/>
+      <c r="W54" s="215"/>
+      <c r="X54" s="216"/>
+      <c r="Y54" s="199"/>
+      <c r="Z54" s="200"/>
     </row>
     <row r="55" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="225"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="D55" s="57" t="s">
+      <c r="D55" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="160" t="s">
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="220" t="s">
         <v>59</v>
       </c>
-      <c r="I55" s="200"/>
-      <c r="J55" s="200"/>
-      <c r="K55" s="200"/>
-      <c r="L55" s="200"/>
-      <c r="M55" s="200"/>
-      <c r="N55" s="200"/>
-      <c r="O55" s="200"/>
-      <c r="P55" s="200"/>
-      <c r="Q55" s="200"/>
-      <c r="R55" s="201"/>
-      <c r="S55" s="192"/>
-      <c r="T55" s="193"/>
-      <c r="U55" s="193"/>
-      <c r="V55" s="193"/>
-      <c r="W55" s="193"/>
-      <c r="X55" s="194"/>
-      <c r="Y55" s="40"/>
-      <c r="Z55" s="41"/>
+      <c r="I55" s="221"/>
+      <c r="J55" s="221"/>
+      <c r="K55" s="221"/>
+      <c r="L55" s="221"/>
+      <c r="M55" s="221"/>
+      <c r="N55" s="221"/>
+      <c r="O55" s="221"/>
+      <c r="P55" s="221"/>
+      <c r="Q55" s="221"/>
+      <c r="R55" s="222"/>
+      <c r="S55" s="214"/>
+      <c r="T55" s="215"/>
+      <c r="U55" s="215"/>
+      <c r="V55" s="215"/>
+      <c r="W55" s="215"/>
+      <c r="X55" s="216"/>
+      <c r="Y55" s="199"/>
+      <c r="Z55" s="200"/>
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A56" s="44"/>
-      <c r="B56" s="225"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="D56" s="203" t="s">
+      <c r="D56" s="162" t="s">
         <v>157</v>
       </c>
-      <c r="E56" s="203" t="s">
+      <c r="E56" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="F56" s="203" t="s">
+      <c r="F56" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="G56" s="204" t="s">
+      <c r="G56" s="163" t="s">
         <v>153</v>
       </c>
       <c r="H56" s="16"/>
@@ -6414,309 +6435,309 @@
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
       <c r="R56" s="20"/>
-      <c r="S56" s="192"/>
-      <c r="T56" s="193"/>
-      <c r="U56" s="193"/>
-      <c r="V56" s="193"/>
-      <c r="W56" s="193"/>
-      <c r="X56" s="194"/>
-      <c r="Y56" s="40"/>
-      <c r="Z56" s="41"/>
+      <c r="S56" s="214"/>
+      <c r="T56" s="215"/>
+      <c r="U56" s="215"/>
+      <c r="V56" s="215"/>
+      <c r="W56" s="215"/>
+      <c r="X56" s="216"/>
+      <c r="Y56" s="199"/>
+      <c r="Z56" s="200"/>
     </row>
     <row r="57" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A57" s="45"/>
-      <c r="B57" s="226"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="49"/>
       <c r="C57" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="D57" s="203" t="s">
+      <c r="D57" s="162" t="s">
         <v>158</v>
       </c>
-      <c r="E57" s="203" t="s">
+      <c r="E57" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="203" t="s">
+      <c r="F57" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="G57" s="204" t="s">
+      <c r="G57" s="163" t="s">
         <v>153</v>
       </c>
-      <c r="H57" s="160"/>
-      <c r="I57" s="200"/>
-      <c r="J57" s="200"/>
-      <c r="K57" s="200"/>
-      <c r="L57" s="200"/>
-      <c r="M57" s="200"/>
-      <c r="N57" s="200"/>
-      <c r="O57" s="200"/>
-      <c r="P57" s="200"/>
-      <c r="Q57" s="200"/>
-      <c r="R57" s="201"/>
-      <c r="S57" s="195"/>
-      <c r="T57" s="196"/>
-      <c r="U57" s="196"/>
-      <c r="V57" s="196"/>
-      <c r="W57" s="196"/>
-      <c r="X57" s="197"/>
-      <c r="Y57" s="42"/>
-      <c r="Z57" s="43"/>
+      <c r="H57" s="220"/>
+      <c r="I57" s="221"/>
+      <c r="J57" s="221"/>
+      <c r="K57" s="221"/>
+      <c r="L57" s="221"/>
+      <c r="M57" s="221"/>
+      <c r="N57" s="221"/>
+      <c r="O57" s="221"/>
+      <c r="P57" s="221"/>
+      <c r="Q57" s="221"/>
+      <c r="R57" s="222"/>
+      <c r="S57" s="217"/>
+      <c r="T57" s="218"/>
+      <c r="U57" s="218"/>
+      <c r="V57" s="218"/>
+      <c r="W57" s="218"/>
+      <c r="X57" s="219"/>
+      <c r="Y57" s="201"/>
+      <c r="Z57" s="202"/>
     </row>
     <row r="58" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A58" s="172" t="s">
+      <c r="A58" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="65" t="s">
+      <c r="B58" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="66"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="139"/>
-      <c r="H58" s="182" t="s">
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="204" t="s">
         <v>62</v>
       </c>
-      <c r="I58" s="183"/>
-      <c r="J58" s="183"/>
-      <c r="K58" s="183"/>
-      <c r="L58" s="183"/>
-      <c r="M58" s="183"/>
-      <c r="N58" s="184"/>
-      <c r="O58" s="184"/>
-      <c r="P58" s="184"/>
-      <c r="Q58" s="184"/>
-      <c r="R58" s="185"/>
-      <c r="S58" s="65" t="s">
+      <c r="I58" s="205"/>
+      <c r="J58" s="205"/>
+      <c r="K58" s="205"/>
+      <c r="L58" s="205"/>
+      <c r="M58" s="205"/>
+      <c r="N58" s="206"/>
+      <c r="O58" s="206"/>
+      <c r="P58" s="206"/>
+      <c r="Q58" s="206"/>
+      <c r="R58" s="207"/>
+      <c r="S58" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="T58" s="66"/>
-      <c r="U58" s="66"/>
-      <c r="V58" s="66"/>
-      <c r="W58" s="66"/>
-      <c r="X58" s="67"/>
-      <c r="Y58" s="65" t="s">
+      <c r="T58" s="64"/>
+      <c r="U58" s="64"/>
+      <c r="V58" s="64"/>
+      <c r="W58" s="64"/>
+      <c r="X58" s="90"/>
+      <c r="Y58" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="Z58" s="139"/>
+      <c r="Z58" s="65"/>
     </row>
     <row r="59" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A59" s="173"/>
-      <c r="B59" s="360" t="s">
+      <c r="A59" s="203"/>
+      <c r="B59" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C59" s="227" t="s">
+      <c r="C59" s="147" t="s">
         <v>129</v>
       </c>
-      <c r="D59" s="227"/>
-      <c r="E59" s="228"/>
-      <c r="F59" s="228"/>
-      <c r="G59" s="229"/>
-      <c r="H59" s="205" t="s">
+      <c r="D59" s="147"/>
+      <c r="E59" s="148"/>
+      <c r="F59" s="148"/>
+      <c r="G59" s="149"/>
+      <c r="H59" s="223" t="s">
         <v>64</v>
       </c>
-      <c r="I59" s="174"/>
-      <c r="J59" s="174"/>
-      <c r="K59" s="174"/>
-      <c r="L59" s="174"/>
-      <c r="M59" s="174"/>
-      <c r="N59" s="174"/>
-      <c r="O59" s="174"/>
-      <c r="P59" s="174"/>
-      <c r="Q59" s="174"/>
-      <c r="R59" s="206"/>
-      <c r="S59" s="146" t="s">
+      <c r="I59" s="224"/>
+      <c r="J59" s="224"/>
+      <c r="K59" s="224"/>
+      <c r="L59" s="224"/>
+      <c r="M59" s="224"/>
+      <c r="N59" s="224"/>
+      <c r="O59" s="224"/>
+      <c r="P59" s="224"/>
+      <c r="Q59" s="224"/>
+      <c r="R59" s="225"/>
+      <c r="S59" s="181" t="s">
         <v>44</v>
       </c>
-      <c r="T59" s="147"/>
-      <c r="U59" s="147"/>
-      <c r="V59" s="147"/>
-      <c r="W59" s="147"/>
-      <c r="X59" s="148"/>
-      <c r="Y59" s="297" t="s">
+      <c r="T59" s="182"/>
+      <c r="U59" s="182"/>
+      <c r="V59" s="182"/>
+      <c r="W59" s="182"/>
+      <c r="X59" s="183"/>
+      <c r="Y59" s="179" t="s">
         <v>138</v>
       </c>
-      <c r="Z59" s="298"/>
+      <c r="Z59" s="180"/>
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A60" s="173"/>
-      <c r="B60" s="361"/>
-      <c r="C60" s="230"/>
-      <c r="D60" s="230"/>
-      <c r="E60" s="230"/>
-      <c r="F60" s="230"/>
-      <c r="G60" s="231"/>
-      <c r="H60" s="207" t="s">
+      <c r="A60" s="203"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="150"/>
+      <c r="D60" s="150"/>
+      <c r="E60" s="150"/>
+      <c r="F60" s="150"/>
+      <c r="G60" s="151"/>
+      <c r="H60" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="I60" s="124"/>
-      <c r="J60" s="124"/>
-      <c r="K60" s="124"/>
-      <c r="L60" s="124"/>
-      <c r="M60" s="124"/>
-      <c r="N60" s="124"/>
-      <c r="O60" s="124"/>
-      <c r="P60" s="124"/>
-      <c r="Q60" s="124"/>
-      <c r="R60" s="125"/>
-      <c r="S60" s="153" t="s">
+      <c r="I60" s="145"/>
+      <c r="J60" s="145"/>
+      <c r="K60" s="145"/>
+      <c r="L60" s="145"/>
+      <c r="M60" s="145"/>
+      <c r="N60" s="145"/>
+      <c r="O60" s="145"/>
+      <c r="P60" s="145"/>
+      <c r="Q60" s="145"/>
+      <c r="R60" s="146"/>
+      <c r="S60" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="T60" s="154"/>
-      <c r="U60" s="154"/>
-      <c r="V60" s="154"/>
-      <c r="W60" s="154"/>
-      <c r="X60" s="155"/>
-      <c r="Y60" s="40"/>
-      <c r="Z60" s="41"/>
+      <c r="T60" s="141"/>
+      <c r="U60" s="141"/>
+      <c r="V60" s="141"/>
+      <c r="W60" s="141"/>
+      <c r="X60" s="142"/>
+      <c r="Y60" s="199"/>
+      <c r="Z60" s="200"/>
     </row>
     <row r="61" spans="1:26" ht="14.25" customHeight="1">
       <c r="A61" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="360" t="s">
+      <c r="B61" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C61" s="232" t="s">
+      <c r="C61" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="D61" s="232"/>
-      <c r="E61" s="232"/>
-      <c r="F61" s="232"/>
-      <c r="G61" s="233"/>
-      <c r="H61" s="207"/>
-      <c r="I61" s="124"/>
-      <c r="J61" s="124"/>
-      <c r="K61" s="124"/>
-      <c r="L61" s="124"/>
-      <c r="M61" s="124"/>
-      <c r="N61" s="124"/>
-      <c r="O61" s="124"/>
-      <c r="P61" s="124"/>
-      <c r="Q61" s="124"/>
-      <c r="R61" s="125"/>
-      <c r="S61" s="156"/>
-      <c r="T61" s="154"/>
-      <c r="U61" s="154"/>
-      <c r="V61" s="154"/>
-      <c r="W61" s="154"/>
-      <c r="X61" s="155"/>
-      <c r="Y61" s="40"/>
-      <c r="Z61" s="41"/>
+      <c r="D61" s="152"/>
+      <c r="E61" s="152"/>
+      <c r="F61" s="152"/>
+      <c r="G61" s="153"/>
+      <c r="H61" s="144"/>
+      <c r="I61" s="145"/>
+      <c r="J61" s="145"/>
+      <c r="K61" s="145"/>
+      <c r="L61" s="145"/>
+      <c r="M61" s="145"/>
+      <c r="N61" s="145"/>
+      <c r="O61" s="145"/>
+      <c r="P61" s="145"/>
+      <c r="Q61" s="145"/>
+      <c r="R61" s="146"/>
+      <c r="S61" s="143"/>
+      <c r="T61" s="141"/>
+      <c r="U61" s="141"/>
+      <c r="V61" s="141"/>
+      <c r="W61" s="141"/>
+      <c r="X61" s="142"/>
+      <c r="Y61" s="199"/>
+      <c r="Z61" s="200"/>
     </row>
     <row r="62" spans="1:26" ht="14.25" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B62" s="31"/>
-      <c r="C62" s="234"/>
-      <c r="D62" s="234"/>
-      <c r="E62" s="234"/>
-      <c r="F62" s="234"/>
-      <c r="G62" s="235"/>
-      <c r="H62" s="207"/>
-      <c r="I62" s="124"/>
-      <c r="J62" s="124"/>
-      <c r="K62" s="124"/>
-      <c r="L62" s="124"/>
-      <c r="M62" s="124"/>
-      <c r="N62" s="124"/>
-      <c r="O62" s="124"/>
-      <c r="P62" s="124"/>
-      <c r="Q62" s="124"/>
-      <c r="R62" s="125"/>
-      <c r="S62" s="156"/>
-      <c r="T62" s="154"/>
-      <c r="U62" s="154"/>
-      <c r="V62" s="154"/>
-      <c r="W62" s="154"/>
-      <c r="X62" s="155"/>
-      <c r="Y62" s="42"/>
-      <c r="Z62" s="43"/>
+      <c r="C62" s="154"/>
+      <c r="D62" s="154"/>
+      <c r="E62" s="154"/>
+      <c r="F62" s="154"/>
+      <c r="G62" s="155"/>
+      <c r="H62" s="144"/>
+      <c r="I62" s="145"/>
+      <c r="J62" s="145"/>
+      <c r="K62" s="145"/>
+      <c r="L62" s="145"/>
+      <c r="M62" s="145"/>
+      <c r="N62" s="145"/>
+      <c r="O62" s="145"/>
+      <c r="P62" s="145"/>
+      <c r="Q62" s="145"/>
+      <c r="R62" s="146"/>
+      <c r="S62" s="143"/>
+      <c r="T62" s="141"/>
+      <c r="U62" s="141"/>
+      <c r="V62" s="141"/>
+      <c r="W62" s="141"/>
+      <c r="X62" s="142"/>
+      <c r="Y62" s="201"/>
+      <c r="Z62" s="202"/>
     </row>
     <row r="63" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A63" s="172" t="s">
+      <c r="A63" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="139"/>
-      <c r="H63" s="140" t="s">
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="I63" s="141"/>
-      <c r="J63" s="141"/>
-      <c r="K63" s="141"/>
-      <c r="L63" s="141"/>
-      <c r="M63" s="163"/>
-      <c r="N63" s="164"/>
-      <c r="O63" s="164"/>
-      <c r="P63" s="164"/>
-      <c r="Q63" s="164"/>
-      <c r="R63" s="165"/>
-      <c r="S63" s="65" t="s">
+      <c r="I63" s="85"/>
+      <c r="J63" s="85"/>
+      <c r="K63" s="85"/>
+      <c r="L63" s="85"/>
+      <c r="M63" s="226"/>
+      <c r="N63" s="227"/>
+      <c r="O63" s="227"/>
+      <c r="P63" s="227"/>
+      <c r="Q63" s="227"/>
+      <c r="R63" s="228"/>
+      <c r="S63" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="T63" s="66"/>
-      <c r="U63" s="66"/>
-      <c r="V63" s="66"/>
-      <c r="W63" s="66"/>
-      <c r="X63" s="67"/>
-      <c r="Y63" s="65" t="s">
+      <c r="T63" s="64"/>
+      <c r="U63" s="64"/>
+      <c r="V63" s="64"/>
+      <c r="W63" s="64"/>
+      <c r="X63" s="90"/>
+      <c r="Y63" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="Z63" s="139"/>
+      <c r="Z63" s="65"/>
     </row>
     <row r="64" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A64" s="173"/>
+      <c r="A64" s="203"/>
       <c r="B64" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C64" s="329" t="s">
         <v>148</v>
       </c>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="143" t="s">
+      <c r="D64" s="329"/>
+      <c r="E64" s="329"/>
+      <c r="F64" s="329"/>
+      <c r="G64" s="330"/>
+      <c r="H64" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="I64" s="174"/>
-      <c r="J64" s="174"/>
-      <c r="K64" s="174"/>
-      <c r="L64" s="174"/>
-      <c r="M64" s="174"/>
-      <c r="N64" s="174"/>
-      <c r="O64" s="174"/>
-      <c r="P64" s="174"/>
-      <c r="Q64" s="174"/>
-      <c r="R64" s="174"/>
-      <c r="S64" s="146" t="s">
+      <c r="I64" s="224"/>
+      <c r="J64" s="224"/>
+      <c r="K64" s="224"/>
+      <c r="L64" s="224"/>
+      <c r="M64" s="224"/>
+      <c r="N64" s="224"/>
+      <c r="O64" s="224"/>
+      <c r="P64" s="224"/>
+      <c r="Q64" s="224"/>
+      <c r="R64" s="224"/>
+      <c r="S64" s="181" t="s">
         <v>44</v>
       </c>
-      <c r="T64" s="147"/>
-      <c r="U64" s="147"/>
-      <c r="V64" s="147"/>
-      <c r="W64" s="147"/>
-      <c r="X64" s="148"/>
-      <c r="Y64" s="297" t="s">
+      <c r="T64" s="182"/>
+      <c r="U64" s="182"/>
+      <c r="V64" s="182"/>
+      <c r="W64" s="182"/>
+      <c r="X64" s="183"/>
+      <c r="Y64" s="179" t="s">
         <v>138</v>
       </c>
-      <c r="Z64" s="298"/>
+      <c r="Z64" s="180"/>
     </row>
     <row r="65" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A65" s="173"/>
+      <c r="A65" s="203"/>
       <c r="B65" s="31"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="49"/>
+      <c r="C65" s="331"/>
+      <c r="D65" s="331"/>
+      <c r="E65" s="331"/>
+      <c r="F65" s="331"/>
+      <c r="G65" s="332"/>
       <c r="H65" s="25"/>
       <c r="I65" s="26"/>
       <c r="J65" s="26"/>
@@ -6738,619 +6759,619 @@
       <c r="Z65" s="30"/>
     </row>
     <row r="66" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A66" s="173"/>
-      <c r="B66" s="360" t="s">
+      <c r="A66" s="203"/>
+      <c r="B66" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C66" s="175" t="s">
+      <c r="C66" s="229" t="s">
         <v>126</v>
       </c>
-      <c r="D66" s="175"/>
-      <c r="E66" s="175"/>
-      <c r="F66" s="175"/>
-      <c r="G66" s="176"/>
-      <c r="H66" s="123" t="s">
+      <c r="D66" s="229"/>
+      <c r="E66" s="229"/>
+      <c r="F66" s="229"/>
+      <c r="G66" s="230"/>
+      <c r="H66" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="I66" s="124"/>
-      <c r="J66" s="124"/>
-      <c r="K66" s="124"/>
-      <c r="L66" s="124"/>
-      <c r="M66" s="124"/>
-      <c r="N66" s="124"/>
-      <c r="O66" s="124"/>
-      <c r="P66" s="124"/>
-      <c r="Q66" s="124"/>
-      <c r="R66" s="125"/>
-      <c r="S66" s="153" t="s">
+      <c r="I66" s="145"/>
+      <c r="J66" s="145"/>
+      <c r="K66" s="145"/>
+      <c r="L66" s="145"/>
+      <c r="M66" s="145"/>
+      <c r="N66" s="145"/>
+      <c r="O66" s="145"/>
+      <c r="P66" s="145"/>
+      <c r="Q66" s="145"/>
+      <c r="R66" s="146"/>
+      <c r="S66" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="T66" s="154"/>
-      <c r="U66" s="154"/>
-      <c r="V66" s="154"/>
-      <c r="W66" s="154"/>
-      <c r="X66" s="155"/>
-      <c r="Y66" s="40"/>
-      <c r="Z66" s="41"/>
+      <c r="T66" s="141"/>
+      <c r="U66" s="141"/>
+      <c r="V66" s="141"/>
+      <c r="W66" s="141"/>
+      <c r="X66" s="142"/>
+      <c r="Y66" s="199"/>
+      <c r="Z66" s="200"/>
     </row>
     <row r="67" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A67" s="173"/>
-      <c r="B67" s="360" t="s">
+      <c r="A67" s="203"/>
+      <c r="B67" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C67" s="175" t="s">
+      <c r="C67" s="229" t="s">
         <v>127</v>
       </c>
-      <c r="D67" s="175"/>
-      <c r="E67" s="175"/>
-      <c r="F67" s="175"/>
-      <c r="G67" s="176"/>
-      <c r="H67" s="123" t="s">
+      <c r="D67" s="229"/>
+      <c r="E67" s="229"/>
+      <c r="F67" s="229"/>
+      <c r="G67" s="230"/>
+      <c r="H67" s="184" t="s">
         <v>159</v>
       </c>
-      <c r="I67" s="124"/>
-      <c r="J67" s="124"/>
-      <c r="K67" s="124"/>
-      <c r="L67" s="124"/>
-      <c r="M67" s="124"/>
-      <c r="N67" s="124"/>
-      <c r="O67" s="124"/>
-      <c r="P67" s="124"/>
-      <c r="Q67" s="124"/>
-      <c r="R67" s="125"/>
-      <c r="S67" s="156"/>
-      <c r="T67" s="154"/>
-      <c r="U67" s="154"/>
-      <c r="V67" s="154"/>
-      <c r="W67" s="154"/>
-      <c r="X67" s="155"/>
-      <c r="Y67" s="40"/>
-      <c r="Z67" s="41"/>
+      <c r="I67" s="145"/>
+      <c r="J67" s="145"/>
+      <c r="K67" s="145"/>
+      <c r="L67" s="145"/>
+      <c r="M67" s="145"/>
+      <c r="N67" s="145"/>
+      <c r="O67" s="145"/>
+      <c r="P67" s="145"/>
+      <c r="Q67" s="145"/>
+      <c r="R67" s="146"/>
+      <c r="S67" s="143"/>
+      <c r="T67" s="141"/>
+      <c r="U67" s="141"/>
+      <c r="V67" s="141"/>
+      <c r="W67" s="141"/>
+      <c r="X67" s="142"/>
+      <c r="Y67" s="199"/>
+      <c r="Z67" s="200"/>
     </row>
     <row r="68" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A68" s="173"/>
-      <c r="B68" s="361" t="s">
+      <c r="A68" s="203"/>
+      <c r="B68" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="C68" s="175" t="s">
+      <c r="C68" s="229" t="s">
         <v>193</v>
       </c>
-      <c r="D68" s="175"/>
-      <c r="E68" s="175"/>
-      <c r="F68" s="175"/>
-      <c r="G68" s="176"/>
-      <c r="H68" s="123" t="s">
+      <c r="D68" s="229"/>
+      <c r="E68" s="229"/>
+      <c r="F68" s="229"/>
+      <c r="G68" s="230"/>
+      <c r="H68" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="I68" s="177"/>
-      <c r="J68" s="177"/>
-      <c r="K68" s="177"/>
-      <c r="L68" s="177"/>
-      <c r="M68" s="177"/>
-      <c r="N68" s="177"/>
-      <c r="O68" s="177"/>
-      <c r="P68" s="177"/>
-      <c r="Q68" s="177"/>
-      <c r="R68" s="178"/>
-      <c r="S68" s="156"/>
-      <c r="T68" s="154"/>
-      <c r="U68" s="154"/>
-      <c r="V68" s="154"/>
-      <c r="W68" s="154"/>
-      <c r="X68" s="155"/>
-      <c r="Y68" s="40"/>
-      <c r="Z68" s="41"/>
+      <c r="I68" s="231"/>
+      <c r="J68" s="231"/>
+      <c r="K68" s="231"/>
+      <c r="L68" s="231"/>
+      <c r="M68" s="231"/>
+      <c r="N68" s="231"/>
+      <c r="O68" s="231"/>
+      <c r="P68" s="231"/>
+      <c r="Q68" s="231"/>
+      <c r="R68" s="232"/>
+      <c r="S68" s="143"/>
+      <c r="T68" s="141"/>
+      <c r="U68" s="141"/>
+      <c r="V68" s="141"/>
+      <c r="W68" s="141"/>
+      <c r="X68" s="142"/>
+      <c r="Y68" s="199"/>
+      <c r="Z68" s="200"/>
     </row>
     <row r="69" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A69" s="173"/>
-      <c r="B69" s="360" t="s">
+      <c r="A69" s="203"/>
+      <c r="B69" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C69" s="175"/>
-      <c r="D69" s="175"/>
-      <c r="E69" s="175"/>
-      <c r="F69" s="175"/>
-      <c r="G69" s="176"/>
-      <c r="H69" s="123" t="s">
+      <c r="C69" s="229"/>
+      <c r="D69" s="229"/>
+      <c r="E69" s="229"/>
+      <c r="F69" s="229"/>
+      <c r="G69" s="230"/>
+      <c r="H69" s="184" t="s">
         <v>72</v>
       </c>
-      <c r="I69" s="179"/>
-      <c r="J69" s="179"/>
-      <c r="K69" s="179"/>
-      <c r="L69" s="179"/>
-      <c r="M69" s="179"/>
-      <c r="N69" s="179"/>
-      <c r="O69" s="179"/>
-      <c r="P69" s="179"/>
-      <c r="Q69" s="179"/>
-      <c r="R69" s="180"/>
-      <c r="S69" s="156"/>
-      <c r="T69" s="181"/>
-      <c r="U69" s="181"/>
-      <c r="V69" s="181"/>
-      <c r="W69" s="181"/>
-      <c r="X69" s="155"/>
-      <c r="Y69" s="40"/>
-      <c r="Z69" s="41"/>
+      <c r="I69" s="185"/>
+      <c r="J69" s="185"/>
+      <c r="K69" s="185"/>
+      <c r="L69" s="185"/>
+      <c r="M69" s="185"/>
+      <c r="N69" s="185"/>
+      <c r="O69" s="185"/>
+      <c r="P69" s="185"/>
+      <c r="Q69" s="185"/>
+      <c r="R69" s="186"/>
+      <c r="S69" s="143"/>
+      <c r="T69" s="233"/>
+      <c r="U69" s="233"/>
+      <c r="V69" s="233"/>
+      <c r="W69" s="233"/>
+      <c r="X69" s="142"/>
+      <c r="Y69" s="199"/>
+      <c r="Z69" s="200"/>
     </row>
     <row r="70" spans="1:26" ht="14.25" customHeight="1">
       <c r="A70" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="360" t="s">
+      <c r="B70" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C70" s="175"/>
-      <c r="D70" s="175"/>
-      <c r="E70" s="175"/>
-      <c r="F70" s="175"/>
-      <c r="G70" s="176"/>
-      <c r="H70" s="123" t="s">
+      <c r="C70" s="229"/>
+      <c r="D70" s="229"/>
+      <c r="E70" s="229"/>
+      <c r="F70" s="229"/>
+      <c r="G70" s="230"/>
+      <c r="H70" s="184" t="s">
         <v>73</v>
       </c>
-      <c r="I70" s="124"/>
-      <c r="J70" s="124"/>
-      <c r="K70" s="124"/>
-      <c r="L70" s="124"/>
-      <c r="M70" s="124"/>
-      <c r="N70" s="124"/>
-      <c r="O70" s="124"/>
-      <c r="P70" s="124"/>
-      <c r="Q70" s="124"/>
-      <c r="R70" s="125"/>
-      <c r="S70" s="156"/>
-      <c r="T70" s="181"/>
-      <c r="U70" s="181"/>
-      <c r="V70" s="181"/>
-      <c r="W70" s="181"/>
-      <c r="X70" s="155"/>
-      <c r="Y70" s="40"/>
-      <c r="Z70" s="41"/>
+      <c r="I70" s="145"/>
+      <c r="J70" s="145"/>
+      <c r="K70" s="145"/>
+      <c r="L70" s="145"/>
+      <c r="M70" s="145"/>
+      <c r="N70" s="145"/>
+      <c r="O70" s="145"/>
+      <c r="P70" s="145"/>
+      <c r="Q70" s="145"/>
+      <c r="R70" s="146"/>
+      <c r="S70" s="143"/>
+      <c r="T70" s="233"/>
+      <c r="U70" s="233"/>
+      <c r="V70" s="233"/>
+      <c r="W70" s="233"/>
+      <c r="X70" s="142"/>
+      <c r="Y70" s="199"/>
+      <c r="Z70" s="200"/>
     </row>
     <row r="71" spans="1:26" ht="14.25" customHeight="1">
       <c r="A71" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="360" t="s">
+      <c r="B71" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C71" s="175"/>
-      <c r="D71" s="175"/>
-      <c r="E71" s="175"/>
-      <c r="F71" s="175"/>
-      <c r="G71" s="176"/>
-      <c r="H71" s="123" t="s">
+      <c r="C71" s="229"/>
+      <c r="D71" s="229"/>
+      <c r="E71" s="229"/>
+      <c r="F71" s="229"/>
+      <c r="G71" s="230"/>
+      <c r="H71" s="184" t="s">
         <v>74</v>
       </c>
-      <c r="I71" s="124"/>
-      <c r="J71" s="124"/>
-      <c r="K71" s="124"/>
-      <c r="L71" s="124"/>
-      <c r="M71" s="124"/>
-      <c r="N71" s="124"/>
-      <c r="O71" s="124"/>
-      <c r="P71" s="124"/>
-      <c r="Q71" s="124"/>
-      <c r="R71" s="125"/>
-      <c r="S71" s="157"/>
-      <c r="T71" s="158"/>
-      <c r="U71" s="158"/>
-      <c r="V71" s="158"/>
-      <c r="W71" s="158"/>
-      <c r="X71" s="159"/>
-      <c r="Y71" s="42"/>
-      <c r="Z71" s="43"/>
+      <c r="I71" s="145"/>
+      <c r="J71" s="145"/>
+      <c r="K71" s="145"/>
+      <c r="L71" s="145"/>
+      <c r="M71" s="145"/>
+      <c r="N71" s="145"/>
+      <c r="O71" s="145"/>
+      <c r="P71" s="145"/>
+      <c r="Q71" s="145"/>
+      <c r="R71" s="146"/>
+      <c r="S71" s="234"/>
+      <c r="T71" s="235"/>
+      <c r="U71" s="235"/>
+      <c r="V71" s="235"/>
+      <c r="W71" s="235"/>
+      <c r="X71" s="236"/>
+      <c r="Y71" s="201"/>
+      <c r="Z71" s="202"/>
     </row>
     <row r="72" spans="1:26" ht="14.25" customHeight="1">
       <c r="A72" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="65" t="s">
+      <c r="B72" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="139"/>
-      <c r="H72" s="140" t="s">
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="I72" s="141"/>
-      <c r="J72" s="141"/>
-      <c r="K72" s="141"/>
-      <c r="L72" s="141"/>
-      <c r="M72" s="163"/>
-      <c r="N72" s="164"/>
-      <c r="O72" s="164"/>
-      <c r="P72" s="164"/>
-      <c r="Q72" s="164"/>
-      <c r="R72" s="165"/>
-      <c r="S72" s="65" t="s">
+      <c r="I72" s="85"/>
+      <c r="J72" s="85"/>
+      <c r="K72" s="85"/>
+      <c r="L72" s="85"/>
+      <c r="M72" s="226"/>
+      <c r="N72" s="227"/>
+      <c r="O72" s="227"/>
+      <c r="P72" s="227"/>
+      <c r="Q72" s="227"/>
+      <c r="R72" s="228"/>
+      <c r="S72" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="T72" s="66"/>
-      <c r="U72" s="66"/>
-      <c r="V72" s="66"/>
-      <c r="W72" s="66"/>
-      <c r="X72" s="67"/>
-      <c r="Y72" s="65" t="s">
+      <c r="T72" s="64"/>
+      <c r="U72" s="64"/>
+      <c r="V72" s="64"/>
+      <c r="W72" s="64"/>
+      <c r="X72" s="90"/>
+      <c r="Y72" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="Z72" s="139"/>
+      <c r="Z72" s="65"/>
     </row>
     <row r="73" spans="1:26" ht="14.25" customHeight="1">
       <c r="A73" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="360" t="s">
+      <c r="B73" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C73" s="166" t="s">
+      <c r="C73" s="242" t="s">
         <v>128</v>
       </c>
-      <c r="D73" s="166"/>
-      <c r="E73" s="166"/>
-      <c r="F73" s="166"/>
-      <c r="G73" s="167"/>
-      <c r="H73" s="123" t="s">
+      <c r="D73" s="242"/>
+      <c r="E73" s="242"/>
+      <c r="F73" s="242"/>
+      <c r="G73" s="127"/>
+      <c r="H73" s="184" t="s">
         <v>80</v>
       </c>
-      <c r="I73" s="124"/>
-      <c r="J73" s="124"/>
-      <c r="K73" s="124"/>
-      <c r="L73" s="124"/>
-      <c r="M73" s="124"/>
-      <c r="N73" s="124"/>
-      <c r="O73" s="124"/>
-      <c r="P73" s="124"/>
-      <c r="Q73" s="124"/>
-      <c r="R73" s="124"/>
-      <c r="S73" s="85" t="s">
+      <c r="I73" s="145"/>
+      <c r="J73" s="145"/>
+      <c r="K73" s="145"/>
+      <c r="L73" s="145"/>
+      <c r="M73" s="145"/>
+      <c r="N73" s="145"/>
+      <c r="O73" s="145"/>
+      <c r="P73" s="145"/>
+      <c r="Q73" s="145"/>
+      <c r="R73" s="145"/>
+      <c r="S73" s="237" t="s">
         <v>44</v>
       </c>
-      <c r="T73" s="151"/>
-      <c r="U73" s="151"/>
-      <c r="V73" s="151"/>
-      <c r="W73" s="151"/>
-      <c r="X73" s="152"/>
-      <c r="Y73" s="297" t="s">
+      <c r="T73" s="238"/>
+      <c r="U73" s="238"/>
+      <c r="V73" s="238"/>
+      <c r="W73" s="238"/>
+      <c r="X73" s="239"/>
+      <c r="Y73" s="179" t="s">
         <v>138</v>
       </c>
-      <c r="Z73" s="298"/>
+      <c r="Z73" s="180"/>
     </row>
     <row r="74" spans="1:26" ht="14.25" customHeight="1">
       <c r="A74" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="360" t="s">
+      <c r="B74" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C74" s="168"/>
-      <c r="D74" s="168"/>
-      <c r="E74" s="168"/>
-      <c r="F74" s="168"/>
-      <c r="G74" s="169"/>
-      <c r="H74" s="123" t="s">
+      <c r="C74" s="243"/>
+      <c r="D74" s="243"/>
+      <c r="E74" s="243"/>
+      <c r="F74" s="243"/>
+      <c r="G74" s="244"/>
+      <c r="H74" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="I74" s="124"/>
-      <c r="J74" s="124"/>
-      <c r="K74" s="124"/>
-      <c r="L74" s="124"/>
-      <c r="M74" s="124"/>
-      <c r="N74" s="124"/>
-      <c r="O74" s="124"/>
-      <c r="P74" s="124"/>
-      <c r="Q74" s="124"/>
-      <c r="R74" s="125"/>
-      <c r="S74" s="153" t="s">
+      <c r="I74" s="145"/>
+      <c r="J74" s="145"/>
+      <c r="K74" s="145"/>
+      <c r="L74" s="145"/>
+      <c r="M74" s="145"/>
+      <c r="N74" s="145"/>
+      <c r="O74" s="145"/>
+      <c r="P74" s="145"/>
+      <c r="Q74" s="145"/>
+      <c r="R74" s="146"/>
+      <c r="S74" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="T74" s="154"/>
-      <c r="U74" s="154"/>
-      <c r="V74" s="154"/>
-      <c r="W74" s="154"/>
-      <c r="X74" s="155"/>
-      <c r="Y74" s="40"/>
-      <c r="Z74" s="41"/>
+      <c r="T74" s="141"/>
+      <c r="U74" s="141"/>
+      <c r="V74" s="141"/>
+      <c r="W74" s="141"/>
+      <c r="X74" s="142"/>
+      <c r="Y74" s="199"/>
+      <c r="Z74" s="200"/>
     </row>
     <row r="75" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A75" s="44" t="s">
+      <c r="A75" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B75" s="360" t="s">
+      <c r="B75" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C75" s="168"/>
-      <c r="D75" s="168"/>
-      <c r="E75" s="168"/>
-      <c r="F75" s="168"/>
-      <c r="G75" s="169"/>
-      <c r="H75" s="123" t="s">
+      <c r="C75" s="243"/>
+      <c r="D75" s="243"/>
+      <c r="E75" s="243"/>
+      <c r="F75" s="243"/>
+      <c r="G75" s="244"/>
+      <c r="H75" s="184" t="s">
         <v>82</v>
       </c>
-      <c r="I75" s="124"/>
-      <c r="J75" s="124"/>
-      <c r="K75" s="124"/>
-      <c r="L75" s="124"/>
-      <c r="M75" s="124"/>
-      <c r="N75" s="124"/>
-      <c r="O75" s="124"/>
-      <c r="P75" s="124"/>
-      <c r="Q75" s="124"/>
-      <c r="R75" s="125"/>
-      <c r="S75" s="156"/>
-      <c r="T75" s="154"/>
-      <c r="U75" s="154"/>
-      <c r="V75" s="154"/>
-      <c r="W75" s="154"/>
-      <c r="X75" s="155"/>
-      <c r="Y75" s="40"/>
-      <c r="Z75" s="41"/>
+      <c r="I75" s="145"/>
+      <c r="J75" s="145"/>
+      <c r="K75" s="145"/>
+      <c r="L75" s="145"/>
+      <c r="M75" s="145"/>
+      <c r="N75" s="145"/>
+      <c r="O75" s="145"/>
+      <c r="P75" s="145"/>
+      <c r="Q75" s="145"/>
+      <c r="R75" s="146"/>
+      <c r="S75" s="143"/>
+      <c r="T75" s="141"/>
+      <c r="U75" s="141"/>
+      <c r="V75" s="141"/>
+      <c r="W75" s="141"/>
+      <c r="X75" s="142"/>
+      <c r="Y75" s="199"/>
+      <c r="Z75" s="200"/>
     </row>
     <row r="76" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A76" s="45"/>
-      <c r="B76" s="360" t="s">
+      <c r="A76" s="44"/>
+      <c r="B76" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C76" s="170"/>
-      <c r="D76" s="170"/>
-      <c r="E76" s="170"/>
-      <c r="F76" s="170"/>
-      <c r="G76" s="171"/>
-      <c r="H76" s="160"/>
-      <c r="I76" s="161"/>
-      <c r="J76" s="161"/>
-      <c r="K76" s="161"/>
-      <c r="L76" s="161"/>
-      <c r="M76" s="161"/>
-      <c r="N76" s="161"/>
-      <c r="O76" s="161"/>
-      <c r="P76" s="161"/>
-      <c r="Q76" s="161"/>
-      <c r="R76" s="162"/>
-      <c r="S76" s="157"/>
-      <c r="T76" s="158"/>
-      <c r="U76" s="158"/>
-      <c r="V76" s="158"/>
-      <c r="W76" s="158"/>
-      <c r="X76" s="159"/>
-      <c r="Y76" s="42"/>
-      <c r="Z76" s="43"/>
+      <c r="C76" s="245"/>
+      <c r="D76" s="245"/>
+      <c r="E76" s="245"/>
+      <c r="F76" s="245"/>
+      <c r="G76" s="246"/>
+      <c r="H76" s="220"/>
+      <c r="I76" s="240"/>
+      <c r="J76" s="240"/>
+      <c r="K76" s="240"/>
+      <c r="L76" s="240"/>
+      <c r="M76" s="240"/>
+      <c r="N76" s="240"/>
+      <c r="O76" s="240"/>
+      <c r="P76" s="240"/>
+      <c r="Q76" s="240"/>
+      <c r="R76" s="241"/>
+      <c r="S76" s="234"/>
+      <c r="T76" s="235"/>
+      <c r="U76" s="235"/>
+      <c r="V76" s="235"/>
+      <c r="W76" s="235"/>
+      <c r="X76" s="236"/>
+      <c r="Y76" s="201"/>
+      <c r="Z76" s="202"/>
     </row>
     <row r="77" spans="1:26" ht="14.25" customHeight="1">
       <c r="A77" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="65" t="s">
+      <c r="B77" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="139"/>
-      <c r="H77" s="140" t="s">
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="I77" s="141"/>
-      <c r="J77" s="141"/>
-      <c r="K77" s="141"/>
-      <c r="L77" s="141"/>
-      <c r="M77" s="141"/>
-      <c r="N77" s="141"/>
-      <c r="O77" s="141"/>
-      <c r="P77" s="141"/>
-      <c r="Q77" s="141"/>
-      <c r="R77" s="142"/>
-      <c r="S77" s="65" t="s">
+      <c r="I77" s="85"/>
+      <c r="J77" s="85"/>
+      <c r="K77" s="85"/>
+      <c r="L77" s="85"/>
+      <c r="M77" s="85"/>
+      <c r="N77" s="85"/>
+      <c r="O77" s="85"/>
+      <c r="P77" s="85"/>
+      <c r="Q77" s="85"/>
+      <c r="R77" s="86"/>
+      <c r="S77" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="T77" s="66"/>
-      <c r="U77" s="66"/>
-      <c r="V77" s="66"/>
-      <c r="W77" s="66"/>
-      <c r="X77" s="67"/>
-      <c r="Y77" s="65" t="s">
+      <c r="T77" s="64"/>
+      <c r="U77" s="64"/>
+      <c r="V77" s="64"/>
+      <c r="W77" s="64"/>
+      <c r="X77" s="90"/>
+      <c r="Y77" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="Z77" s="139"/>
+      <c r="Z77" s="65"/>
     </row>
     <row r="78" spans="1:26" ht="14.25" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B78" s="131" t="s">
+      <c r="B78" s="247" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="360" t="s">
+      <c r="C78" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="D78" s="149" t="s">
+      <c r="D78" s="248" t="s">
         <v>121</v>
       </c>
-      <c r="E78" s="149"/>
-      <c r="F78" s="149"/>
-      <c r="G78" s="150"/>
-      <c r="H78" s="143" t="s">
+      <c r="E78" s="248"/>
+      <c r="F78" s="248"/>
+      <c r="G78" s="249"/>
+      <c r="H78" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="I78" s="144"/>
-      <c r="J78" s="144"/>
-      <c r="K78" s="144"/>
-      <c r="L78" s="144"/>
-      <c r="M78" s="144"/>
-      <c r="N78" s="144"/>
-      <c r="O78" s="144"/>
-      <c r="P78" s="144"/>
-      <c r="Q78" s="144"/>
-      <c r="R78" s="145"/>
-      <c r="S78" s="146" t="s">
+      <c r="I78" s="71"/>
+      <c r="J78" s="71"/>
+      <c r="K78" s="71"/>
+      <c r="L78" s="71"/>
+      <c r="M78" s="71"/>
+      <c r="N78" s="71"/>
+      <c r="O78" s="71"/>
+      <c r="P78" s="71"/>
+      <c r="Q78" s="71"/>
+      <c r="R78" s="72"/>
+      <c r="S78" s="181" t="s">
         <v>44</v>
       </c>
-      <c r="T78" s="147"/>
-      <c r="U78" s="147"/>
-      <c r="V78" s="147"/>
-      <c r="W78" s="147"/>
-      <c r="X78" s="148"/>
-      <c r="Y78" s="297" t="s">
+      <c r="T78" s="182"/>
+      <c r="U78" s="182"/>
+      <c r="V78" s="182"/>
+      <c r="W78" s="182"/>
+      <c r="X78" s="183"/>
+      <c r="Y78" s="179" t="s">
         <v>138</v>
       </c>
-      <c r="Z78" s="298"/>
+      <c r="Z78" s="180"/>
     </row>
     <row r="79" spans="1:26" ht="14.25" customHeight="1">
       <c r="A79" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="131"/>
-      <c r="C79" s="361" t="s">
+      <c r="B79" s="247"/>
+      <c r="C79" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="D79" s="132" t="s">
+      <c r="D79" s="250" t="s">
         <v>140</v>
       </c>
-      <c r="E79" s="132"/>
-      <c r="F79" s="132"/>
-      <c r="G79" s="133"/>
-      <c r="H79" s="123" t="s">
+      <c r="E79" s="250"/>
+      <c r="F79" s="250"/>
+      <c r="G79" s="251"/>
+      <c r="H79" s="184" t="s">
         <v>88</v>
       </c>
-      <c r="I79" s="124"/>
-      <c r="J79" s="124"/>
-      <c r="K79" s="124"/>
-      <c r="L79" s="124"/>
-      <c r="M79" s="124"/>
-      <c r="N79" s="124"/>
-      <c r="O79" s="124"/>
-      <c r="P79" s="124"/>
-      <c r="Q79" s="124"/>
-      <c r="R79" s="125"/>
-      <c r="S79" s="126" t="s">
+      <c r="I79" s="145"/>
+      <c r="J79" s="145"/>
+      <c r="K79" s="145"/>
+      <c r="L79" s="145"/>
+      <c r="M79" s="145"/>
+      <c r="N79" s="145"/>
+      <c r="O79" s="145"/>
+      <c r="P79" s="145"/>
+      <c r="Q79" s="145"/>
+      <c r="R79" s="146"/>
+      <c r="S79" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="T79" s="127"/>
-      <c r="U79" s="127"/>
-      <c r="V79" s="127"/>
-      <c r="W79" s="127"/>
-      <c r="X79" s="128"/>
-      <c r="Y79" s="40"/>
-      <c r="Z79" s="41"/>
+      <c r="T79" s="188"/>
+      <c r="U79" s="188"/>
+      <c r="V79" s="188"/>
+      <c r="W79" s="188"/>
+      <c r="X79" s="265"/>
+      <c r="Y79" s="199"/>
+      <c r="Z79" s="200"/>
     </row>
     <row r="80" spans="1:26" ht="14.25" customHeight="1">
       <c r="A80" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="131"/>
-      <c r="C80" s="360" t="s">
+      <c r="B80" s="247"/>
+      <c r="C80" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="D80" s="134" t="s">
+      <c r="D80" s="252" t="s">
         <v>122</v>
       </c>
-      <c r="E80" s="134"/>
-      <c r="F80" s="134"/>
-      <c r="G80" s="135"/>
-      <c r="H80" s="123"/>
-      <c r="I80" s="124"/>
-      <c r="J80" s="124"/>
-      <c r="K80" s="124"/>
-      <c r="L80" s="124"/>
-      <c r="M80" s="124"/>
-      <c r="N80" s="124"/>
-      <c r="O80" s="124"/>
-      <c r="P80" s="124"/>
-      <c r="Q80" s="124"/>
-      <c r="R80" s="125"/>
-      <c r="S80" s="82"/>
-      <c r="T80" s="129"/>
-      <c r="U80" s="129"/>
-      <c r="V80" s="129"/>
-      <c r="W80" s="129"/>
-      <c r="X80" s="128"/>
-      <c r="Y80" s="40"/>
-      <c r="Z80" s="41"/>
+      <c r="E80" s="252"/>
+      <c r="F80" s="252"/>
+      <c r="G80" s="253"/>
+      <c r="H80" s="184"/>
+      <c r="I80" s="145"/>
+      <c r="J80" s="145"/>
+      <c r="K80" s="145"/>
+      <c r="L80" s="145"/>
+      <c r="M80" s="145"/>
+      <c r="N80" s="145"/>
+      <c r="O80" s="145"/>
+      <c r="P80" s="145"/>
+      <c r="Q80" s="145"/>
+      <c r="R80" s="146"/>
+      <c r="S80" s="266"/>
+      <c r="T80" s="267"/>
+      <c r="U80" s="267"/>
+      <c r="V80" s="267"/>
+      <c r="W80" s="267"/>
+      <c r="X80" s="265"/>
+      <c r="Y80" s="199"/>
+      <c r="Z80" s="200"/>
     </row>
     <row r="81" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A81" s="44" t="s">
+      <c r="A81" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B81" s="130" t="s">
+      <c r="B81" s="268" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="360" t="s">
+      <c r="C81" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="D81" s="132" t="s">
+      <c r="D81" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="E81" s="132"/>
-      <c r="F81" s="132"/>
-      <c r="G81" s="133"/>
-      <c r="H81" s="118"/>
-      <c r="I81" s="118"/>
-      <c r="J81" s="118"/>
-      <c r="K81" s="118"/>
-      <c r="L81" s="118"/>
-      <c r="M81" s="118"/>
-      <c r="N81" s="118"/>
-      <c r="O81" s="118"/>
-      <c r="P81" s="118"/>
-      <c r="Q81" s="118"/>
-      <c r="R81" s="119"/>
-      <c r="S81" s="82"/>
-      <c r="T81" s="129"/>
-      <c r="U81" s="129"/>
-      <c r="V81" s="129"/>
-      <c r="W81" s="129"/>
-      <c r="X81" s="128"/>
-      <c r="Y81" s="40"/>
-      <c r="Z81" s="41"/>
+      <c r="E81" s="250"/>
+      <c r="F81" s="250"/>
+      <c r="G81" s="251"/>
+      <c r="H81" s="260"/>
+      <c r="I81" s="260"/>
+      <c r="J81" s="260"/>
+      <c r="K81" s="260"/>
+      <c r="L81" s="260"/>
+      <c r="M81" s="260"/>
+      <c r="N81" s="260"/>
+      <c r="O81" s="260"/>
+      <c r="P81" s="260"/>
+      <c r="Q81" s="260"/>
+      <c r="R81" s="261"/>
+      <c r="S81" s="266"/>
+      <c r="T81" s="267"/>
+      <c r="U81" s="267"/>
+      <c r="V81" s="267"/>
+      <c r="W81" s="267"/>
+      <c r="X81" s="265"/>
+      <c r="Y81" s="199"/>
+      <c r="Z81" s="200"/>
     </row>
     <row r="82" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A82" s="44"/>
-      <c r="B82" s="131"/>
-      <c r="C82" s="361" t="s">
+      <c r="A82" s="43"/>
+      <c r="B82" s="247"/>
+      <c r="C82" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="D82" s="132" t="s">
+      <c r="D82" s="250" t="s">
         <v>139</v>
       </c>
-      <c r="E82" s="132"/>
-      <c r="F82" s="132"/>
-      <c r="G82" s="133"/>
-      <c r="H82" s="118"/>
-      <c r="I82" s="118"/>
-      <c r="J82" s="118"/>
-      <c r="K82" s="118"/>
-      <c r="L82" s="118"/>
-      <c r="M82" s="118"/>
-      <c r="N82" s="118"/>
-      <c r="O82" s="118"/>
-      <c r="P82" s="118"/>
-      <c r="Q82" s="118"/>
-      <c r="R82" s="119"/>
-      <c r="S82" s="82"/>
-      <c r="T82" s="129"/>
-      <c r="U82" s="129"/>
-      <c r="V82" s="129"/>
-      <c r="W82" s="129"/>
-      <c r="X82" s="128"/>
-      <c r="Y82" s="40"/>
-      <c r="Z82" s="41"/>
+      <c r="E82" s="250"/>
+      <c r="F82" s="250"/>
+      <c r="G82" s="251"/>
+      <c r="H82" s="260"/>
+      <c r="I82" s="260"/>
+      <c r="J82" s="260"/>
+      <c r="K82" s="260"/>
+      <c r="L82" s="260"/>
+      <c r="M82" s="260"/>
+      <c r="N82" s="260"/>
+      <c r="O82" s="260"/>
+      <c r="P82" s="260"/>
+      <c r="Q82" s="260"/>
+      <c r="R82" s="261"/>
+      <c r="S82" s="266"/>
+      <c r="T82" s="267"/>
+      <c r="U82" s="267"/>
+      <c r="V82" s="267"/>
+      <c r="W82" s="267"/>
+      <c r="X82" s="265"/>
+      <c r="Y82" s="199"/>
+      <c r="Z82" s="200"/>
     </row>
     <row r="83" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A83" s="44"/>
-      <c r="B83" s="131"/>
-      <c r="C83" s="360" t="s">
+      <c r="A83" s="43"/>
+      <c r="B83" s="247"/>
+      <c r="C83" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="D83" s="132" t="s">
+      <c r="D83" s="250" t="s">
         <v>170</v>
       </c>
-      <c r="E83" s="132"/>
-      <c r="F83" s="132"/>
-      <c r="G83" s="133"/>
+      <c r="E83" s="250"/>
+      <c r="F83" s="250"/>
+      <c r="G83" s="251"/>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
@@ -7362,27 +7383,27 @@
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="18"/>
-      <c r="S83" s="82"/>
-      <c r="T83" s="129"/>
-      <c r="U83" s="129"/>
-      <c r="V83" s="129"/>
-      <c r="W83" s="129"/>
-      <c r="X83" s="128"/>
-      <c r="Y83" s="40"/>
-      <c r="Z83" s="41"/>
+      <c r="S83" s="266"/>
+      <c r="T83" s="267"/>
+      <c r="U83" s="267"/>
+      <c r="V83" s="267"/>
+      <c r="W83" s="267"/>
+      <c r="X83" s="265"/>
+      <c r="Y83" s="199"/>
+      <c r="Z83" s="200"/>
     </row>
     <row r="84" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A84" s="44"/>
-      <c r="B84" s="131"/>
-      <c r="C84" s="360" t="s">
+      <c r="A84" s="43"/>
+      <c r="B84" s="247"/>
+      <c r="C84" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="D84" s="132" t="s">
+      <c r="D84" s="250" t="s">
         <v>171</v>
       </c>
-      <c r="E84" s="132"/>
-      <c r="F84" s="132"/>
-      <c r="G84" s="133"/>
+      <c r="E84" s="250"/>
+      <c r="F84" s="250"/>
+      <c r="G84" s="251"/>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
       <c r="J84" s="17"/>
@@ -7394,27 +7415,27 @@
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="18"/>
-      <c r="S84" s="82"/>
-      <c r="T84" s="129"/>
-      <c r="U84" s="129"/>
-      <c r="V84" s="129"/>
-      <c r="W84" s="129"/>
-      <c r="X84" s="128"/>
-      <c r="Y84" s="40"/>
-      <c r="Z84" s="41"/>
+      <c r="S84" s="266"/>
+      <c r="T84" s="267"/>
+      <c r="U84" s="267"/>
+      <c r="V84" s="267"/>
+      <c r="W84" s="267"/>
+      <c r="X84" s="265"/>
+      <c r="Y84" s="199"/>
+      <c r="Z84" s="200"/>
     </row>
     <row r="85" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A85" s="44"/>
-      <c r="B85" s="131"/>
-      <c r="C85" s="360" t="s">
+      <c r="A85" s="43"/>
+      <c r="B85" s="247"/>
+      <c r="C85" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="D85" s="132" t="s">
+      <c r="D85" s="250" t="s">
         <v>172</v>
       </c>
-      <c r="E85" s="132"/>
-      <c r="F85" s="132"/>
-      <c r="G85" s="133"/>
+      <c r="E85" s="250"/>
+      <c r="F85" s="250"/>
+      <c r="G85" s="251"/>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
       <c r="J85" s="17"/>
@@ -7426,27 +7447,27 @@
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="18"/>
-      <c r="S85" s="82"/>
-      <c r="T85" s="129"/>
-      <c r="U85" s="129"/>
-      <c r="V85" s="129"/>
-      <c r="W85" s="129"/>
-      <c r="X85" s="128"/>
-      <c r="Y85" s="40"/>
-      <c r="Z85" s="41"/>
+      <c r="S85" s="266"/>
+      <c r="T85" s="267"/>
+      <c r="U85" s="267"/>
+      <c r="V85" s="267"/>
+      <c r="W85" s="267"/>
+      <c r="X85" s="265"/>
+      <c r="Y85" s="199"/>
+      <c r="Z85" s="200"/>
     </row>
     <row r="86" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A86" s="44"/>
-      <c r="B86" s="131"/>
-      <c r="C86" s="360" t="s">
+      <c r="A86" s="43"/>
+      <c r="B86" s="247"/>
+      <c r="C86" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="D86" s="132" t="s">
+      <c r="D86" s="250" t="s">
         <v>173</v>
       </c>
-      <c r="E86" s="132"/>
-      <c r="F86" s="132"/>
-      <c r="G86" s="133"/>
+      <c r="E86" s="250"/>
+      <c r="F86" s="250"/>
+      <c r="G86" s="251"/>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
       <c r="J86" s="17"/>
@@ -7458,27 +7479,27 @@
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
       <c r="R86" s="18"/>
-      <c r="S86" s="82"/>
-      <c r="T86" s="129"/>
-      <c r="U86" s="129"/>
-      <c r="V86" s="129"/>
-      <c r="W86" s="129"/>
-      <c r="X86" s="128"/>
-      <c r="Y86" s="40"/>
-      <c r="Z86" s="41"/>
+      <c r="S86" s="266"/>
+      <c r="T86" s="267"/>
+      <c r="U86" s="267"/>
+      <c r="V86" s="267"/>
+      <c r="W86" s="267"/>
+      <c r="X86" s="265"/>
+      <c r="Y86" s="199"/>
+      <c r="Z86" s="200"/>
     </row>
     <row r="87" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A87" s="44"/>
-      <c r="B87" s="131"/>
-      <c r="C87" s="360" t="s">
+      <c r="A87" s="43"/>
+      <c r="B87" s="247"/>
+      <c r="C87" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="D87" s="132" t="s">
+      <c r="D87" s="250" t="s">
         <v>201</v>
       </c>
-      <c r="E87" s="132"/>
-      <c r="F87" s="132"/>
-      <c r="G87" s="133"/>
+      <c r="E87" s="250"/>
+      <c r="F87" s="250"/>
+      <c r="G87" s="251"/>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
       <c r="J87" s="17"/>
@@ -7490,27 +7511,27 @@
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
       <c r="R87" s="18"/>
-      <c r="S87" s="82"/>
-      <c r="T87" s="129"/>
-      <c r="U87" s="129"/>
-      <c r="V87" s="129"/>
-      <c r="W87" s="129"/>
-      <c r="X87" s="128"/>
-      <c r="Y87" s="40"/>
-      <c r="Z87" s="41"/>
+      <c r="S87" s="266"/>
+      <c r="T87" s="267"/>
+      <c r="U87" s="267"/>
+      <c r="V87" s="267"/>
+      <c r="W87" s="267"/>
+      <c r="X87" s="265"/>
+      <c r="Y87" s="199"/>
+      <c r="Z87" s="200"/>
     </row>
     <row r="88" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A88" s="44"/>
-      <c r="B88" s="131"/>
-      <c r="C88" s="360" t="s">
+      <c r="A88" s="43"/>
+      <c r="B88" s="247"/>
+      <c r="C88" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="D88" s="132" t="s">
+      <c r="D88" s="250" t="s">
         <v>200</v>
       </c>
-      <c r="E88" s="132"/>
-      <c r="F88" s="132"/>
-      <c r="G88" s="133"/>
+      <c r="E88" s="250"/>
+      <c r="F88" s="250"/>
+      <c r="G88" s="251"/>
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
       <c r="J88" s="17"/>
@@ -7522,59 +7543,59 @@
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
       <c r="R88" s="18"/>
-      <c r="S88" s="82"/>
-      <c r="T88" s="129"/>
-      <c r="U88" s="129"/>
-      <c r="V88" s="129"/>
-      <c r="W88" s="129"/>
-      <c r="X88" s="128"/>
-      <c r="Y88" s="40"/>
-      <c r="Z88" s="41"/>
+      <c r="S88" s="266"/>
+      <c r="T88" s="267"/>
+      <c r="U88" s="267"/>
+      <c r="V88" s="267"/>
+      <c r="W88" s="267"/>
+      <c r="X88" s="265"/>
+      <c r="Y88" s="199"/>
+      <c r="Z88" s="200"/>
     </row>
     <row r="89" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A89" s="44"/>
-      <c r="B89" s="131"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="247"/>
       <c r="C89" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="D89" s="132" t="s">
+      <c r="D89" s="250" t="s">
         <v>124</v>
       </c>
-      <c r="E89" s="132"/>
-      <c r="F89" s="132"/>
-      <c r="G89" s="133"/>
-      <c r="H89" s="118"/>
-      <c r="I89" s="118"/>
-      <c r="J89" s="118"/>
-      <c r="K89" s="118"/>
-      <c r="L89" s="118"/>
-      <c r="M89" s="118"/>
-      <c r="N89" s="118"/>
-      <c r="O89" s="118"/>
-      <c r="P89" s="118"/>
-      <c r="Q89" s="118"/>
-      <c r="R89" s="119"/>
-      <c r="S89" s="82"/>
-      <c r="T89" s="129"/>
-      <c r="U89" s="129"/>
-      <c r="V89" s="129"/>
-      <c r="W89" s="129"/>
-      <c r="X89" s="128"/>
-      <c r="Y89" s="40"/>
-      <c r="Z89" s="41"/>
+      <c r="E89" s="250"/>
+      <c r="F89" s="250"/>
+      <c r="G89" s="251"/>
+      <c r="H89" s="260"/>
+      <c r="I89" s="260"/>
+      <c r="J89" s="260"/>
+      <c r="K89" s="260"/>
+      <c r="L89" s="260"/>
+      <c r="M89" s="260"/>
+      <c r="N89" s="260"/>
+      <c r="O89" s="260"/>
+      <c r="P89" s="260"/>
+      <c r="Q89" s="260"/>
+      <c r="R89" s="261"/>
+      <c r="S89" s="266"/>
+      <c r="T89" s="267"/>
+      <c r="U89" s="267"/>
+      <c r="V89" s="267"/>
+      <c r="W89" s="267"/>
+      <c r="X89" s="265"/>
+      <c r="Y89" s="199"/>
+      <c r="Z89" s="200"/>
     </row>
     <row r="90" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A90" s="44"/>
-      <c r="B90" s="131"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="247"/>
       <c r="C90" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="D90" s="132" t="s">
+      <c r="D90" s="250" t="s">
         <v>175</v>
       </c>
-      <c r="E90" s="132"/>
-      <c r="F90" s="132"/>
-      <c r="G90" s="133"/>
+      <c r="E90" s="250"/>
+      <c r="F90" s="250"/>
+      <c r="G90" s="251"/>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
       <c r="J90" s="11"/>
@@ -7586,27 +7607,27 @@
       <c r="P90" s="11"/>
       <c r="Q90" s="11"/>
       <c r="R90" s="12"/>
-      <c r="S90" s="82"/>
-      <c r="T90" s="129"/>
-      <c r="U90" s="129"/>
-      <c r="V90" s="129"/>
-      <c r="W90" s="129"/>
-      <c r="X90" s="128"/>
-      <c r="Y90" s="40"/>
-      <c r="Z90" s="41"/>
+      <c r="S90" s="266"/>
+      <c r="T90" s="267"/>
+      <c r="U90" s="267"/>
+      <c r="V90" s="267"/>
+      <c r="W90" s="267"/>
+      <c r="X90" s="265"/>
+      <c r="Y90" s="199"/>
+      <c r="Z90" s="200"/>
     </row>
     <row r="91" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A91" s="44"/>
-      <c r="B91" s="131"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="247"/>
       <c r="C91" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="D91" s="132" t="s">
+      <c r="D91" s="250" t="s">
         <v>176</v>
       </c>
-      <c r="E91" s="132"/>
-      <c r="F91" s="132"/>
-      <c r="G91" s="133"/>
+      <c r="E91" s="250"/>
+      <c r="F91" s="250"/>
+      <c r="G91" s="251"/>
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
       <c r="J91" s="17"/>
@@ -7618,27 +7639,27 @@
       <c r="P91" s="17"/>
       <c r="Q91" s="17"/>
       <c r="R91" s="18"/>
-      <c r="S91" s="82"/>
-      <c r="T91" s="129"/>
-      <c r="U91" s="129"/>
-      <c r="V91" s="129"/>
-      <c r="W91" s="129"/>
-      <c r="X91" s="128"/>
-      <c r="Y91" s="40"/>
-      <c r="Z91" s="41"/>
+      <c r="S91" s="266"/>
+      <c r="T91" s="267"/>
+      <c r="U91" s="267"/>
+      <c r="V91" s="267"/>
+      <c r="W91" s="267"/>
+      <c r="X91" s="265"/>
+      <c r="Y91" s="199"/>
+      <c r="Z91" s="200"/>
     </row>
     <row r="92" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A92" s="45"/>
-      <c r="B92" s="131"/>
+      <c r="A92" s="44"/>
+      <c r="B92" s="247"/>
       <c r="C92" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="D92" s="134" t="s">
+      <c r="D92" s="252" t="s">
         <v>125</v>
       </c>
-      <c r="E92" s="134"/>
-      <c r="F92" s="134"/>
-      <c r="G92" s="135"/>
+      <c r="E92" s="252"/>
+      <c r="F92" s="252"/>
+      <c r="G92" s="253"/>
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
       <c r="J92" s="11"/>
@@ -7650,167 +7671,482 @@
       <c r="P92" s="11"/>
       <c r="Q92" s="11"/>
       <c r="R92" s="12"/>
-      <c r="S92" s="82"/>
-      <c r="T92" s="129"/>
-      <c r="U92" s="129"/>
-      <c r="V92" s="129"/>
-      <c r="W92" s="129"/>
-      <c r="X92" s="128"/>
-      <c r="Y92" s="42"/>
-      <c r="Z92" s="43"/>
+      <c r="S92" s="266"/>
+      <c r="T92" s="267"/>
+      <c r="U92" s="267"/>
+      <c r="V92" s="267"/>
+      <c r="W92" s="267"/>
+      <c r="X92" s="265"/>
+      <c r="Y92" s="201"/>
+      <c r="Z92" s="202"/>
     </row>
     <row r="93" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A93" s="120" t="s">
+      <c r="A93" s="262" t="s">
         <v>89</v>
       </c>
-      <c r="B93" s="121"/>
-      <c r="C93" s="121"/>
-      <c r="D93" s="121"/>
-      <c r="E93" s="121"/>
-      <c r="F93" s="121"/>
-      <c r="G93" s="121"/>
-      <c r="H93" s="121"/>
-      <c r="I93" s="121"/>
-      <c r="J93" s="121"/>
-      <c r="K93" s="121"/>
-      <c r="L93" s="121"/>
-      <c r="M93" s="121"/>
-      <c r="N93" s="121"/>
-      <c r="O93" s="121"/>
-      <c r="P93" s="121"/>
-      <c r="Q93" s="121"/>
-      <c r="R93" s="121"/>
-      <c r="S93" s="121"/>
-      <c r="T93" s="121"/>
-      <c r="U93" s="121"/>
-      <c r="V93" s="121"/>
-      <c r="W93" s="121"/>
-      <c r="X93" s="121"/>
-      <c r="Y93" s="121"/>
-      <c r="Z93" s="122"/>
+      <c r="B93" s="263"/>
+      <c r="C93" s="263"/>
+      <c r="D93" s="263"/>
+      <c r="E93" s="263"/>
+      <c r="F93" s="263"/>
+      <c r="G93" s="263"/>
+      <c r="H93" s="263"/>
+      <c r="I93" s="263"/>
+      <c r="J93" s="263"/>
+      <c r="K93" s="263"/>
+      <c r="L93" s="263"/>
+      <c r="M93" s="263"/>
+      <c r="N93" s="263"/>
+      <c r="O93" s="263"/>
+      <c r="P93" s="263"/>
+      <c r="Q93" s="263"/>
+      <c r="R93" s="263"/>
+      <c r="S93" s="263"/>
+      <c r="T93" s="263"/>
+      <c r="U93" s="263"/>
+      <c r="V93" s="263"/>
+      <c r="W93" s="263"/>
+      <c r="X93" s="263"/>
+      <c r="Y93" s="263"/>
+      <c r="Z93" s="264"/>
     </row>
     <row r="94" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A94" s="112" t="s">
+      <c r="A94" s="254" t="s">
         <v>90</v>
       </c>
-      <c r="B94" s="113"/>
-      <c r="C94" s="113"/>
-      <c r="D94" s="113"/>
-      <c r="E94" s="113"/>
-      <c r="F94" s="113"/>
-      <c r="G94" s="113"/>
-      <c r="H94" s="113"/>
-      <c r="I94" s="113"/>
-      <c r="J94" s="113"/>
-      <c r="K94" s="113"/>
-      <c r="L94" s="113"/>
-      <c r="M94" s="113"/>
-      <c r="N94" s="113"/>
-      <c r="O94" s="113"/>
-      <c r="P94" s="113"/>
-      <c r="Q94" s="113"/>
-      <c r="R94" s="113"/>
-      <c r="S94" s="113"/>
-      <c r="T94" s="113"/>
-      <c r="U94" s="113"/>
-      <c r="V94" s="113"/>
-      <c r="W94" s="113"/>
-      <c r="X94" s="113"/>
-      <c r="Y94" s="113"/>
-      <c r="Z94" s="114"/>
+      <c r="B94" s="255"/>
+      <c r="C94" s="255"/>
+      <c r="D94" s="255"/>
+      <c r="E94" s="255"/>
+      <c r="F94" s="255"/>
+      <c r="G94" s="255"/>
+      <c r="H94" s="255"/>
+      <c r="I94" s="255"/>
+      <c r="J94" s="255"/>
+      <c r="K94" s="255"/>
+      <c r="L94" s="255"/>
+      <c r="M94" s="255"/>
+      <c r="N94" s="255"/>
+      <c r="O94" s="255"/>
+      <c r="P94" s="255"/>
+      <c r="Q94" s="255"/>
+      <c r="R94" s="255"/>
+      <c r="S94" s="255"/>
+      <c r="T94" s="255"/>
+      <c r="U94" s="255"/>
+      <c r="V94" s="255"/>
+      <c r="W94" s="255"/>
+      <c r="X94" s="255"/>
+      <c r="Y94" s="255"/>
+      <c r="Z94" s="256"/>
     </row>
     <row r="95" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A95" s="112" t="s">
+      <c r="A95" s="254" t="s">
         <v>91</v>
       </c>
-      <c r="B95" s="113"/>
-      <c r="C95" s="113"/>
-      <c r="D95" s="113"/>
-      <c r="E95" s="113"/>
-      <c r="F95" s="113"/>
-      <c r="G95" s="113"/>
-      <c r="H95" s="113"/>
-      <c r="I95" s="113"/>
-      <c r="J95" s="113"/>
-      <c r="K95" s="113"/>
-      <c r="L95" s="113"/>
-      <c r="M95" s="113"/>
-      <c r="N95" s="113"/>
-      <c r="O95" s="113"/>
-      <c r="P95" s="113"/>
-      <c r="Q95" s="113"/>
-      <c r="R95" s="113"/>
-      <c r="S95" s="113"/>
-      <c r="T95" s="113"/>
-      <c r="U95" s="113"/>
-      <c r="V95" s="113"/>
-      <c r="W95" s="113"/>
-      <c r="X95" s="113"/>
-      <c r="Y95" s="113"/>
-      <c r="Z95" s="114"/>
+      <c r="B95" s="255"/>
+      <c r="C95" s="255"/>
+      <c r="D95" s="255"/>
+      <c r="E95" s="255"/>
+      <c r="F95" s="255"/>
+      <c r="G95" s="255"/>
+      <c r="H95" s="255"/>
+      <c r="I95" s="255"/>
+      <c r="J95" s="255"/>
+      <c r="K95" s="255"/>
+      <c r="L95" s="255"/>
+      <c r="M95" s="255"/>
+      <c r="N95" s="255"/>
+      <c r="O95" s="255"/>
+      <c r="P95" s="255"/>
+      <c r="Q95" s="255"/>
+      <c r="R95" s="255"/>
+      <c r="S95" s="255"/>
+      <c r="T95" s="255"/>
+      <c r="U95" s="255"/>
+      <c r="V95" s="255"/>
+      <c r="W95" s="255"/>
+      <c r="X95" s="255"/>
+      <c r="Y95" s="255"/>
+      <c r="Z95" s="256"/>
     </row>
     <row r="96" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A96" s="136" t="s">
+      <c r="A96" s="269" t="s">
         <v>92</v>
       </c>
-      <c r="B96" s="137"/>
-      <c r="C96" s="137"/>
-      <c r="D96" s="137"/>
-      <c r="E96" s="137"/>
-      <c r="F96" s="137"/>
-      <c r="G96" s="137"/>
-      <c r="H96" s="137"/>
-      <c r="I96" s="137"/>
-      <c r="J96" s="137"/>
-      <c r="K96" s="137"/>
-      <c r="L96" s="137"/>
-      <c r="M96" s="137"/>
-      <c r="N96" s="137"/>
-      <c r="O96" s="137"/>
-      <c r="P96" s="137"/>
-      <c r="Q96" s="137"/>
-      <c r="R96" s="137"/>
-      <c r="S96" s="137"/>
-      <c r="T96" s="137"/>
-      <c r="U96" s="137"/>
-      <c r="V96" s="137"/>
-      <c r="W96" s="137"/>
-      <c r="X96" s="137"/>
-      <c r="Y96" s="137"/>
-      <c r="Z96" s="138"/>
+      <c r="B96" s="270"/>
+      <c r="C96" s="270"/>
+      <c r="D96" s="270"/>
+      <c r="E96" s="270"/>
+      <c r="F96" s="270"/>
+      <c r="G96" s="270"/>
+      <c r="H96" s="270"/>
+      <c r="I96" s="270"/>
+      <c r="J96" s="270"/>
+      <c r="K96" s="270"/>
+      <c r="L96" s="270"/>
+      <c r="M96" s="270"/>
+      <c r="N96" s="270"/>
+      <c r="O96" s="270"/>
+      <c r="P96" s="270"/>
+      <c r="Q96" s="270"/>
+      <c r="R96" s="270"/>
+      <c r="S96" s="270"/>
+      <c r="T96" s="270"/>
+      <c r="U96" s="270"/>
+      <c r="V96" s="270"/>
+      <c r="W96" s="270"/>
+      <c r="X96" s="270"/>
+      <c r="Y96" s="270"/>
+      <c r="Z96" s="271"/>
     </row>
     <row r="97" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A97" s="115" t="s">
+      <c r="A97" s="257" t="s">
         <v>174</v>
       </c>
-      <c r="B97" s="116"/>
-      <c r="C97" s="116"/>
-      <c r="D97" s="116"/>
-      <c r="E97" s="116"/>
-      <c r="F97" s="116"/>
-      <c r="G97" s="116"/>
-      <c r="H97" s="116"/>
-      <c r="I97" s="116"/>
-      <c r="J97" s="116"/>
-      <c r="K97" s="116"/>
-      <c r="L97" s="116"/>
-      <c r="M97" s="116"/>
-      <c r="N97" s="116"/>
-      <c r="O97" s="116"/>
-      <c r="P97" s="116"/>
-      <c r="Q97" s="116"/>
-      <c r="R97" s="116"/>
-      <c r="S97" s="116"/>
-      <c r="T97" s="116"/>
-      <c r="U97" s="116"/>
-      <c r="V97" s="116"/>
-      <c r="W97" s="116"/>
-      <c r="X97" s="116"/>
-      <c r="Y97" s="116"/>
-      <c r="Z97" s="117"/>
+      <c r="B97" s="258"/>
+      <c r="C97" s="258"/>
+      <c r="D97" s="258"/>
+      <c r="E97" s="258"/>
+      <c r="F97" s="258"/>
+      <c r="G97" s="258"/>
+      <c r="H97" s="258"/>
+      <c r="I97" s="258"/>
+      <c r="J97" s="258"/>
+      <c r="K97" s="258"/>
+      <c r="L97" s="258"/>
+      <c r="M97" s="258"/>
+      <c r="N97" s="258"/>
+      <c r="O97" s="258"/>
+      <c r="P97" s="258"/>
+      <c r="Q97" s="258"/>
+      <c r="R97" s="258"/>
+      <c r="S97" s="258"/>
+      <c r="T97" s="258"/>
+      <c r="U97" s="258"/>
+      <c r="V97" s="258"/>
+      <c r="W97" s="258"/>
+      <c r="X97" s="258"/>
+      <c r="Y97" s="258"/>
+      <c r="Z97" s="259"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="339">
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="S50:X50"/>
+    <mergeCell ref="Y51:Z57"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="Y44:Z48"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:X40"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:X30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="T34:X34"/>
+    <mergeCell ref="H32:J34"/>
+    <mergeCell ref="K32:L34"/>
+    <mergeCell ref="M32:N34"/>
+    <mergeCell ref="O33:S33"/>
+    <mergeCell ref="A28:A41"/>
+    <mergeCell ref="C64:G65"/>
+    <mergeCell ref="C27:C41"/>
+    <mergeCell ref="B11:B41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:X41"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="S42:X42"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:X28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:X16"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="O18:X21"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:X25"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y9:Z15"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:X37"/>
+    <mergeCell ref="O31:X31"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:X15"/>
+    <mergeCell ref="O26:X26"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O27:X27"/>
+    <mergeCell ref="Y19:Z41"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O38:X38"/>
+    <mergeCell ref="O39:X39"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O34:S34"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:X23"/>
+    <mergeCell ref="T32:X32"/>
+    <mergeCell ref="O29:X29"/>
+    <mergeCell ref="O12:X12"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O17:X17"/>
+    <mergeCell ref="O24:X24"/>
+    <mergeCell ref="O14:X14"/>
+    <mergeCell ref="A95:Z95"/>
+    <mergeCell ref="A97:Z97"/>
+    <mergeCell ref="H89:R89"/>
+    <mergeCell ref="A93:Z93"/>
+    <mergeCell ref="A94:Z94"/>
+    <mergeCell ref="H79:R79"/>
+    <mergeCell ref="S79:X92"/>
+    <mergeCell ref="H80:R80"/>
+    <mergeCell ref="B81:B92"/>
+    <mergeCell ref="H81:R81"/>
+    <mergeCell ref="H82:R82"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="A96:Z96"/>
+    <mergeCell ref="A81:A92"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:R77"/>
+    <mergeCell ref="S77:X77"/>
+    <mergeCell ref="Y77:Z77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="H78:R78"/>
+    <mergeCell ref="S78:X78"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="Y78:Z78"/>
+    <mergeCell ref="Y79:Z92"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="S73:X73"/>
+    <mergeCell ref="H74:R74"/>
+    <mergeCell ref="S74:X76"/>
+    <mergeCell ref="H75:R75"/>
+    <mergeCell ref="H76:R76"/>
+    <mergeCell ref="Y73:Z73"/>
+    <mergeCell ref="Y74:Z76"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:R72"/>
+    <mergeCell ref="S72:X72"/>
+    <mergeCell ref="Y72:Z72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H73:R73"/>
+    <mergeCell ref="Y66:Z71"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:R63"/>
+    <mergeCell ref="S63:X63"/>
+    <mergeCell ref="Y63:Z63"/>
+    <mergeCell ref="H64:R64"/>
+    <mergeCell ref="S64:X64"/>
+    <mergeCell ref="H71:R71"/>
+    <mergeCell ref="Y64:Z64"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H66:R66"/>
+    <mergeCell ref="H67:R67"/>
+    <mergeCell ref="H68:R68"/>
+    <mergeCell ref="H69:R69"/>
+    <mergeCell ref="H70:R70"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="S66:X71"/>
+    <mergeCell ref="Y60:Z62"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:R58"/>
+    <mergeCell ref="S58:X58"/>
+    <mergeCell ref="H51:R51"/>
+    <mergeCell ref="S51:X57"/>
+    <mergeCell ref="H53:R53"/>
+    <mergeCell ref="H54:R54"/>
+    <mergeCell ref="H55:R55"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:R49"/>
+    <mergeCell ref="S49:X49"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="H50:R50"/>
+    <mergeCell ref="Y58:Z58"/>
+    <mergeCell ref="H59:R59"/>
+    <mergeCell ref="S59:X59"/>
+    <mergeCell ref="H60:R60"/>
+    <mergeCell ref="H57:R57"/>
+    <mergeCell ref="H52:R52"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D19:E21"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D32:G34"/>
+    <mergeCell ref="Y59:Z59"/>
+    <mergeCell ref="S43:X43"/>
+    <mergeCell ref="H44:R44"/>
+    <mergeCell ref="S44:X48"/>
+    <mergeCell ref="H45:R45"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="H42:R42"/>
+    <mergeCell ref="H46:R46"/>
+    <mergeCell ref="H47:R47"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="O36:X36"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="H48:R48"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:X35"/>
+    <mergeCell ref="C13:C26"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="S60:X62"/>
+    <mergeCell ref="H61:R61"/>
+    <mergeCell ref="H62:R62"/>
+    <mergeCell ref="C59:G60"/>
+    <mergeCell ref="C61:G62"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="C11:G12"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="O13:X13"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="S8:T10"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K11:X11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:Z6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="L2:Z2"/>
+    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H43:R43"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B8:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="D13:G14"/>
+    <mergeCell ref="H13:J14"/>
+    <mergeCell ref="K13:L14"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="U3:W3"/>
     <mergeCell ref="X3:Z3"/>
@@ -7835,319 +8171,6 @@
     <mergeCell ref="H11:J12"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="B42:G42"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H43:R43"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:Z6"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="L2:Z2"/>
-    <mergeCell ref="A2:K3"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:X7"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B8:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="D13:G14"/>
-    <mergeCell ref="H13:J14"/>
-    <mergeCell ref="K13:L14"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="O13:X13"/>
-    <mergeCell ref="C13:C26"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="S60:X62"/>
-    <mergeCell ref="H61:R61"/>
-    <mergeCell ref="H62:R62"/>
-    <mergeCell ref="C59:G60"/>
-    <mergeCell ref="C61:G62"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="C11:G12"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D19:E21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D32:G34"/>
-    <mergeCell ref="Y59:Z59"/>
-    <mergeCell ref="S43:X43"/>
-    <mergeCell ref="H44:R44"/>
-    <mergeCell ref="S44:X48"/>
-    <mergeCell ref="H45:R45"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="H42:R42"/>
-    <mergeCell ref="H46:R46"/>
-    <mergeCell ref="H47:R47"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="O36:X36"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="H48:R48"/>
-    <mergeCell ref="Y60:Z62"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="H58:R58"/>
-    <mergeCell ref="S58:X58"/>
-    <mergeCell ref="H51:R51"/>
-    <mergeCell ref="S51:X57"/>
-    <mergeCell ref="H53:R53"/>
-    <mergeCell ref="H54:R54"/>
-    <mergeCell ref="H55:R55"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="H49:R49"/>
-    <mergeCell ref="S49:X49"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="H50:R50"/>
-    <mergeCell ref="Y58:Z58"/>
-    <mergeCell ref="H59:R59"/>
-    <mergeCell ref="S59:X59"/>
-    <mergeCell ref="H60:R60"/>
-    <mergeCell ref="H57:R57"/>
-    <mergeCell ref="H52:R52"/>
-    <mergeCell ref="Y66:Z71"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="H63:R63"/>
-    <mergeCell ref="S63:X63"/>
-    <mergeCell ref="Y63:Z63"/>
-    <mergeCell ref="H64:R64"/>
-    <mergeCell ref="S64:X64"/>
-    <mergeCell ref="H71:R71"/>
-    <mergeCell ref="Y64:Z64"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H66:R66"/>
-    <mergeCell ref="H67:R67"/>
-    <mergeCell ref="H68:R68"/>
-    <mergeCell ref="H69:R69"/>
-    <mergeCell ref="H70:R70"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="S66:X71"/>
-    <mergeCell ref="S73:X73"/>
-    <mergeCell ref="H74:R74"/>
-    <mergeCell ref="S74:X76"/>
-    <mergeCell ref="H75:R75"/>
-    <mergeCell ref="H76:R76"/>
-    <mergeCell ref="Y73:Z73"/>
-    <mergeCell ref="Y74:Z76"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="H72:R72"/>
-    <mergeCell ref="S72:X72"/>
-    <mergeCell ref="Y72:Z72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H73:R73"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="H77:R77"/>
-    <mergeCell ref="S77:X77"/>
-    <mergeCell ref="Y77:Z77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="H78:R78"/>
-    <mergeCell ref="S78:X78"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="Y78:Z78"/>
-    <mergeCell ref="Y79:Z92"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="A95:Z95"/>
-    <mergeCell ref="A97:Z97"/>
-    <mergeCell ref="H89:R89"/>
-    <mergeCell ref="A93:Z93"/>
-    <mergeCell ref="A94:Z94"/>
-    <mergeCell ref="H79:R79"/>
-    <mergeCell ref="S79:X92"/>
-    <mergeCell ref="H80:R80"/>
-    <mergeCell ref="B81:B92"/>
-    <mergeCell ref="H81:R81"/>
-    <mergeCell ref="H82:R82"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="A96:Z96"/>
-    <mergeCell ref="A81:A92"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="S8:T10"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K11:X11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="O32:S32"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:X35"/>
-    <mergeCell ref="T32:X32"/>
-    <mergeCell ref="O29:X29"/>
-    <mergeCell ref="O12:X12"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O17:X17"/>
-    <mergeCell ref="O24:X24"/>
-    <mergeCell ref="O14:X14"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:X23"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y9:Z15"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:X37"/>
-    <mergeCell ref="O31:X31"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:X15"/>
-    <mergeCell ref="O26:X26"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O27:X27"/>
-    <mergeCell ref="Y19:Z41"/>
-    <mergeCell ref="O22:X22"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O38:X38"/>
-    <mergeCell ref="O39:X39"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O34:S34"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:X16"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="O18:X21"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:X25"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="A28:A41"/>
-    <mergeCell ref="C64:G65"/>
-    <mergeCell ref="C27:C41"/>
-    <mergeCell ref="B11:B41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:X41"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="S42:X42"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:X28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="S50:X50"/>
-    <mergeCell ref="Y51:Z57"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="Y44:Z48"/>
-    <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:X40"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:X30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="T34:X34"/>
-    <mergeCell ref="H32:J34"/>
-    <mergeCell ref="K32:L34"/>
-    <mergeCell ref="M32:N34"/>
-    <mergeCell ref="O33:S33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
